--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/2021_budget_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EB94BEC-ED2D-4183-8F0C-087D88B081B7}"/>
+  <xr:revisionPtr revIDLastSave="1004" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FA28C86-66BB-433F-B7EA-5E9D81065607}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 BEVÉTEL" sheetId="2" r:id="rId1"/>
     <sheet name="2020 KIADÁS" sheetId="1" r:id="rId2"/>
+    <sheet name="2021 BEVÉTEL" sheetId="3" r:id="rId3"/>
+    <sheet name="2021 KIADÁS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="381">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -633,7 +635,550 @@
     <t>Vásárcsarnok fejlesztés (K7302)</t>
   </si>
   <si>
-    <t>Finanszírozási kiadások (K8)</t>
+    <t>2021 BEVÉTEL</t>
+  </si>
+  <si>
+    <t>Önkormányzati Hivatal működésének támogatása  (B110101)</t>
+  </si>
+  <si>
+    <t>Településüzemeltetés - zöldterület-gazdálkodás támogatása (B110102)</t>
+  </si>
+  <si>
+    <t>Településüzemeltetés - közutak támogatása (B110103)</t>
+  </si>
+  <si>
+    <t>Egyéb önkormányzati feladatok támogatása (B110104)</t>
+  </si>
+  <si>
+    <t>Óvodaműködtetési támogatás (B110201)</t>
+  </si>
+  <si>
+    <t>Az Óvodában foglalkoztatott pedagógusok átlagbéralapú támogatása (B110202)</t>
+  </si>
+  <si>
+    <t>Kiegészítő támogatás a pedagógusok és a pedagógus szakképzettséggel rendelkező segítők minősítéséből adódó többletkiadásokhoz (B110203)</t>
+  </si>
+  <si>
+    <t>Nemzetiségi pótlék (B110204)</t>
+  </si>
+  <si>
+    <t>Az óvodában foglalkoztatott pedagógusok nevelőmunkáját közvetlenül segítők átlagbéralapú támogatása (B110205)</t>
+  </si>
+  <si>
+    <t>Egyes szociális és gyermekjóléti feladatok támogatása (B110301)</t>
+  </si>
+  <si>
+    <t>Bölcsőde, mini bölcsőde támogatása (B110302)</t>
+  </si>
+  <si>
+    <t>Az önkormányzatok által biztosított egyes szociális szakosított ellátások, valamint a gyermekek átmeneti gondozásával kapcsolatos feladatok támogatása (B110303)</t>
+  </si>
+  <si>
+    <t>A települési önkormányzatok gyermekétkeztetési feladatainak támogatása (B110304)</t>
+  </si>
+  <si>
+    <t>Haszonbérlet és egyéb parkolási bevétel (B3304)</t>
+  </si>
+  <si>
+    <t>Piacüzemeltetésből származó bevétel (B3305)</t>
+  </si>
+  <si>
+    <t>Egyéb tulajdonnal összefüggő bevétel (víz, csatorna, szemét) (B3306)</t>
+  </si>
+  <si>
+    <t>Egyéb működési bevételek (B38)</t>
+  </si>
+  <si>
+    <t>Működési célú átvett pénzeszközök (B4)</t>
+  </si>
+  <si>
+    <t>Belföldi értékpapírok bevételei (B81)</t>
+  </si>
+  <si>
+    <t>Maradvány igénybevétele (B82)</t>
+  </si>
+  <si>
+    <t>Finanszírozási többlet (maradvány, értékpapírok beváltása) (FT1)</t>
+  </si>
+  <si>
+    <t>2021 KIADÁS</t>
+  </si>
+  <si>
+    <t>Polgármesteri hivatal dologi kiadásai (K22)</t>
+  </si>
+  <si>
+    <t>Készletbeszerzés (K2201)</t>
+  </si>
+  <si>
+    <t>Kommunikációs szolgáltatások (K2202)</t>
+  </si>
+  <si>
+    <t>Szolgáltatási kiadások (K2203)</t>
+  </si>
+  <si>
+    <t>Kiküldetés, reklám (K2204)</t>
+  </si>
+  <si>
+    <t>Különféle befizetések és dologi kiadások (K2205)</t>
+  </si>
+  <si>
+    <t>Települési támogatás formájában, havi rendszerességgel nyújtott támogatások (K31)</t>
+  </si>
+  <si>
+    <t>Gyógyszertámogatás (K3101)</t>
+  </si>
+  <si>
+    <t>Ápolási támogatás (K3102)</t>
+  </si>
+  <si>
+    <t>Lakhatási támogatás (K3103)</t>
+  </si>
+  <si>
+    <t>Hátralékkiegyenlítő támogatás              (K3104)</t>
+  </si>
+  <si>
+    <t>Hátralékkiegyenlítő támogatáshoz nyújtott lakhatási támogatás (K3105)</t>
+  </si>
+  <si>
+    <t>Fűtéstámogatás (K3106)</t>
+  </si>
+  <si>
+    <t>Lakbértámogatás (K3107)</t>
+  </si>
+  <si>
+    <t>Rendkívüli települési támogatások (K32)</t>
+  </si>
+  <si>
+    <t>Eseti támogatás (K3201)</t>
+  </si>
+  <si>
+    <t>Temetési támogatás (K3202)</t>
+  </si>
+  <si>
+    <t>Születési támogatás (K3203)</t>
+  </si>
+  <si>
+    <t>Egyszeri támogatásként (K3204)</t>
+  </si>
+  <si>
+    <t>Támogatás idősek világnapjára természetbeni juttatásként (K3205)</t>
+  </si>
+  <si>
+    <t>Egyszeri természetbeni juttatásként (K3206)</t>
+  </si>
+  <si>
+    <t>Méltányossági segély  (K3207)</t>
+  </si>
+  <si>
+    <t>Rendkívüli bérletidíj-támogatás (K3208)</t>
+  </si>
+  <si>
+    <t>Lakás-felújítási támogatás (K3209)</t>
+  </si>
+  <si>
+    <t>Fiatalok életkezdési támogatás (K3210)</t>
+  </si>
+  <si>
+    <t>Mosható nadrágpelenka támogatás (K3211)</t>
+  </si>
+  <si>
+    <t>Köztemetés (K3212)</t>
+  </si>
+  <si>
+    <t>Egyéb (K3213)</t>
+  </si>
+  <si>
+    <t>Elvonások és befizetések (K41)</t>
+  </si>
+  <si>
+    <t>Egyéb működési célú támogatás államháztartáson belülre (K42)</t>
+  </si>
+  <si>
+    <t>BRFK Térfigyelő rendszerrel és a járőrszolgálattal kapcsolatos feladatok (K4201)</t>
+  </si>
+  <si>
+    <t>Könyvtárak támogatása  (K4202)</t>
+  </si>
+  <si>
+    <t>Egyéb működési célú támogatás államháztartáson kívülre (K43)</t>
+  </si>
+  <si>
+    <t>Patrona Hungariae Katolikus Iskolaközpont Óvodájának működési célú támogatása (K4301)</t>
+  </si>
+  <si>
+    <t>Működési célú támogatás egyéb civil szervezetek részére (K4302)</t>
+  </si>
+  <si>
+    <t>Civil szervezetek támogatása (pályázati támogatás) (K430201)</t>
+  </si>
+  <si>
+    <t>2020.  évi pályázatok kifizetései (K430202)</t>
+  </si>
+  <si>
+    <t>Terézváros Közrendjéért és Közbiztonságáért Közalapítvány (TEKA) (K430203)</t>
+  </si>
+  <si>
+    <t>Terepgyakorlat Szinyei Merse Pál Alapítvány (K430204)</t>
+  </si>
+  <si>
+    <t>Iskolai kulturális programpályázatok (K430205)</t>
+  </si>
+  <si>
+    <t>Környezetvédelmi programok iskoláknak (K430206)</t>
+  </si>
+  <si>
+    <t>TámogatLak program (K430207)</t>
+  </si>
+  <si>
+    <t>Kerékpáros biztosítás (K430208)</t>
+  </si>
+  <si>
+    <t>Kulturális pályázat (K430209)</t>
+  </si>
+  <si>
+    <t>Iskolai kirándulások támogatása alapítványokon keresztül (K4303)</t>
+  </si>
+  <si>
+    <t>Bajzások Jövője Alapítvány (K430301)</t>
+  </si>
+  <si>
+    <t>Derkovits Alapítvány (K430302)</t>
+  </si>
+  <si>
+    <t>Erkeles Diákokért Alapítvány (K430303)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Tudástér Alapítvány (K430304)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Vörösmarty Mihály Általános Iskoláért Alapítvány (K430305)</t>
+  </si>
+  <si>
+    <t>Szinyei Merse Pál Alapítvány (K430306)</t>
+  </si>
+  <si>
+    <t>Máltai Szeretetszolgálat  (K430307)</t>
+  </si>
+  <si>
+    <t>Fehér Kereszt Baráti Kör Egyesület (K430308)</t>
+  </si>
+  <si>
+    <t>Magyar Vöröskereszt (K430309)</t>
+  </si>
+  <si>
+    <t>Hajléktalanokért Közalapítvány (K430310)</t>
+  </si>
+  <si>
+    <t>Egyházaknak nyújtott egyéb működési célú támogatások (K4304)</t>
+  </si>
+  <si>
+    <t>Nonprofit gazdasági társaságok részére nújtott egyéb működési támogatások (K4305)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Kulturális Közhasznú Nonprofit Zrt. (K430501)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Foglalkoztatást Elősegítő Nonprofit Kft. (K430502)</t>
+  </si>
+  <si>
+    <t>Oktatási intézmények beruházásai (K52)</t>
+  </si>
+  <si>
+    <t>Polgármesteri hivatal beruházásai (K53)</t>
+  </si>
+  <si>
+    <t>Óvodák beruházásai (K54)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Egészségügyi Szolgálat beruházásai (K55)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Értelmi Fogyatékosok Napközi Otthona beruházásai (K56)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Gondozó Szolgálat beruházásai (K57)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Család- és Gyermekjóléti Központ beruházásai (K58)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Egyesített Bölcsődék beruházásai (K59)</t>
+  </si>
+  <si>
+    <t>Játékvár óvoda (Lendvay u. 24.) udvarfelújítás (K6101)</t>
+  </si>
+  <si>
+    <t>Tóth Aladár Zeneiskola (Szív utca 19-21.) homlokzatfelújítás (K6102)</t>
+  </si>
+  <si>
+    <t>Bajza utcai általános iskola tanuszodájának fűtéskorszerűsítése (K6103)</t>
+  </si>
+  <si>
+    <t>Szinyei Merse Pál Gimnázium homlokzatfelújítás (K6104)</t>
+  </si>
+  <si>
+    <t>Gyermekfogászat kamerás beléptető és betegirányító (K6202)</t>
+  </si>
+  <si>
+    <t>Tüdőgondozó épületében sugárterápiás átalakítás (K6203)</t>
+  </si>
+  <si>
+    <t>ÁFA (K6204)</t>
+  </si>
+  <si>
+    <t>Vásárcsarnok felújításának tervezése (K6303)</t>
+  </si>
+  <si>
+    <t>Epreskert megnyitása (K6304)</t>
+  </si>
+  <si>
+    <t>Aradi u. 22. lakóépület felújítása (K6305)</t>
+  </si>
+  <si>
+    <t>20 db üres lakás felújítása (K6306)</t>
+  </si>
+  <si>
+    <t>Király u. 50. homlokzatfelújítás (K6307)</t>
+  </si>
+  <si>
+    <t>Nem nevesített épületek felújítása (előre nem tervezett épülfelújítások) (K6308)</t>
+  </si>
+  <si>
+    <t>Közterek felújítása (K64)</t>
+  </si>
+  <si>
+    <t>Jókai tér felújítása (K6401)</t>
+  </si>
+  <si>
+    <t>Gyalogos aluljáró felújítása, Bajza - Búlcsú utcai aluljáró  (K6402)</t>
+  </si>
+  <si>
+    <t>Bulcsú utcai aluljáró melletti zöldfelületek felújítása (K6403)</t>
+  </si>
+  <si>
+    <t>Podmaniczky utcai  hulladéksziget áthelyezése (K6404)</t>
+  </si>
+  <si>
+    <t>Kutyafuttató felújítás (K6405)</t>
+  </si>
+  <si>
+    <t>Benczúr utcai zöldsáv kialakítás (K6406)</t>
+  </si>
+  <si>
+    <t>Utcafásítás (K6407)</t>
+  </si>
+  <si>
+    <t>Hunyadi téri fák körüli burkolatjavítás (K6408)</t>
+  </si>
+  <si>
+    <t>Paulay Ede u.-Hegedű u.-Liszt Ferenc tér közötti szakasz út- és járda építése (K6409)</t>
+  </si>
+  <si>
+    <t>Forgalomcsökkentési építmények, eszközök, mobilitási pontok, kerékpártámaszok létesítése, intézmény előtti pihenő kialakítása (K6410)</t>
+  </si>
+  <si>
+    <t>Közvilágítás kialakítása (K6411)</t>
+  </si>
+  <si>
+    <t>Térfigyelő kamerarendszer telepítése (K6412)</t>
+  </si>
+  <si>
+    <t>Épületek, közterek felújításának ÁFA-ja (K65)</t>
+  </si>
+  <si>
+    <t>Társasházi zöldfelület fejlesztés pályázat áthúzódó része (K7204)</t>
+  </si>
+  <si>
+    <t>Társasházi zöldfelület fejlesztés új pályázat (K7205)</t>
+  </si>
+  <si>
+    <t>Nyílászárók korszerűsítése (K7206)</t>
+  </si>
+  <si>
+    <t>TÉÉT homlokzattervezési támogatás (K7207)</t>
+  </si>
+  <si>
+    <t>Zöldfal létesítési támogatás (K7208)</t>
+  </si>
+  <si>
+    <t>Társasházi kerékpártároló (K7209)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Foglalkoztatást elősegítő Nonprofit Kft. (K7210)</t>
+  </si>
+  <si>
+    <t>Egyéb felhalmozási célú támogatások államháztartáson belülre (K73)</t>
+  </si>
+  <si>
+    <t>BRKF támogatása (K7301)</t>
+  </si>
+  <si>
+    <t>Felhalmozási céltartalék (K74)</t>
+  </si>
+  <si>
+    <t>101221 Fogyatékossággal élők nappali ellátása</t>
+  </si>
+  <si>
+    <t>107051 Szociális étkeztetés</t>
+  </si>
+  <si>
+    <t>107052 Házi segítségnyújtás</t>
+  </si>
+  <si>
+    <t>096015 Gyermekétkeztetés köznevelési intézményben</t>
+  </si>
+  <si>
+    <t>107053 Jelzőrendszeres házi segítségnyújtás</t>
+  </si>
+  <si>
+    <t>102031 Nappali ellátás</t>
+  </si>
+  <si>
+    <t>072410 Házi szakápolás</t>
+  </si>
+  <si>
+    <t>104012 Családok Átmeneti Otthona</t>
+  </si>
+  <si>
+    <t>104042 Család-és Gyermekjóléti Szolgálat</t>
+  </si>
+  <si>
+    <t>104043 Család-és Gyermekjóléti Központ (központ)</t>
+  </si>
+  <si>
+    <t>104043 Család-és gyermekjóléti Központ (iskolai szociális munka)</t>
+  </si>
+  <si>
+    <t>072111 Háziorvosi alapellátás</t>
+  </si>
+  <si>
+    <t>072112 Háziorvosi ügyeleti ellátás</t>
+  </si>
+  <si>
+    <t>072210 Járóbetegek gyógyító szakellátása</t>
+  </si>
+  <si>
+    <t>072220 Járóbetegek rehabilitációs szakellátása</t>
+  </si>
+  <si>
+    <t>072230 Járóbetegek gyógyító gondozása</t>
+  </si>
+  <si>
+    <t>072311 Fogorvosi alapellátás</t>
+  </si>
+  <si>
+    <t>072313 Fogorvosi szakellátás</t>
+  </si>
+  <si>
+    <t>072420 Egészségügyi laboratóriumi szolgáltatások</t>
+  </si>
+  <si>
+    <t>072430 Képalkotó diagnosztikai szolgáltatások</t>
+  </si>
+  <si>
+    <t>072450 Fizikoterápiás szolgáltatás</t>
+  </si>
+  <si>
+    <t>074011 Foglalkoztatás- egészségügyi szolgáltatás</t>
+  </si>
+  <si>
+    <t>074031 Család-és nővédelmi egészségügyi gondozás</t>
+  </si>
+  <si>
+    <t>074032 Ifjúság-és egészségügyi gondozás</t>
+  </si>
+  <si>
+    <t>074040 Fertőző megbetegedések megelőzése, járványügyi ellátás</t>
+  </si>
+  <si>
+    <t>083050 Televízió-műsor szolgáltatása és támogatása</t>
+  </si>
+  <si>
+    <t>104031 Gyermekek bőlcsödében és mini bőlcsödében</t>
+  </si>
+  <si>
+    <t>104035 Gyermekétkeztetés bőlcsödében,fogyatékosok nappali intézményében</t>
+  </si>
+  <si>
+    <t>104036 Munkahelyi étkeztetés gyermekek napközbeni ellátását biztosító intézményben (bölcsöde)</t>
+  </si>
+  <si>
+    <t>018020 Központi költségvetési befizetések (szolidaritási hozzájáruláshoz)</t>
+  </si>
+  <si>
+    <t>047120 Piac üzemeltetés</t>
+  </si>
+  <si>
+    <t>045160 Közutak,hidak,alagutak üzemeltetése,fenntartása</t>
+  </si>
+  <si>
+    <t>081071 Üdülői szálláshely-szolgáltatás és étkeztetés</t>
+  </si>
+  <si>
+    <t>041233 Hosszabb időtartamú közfogalalkoztatás</t>
+  </si>
+  <si>
+    <t>011130 Önkormányzatok és önkormányzati hivatalok jogalkotó és ált. igazgatási tevékenysége</t>
+  </si>
+  <si>
+    <t>061030 Lakáshozjutást segítő támogatások</t>
+  </si>
+  <si>
+    <t>041170 Műszaki vizsgálat, elemzés</t>
+  </si>
+  <si>
+    <t>011220 Adó,vám és jövedéki igazgatás</t>
+  </si>
+  <si>
+    <t>042180 Állategészségügy</t>
+  </si>
+  <si>
+    <t>083030 Egyéb kiadási tevékenység</t>
+  </si>
+  <si>
+    <t>031030 Közterület rendjének fenntartása</t>
+  </si>
+  <si>
+    <t>066020 Város- községgazdálkodási szolgáltatások</t>
+  </si>
+  <si>
+    <t>066010 Zöldterület-kezelés</t>
+  </si>
+  <si>
+    <t>084031 Civil szervezetek működési támogatása</t>
+  </si>
+  <si>
+    <t>104051 Gyermekvédelmi pénzbeli és természetbeni ellátások</t>
+  </si>
+  <si>
+    <t>104037 Intézményen kívüli gyermekétkeztetés</t>
+  </si>
+  <si>
+    <t>107060 Egyéb szociális pénzbeli és természetbeni ellátások,támogatások</t>
+  </si>
+  <si>
+    <t>082092 Közművelődés- hagyományos közösségi kulturális értékek gondozása</t>
+  </si>
+  <si>
+    <t>091120 Sajátos nevelési igényű gyermekek óvodai nevelésének, ellátásának szakmai feladata</t>
+  </si>
+  <si>
+    <t>091140 Óvodai nevelés, ellátás működtetési feladatai</t>
+  </si>
+  <si>
+    <t>091110 Óvodai nevelés, ellátás szakmai feladatai</t>
+  </si>
+  <si>
+    <t>091130 Nemzetiségi óvodai nevelés,ellátás szakmai feladatai</t>
+  </si>
+  <si>
+    <t>096015 Gyermekétkeztetés köznevelési intézményekben</t>
+  </si>
+  <si>
+    <t>013350 Önkormányzati vagyonnal való gazdálkodással kapcsolatos feladatok</t>
+  </si>
+  <si>
+    <t>Kiadások összesen</t>
   </si>
 </sst>
 </file>
@@ -723,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,6 +1310,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAB4C5-B3A4-426F-A8BC-E577AEC02B08}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BAFE8-6BF8-4E8A-B864-E53778D2F9B3}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3520,15 +4081,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
-        <v>99</v>
-      </c>
-      <c r="B159" t="s">
-        <v>199</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
+      <c r="A159" s="9"/>
       <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3542,4 +4095,3223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CCF99-671C-466C-8EB9-A95C45EF2C45}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2971152231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1512472231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>579805810</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="28">
+        <v>462309000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5997600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="28">
+        <v>11939410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="28">
+        <v>99559800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>465679950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="2">
+        <v>59121800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="2">
+        <v>270785550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15282000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2">
+        <v>811600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="2">
+        <v>119679000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>446337031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2">
+        <v>100443284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="2">
+        <v>154589000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="2">
+        <v>53810320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2">
+        <v>137494427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20649440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1458680000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6193465000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2440000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2400000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2987965000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>465500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2285497273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>64986200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>91990000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1440700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2">
+        <v>266600000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2">
+        <v>427400000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2">
+        <v>135000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="2">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="2">
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2">
+        <v>83098010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2">
+        <v>379225063</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2">
+        <v>125498000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2">
+        <v>95000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="2">
+        <v>968100000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2">
+        <v>968100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2">
+        <v>142155998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6712832403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1994660000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4718172403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6712832403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360EBD22-8A27-462E-8847-1D905C6EB368}">
+  <dimension ref="A1:BG202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN2" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP2" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="AQ2" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="AR2" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="AU2" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV2" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW2" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX2" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY2" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="BC2" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD2" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="BE2" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF2" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG2" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>99</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="32">
+        <v>5103770263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>99</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="32">
+        <v>222768231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>99</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="32">
+        <v>189960800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>99</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="32">
+        <v>32807431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>99</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="32">
+        <v>2043364244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>99</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1732037214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>99</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="32">
+        <v>16842828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>99</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="32">
+        <v>294484202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>99</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="32">
+        <v>640438866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>99</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="32">
+        <v>93243562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>99</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="32">
+        <v>79251341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>99</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>99</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="32">
+        <v>12992221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>99</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="32">
+        <v>149693557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>99</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="32">
+        <v>125277036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>99</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="32">
+        <v>1734915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>99</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="32">
+        <v>22681606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>99</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="32">
+        <v>104072380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>99</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="32">
+        <v>89039212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>99</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="32">
+        <v>578000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>99</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="32">
+        <v>14455168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>99</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="32">
+        <v>149086199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>99</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="32">
+        <v>124929241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>99</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1370000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>99</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="32">
+        <v>22786958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>99</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="32">
+        <v>144343168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>99</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="32">
+        <v>121478024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>99</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1441000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>99</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="32">
+        <v>21424144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>99</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="32">
+        <v>1326100000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>99</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="32">
+        <v>1120587200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="30">
+        <v>99</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="32">
+        <v>17088000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>99</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="32">
+        <v>188424800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="30">
+        <v>99</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="32">
+        <v>42027890</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="30">
+        <v>99</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="32">
+        <v>34811556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="30">
+        <v>99</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1310000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="30">
+        <v>99</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="32">
+        <v>5906334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="30">
+        <v>99</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="32">
+        <v>300466210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>99</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="32">
+        <v>247951691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>99</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="32">
+        <v>6335400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>99</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="32">
+        <v>46179119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>99</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="32">
+        <v>223227098</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>99</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="32">
+        <v>188228592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>99</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="32">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>99</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="32">
+        <v>33748506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>99</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="32">
+        <v>305377724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>99</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="32">
+        <v>259300317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>99</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="32">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>99</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="32">
+        <v>45827407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>99</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="32">
+        <v>5554643775</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="30">
+        <v>99</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="32">
+        <v>4603346824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="30">
+        <v>99</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="33">
+        <v>40477590</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="30">
+        <v>99</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="33">
+        <v>62775000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>99</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="33">
+        <v>3171066602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>99</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="33">
+        <v>64100000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>99</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="33">
+        <v>1264927632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="30">
+        <v>99</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="32">
+        <v>365086335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>99</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="32">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="30">
+        <v>99</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="32">
+        <v>47360000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>99</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="32">
+        <v>195455450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>99</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>99</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="32">
+        <v>86270885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>99</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="32">
+        <v>78107500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>99</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="32">
+        <v>10205750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>99</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="32">
+        <v>18945750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>99</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="32">
+        <v>14116750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>99</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="32">
+        <v>15148150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>99</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="32">
+        <v>19691100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>99</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="32">
+        <v>294000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>99</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="32">
+        <v>13207980</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>99</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="32">
+        <v>103891480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>99</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="32">
+        <v>40623646</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>99</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="32">
+        <v>56380010</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>99</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="32">
+        <v>408568000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="30">
+        <v>99</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="32">
+        <v>126544000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="30">
+        <v>99</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78" s="32">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="30">
+        <v>99</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="32">
+        <v>7824000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="30">
+        <v>99</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="32">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="30">
+        <v>99</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="30">
+        <v>99</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="32">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="30">
+        <v>99</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="32">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="30">
+        <v>99</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="32">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="30">
+        <v>99</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="32">
+        <v>282024000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="30">
+        <v>99</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="32">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
+        <v>99</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" s="32">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
+        <v>99</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="32">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
+        <v>99</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="32">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
+        <v>99</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="C90" s="32">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="30">
+        <v>99</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="32">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="30">
+        <v>99</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="32">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="30">
+        <v>99</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="30">
+        <v>99</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="32">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="30">
+        <v>99</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="32">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="30">
+        <v>99</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="30">
+        <v>99</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="32">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="30">
+        <v>99</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="32">
+        <v>66274000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="30">
+        <v>99</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" s="32">
+        <v>2706803035</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="30">
+        <v>99</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="32">
+        <v>743201757</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="30">
+        <v>99</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="32">
+        <v>41800000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="30">
+        <v>99</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="32">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="30">
+        <v>99</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="32">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="30">
+        <v>99</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="32">
+        <v>874501278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="30">
+        <v>99</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" s="32">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="30">
+        <v>99</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" s="32">
+        <v>67100000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="30">
+        <v>99</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" s="32">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="30">
+        <v>99</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" s="32">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="30">
+        <v>99</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="32">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="30">
+        <v>99</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" s="32">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="30">
+        <v>99</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" s="32">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="30">
+        <v>99</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" s="32">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="30">
+        <v>99</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" s="32">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="30">
+        <v>99</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" s="32">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="30">
+        <v>99</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" s="32">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="30">
+        <v>99</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="32">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="30">
+        <v>99</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="30">
+        <v>99</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="30">
+        <v>99</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="30">
+        <v>99</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="30">
+        <v>99</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="30">
+        <v>99</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="30">
+        <v>99</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" s="32">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="30">
+        <v>99</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="32">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="30">
+        <v>99</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" s="32">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="30">
+        <v>99</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="32">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="30">
+        <v>99</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="32">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="30">
+        <v>99</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" s="32">
+        <v>739901278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="30">
+        <v>99</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" s="32">
+        <v>211901278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="30">
+        <v>99</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" s="2">
+        <v>528000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="30">
+        <v>99</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="32">
+        <v>1047300000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="30">
+        <v>99</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="32">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="30">
+        <v>99</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="32">
+        <v>947300000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="30">
+        <v>99</v>
+      </c>
+      <c r="B134" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1301841058</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="30">
+        <v>99</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1081323148</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="30">
+        <v>99</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1287400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="30">
+        <v>99</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="30">
+        <v>99</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="2">
+        <v>333345000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="30">
+        <v>99</v>
+      </c>
+      <c r="B139" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="2">
+        <v>653800000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="30">
+        <v>99</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="2">
+        <v>90890748</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="30">
+        <v>99</v>
+      </c>
+      <c r="B141" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="2">
+        <v>5224780</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="30">
+        <v>99</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="32">
+        <v>81280000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="30">
+        <v>99</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="32">
+        <v>16192500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="30">
+        <v>99</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="32">
+        <v>94791110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="30">
+        <v>99</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="32">
+        <v>811685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="30">
+        <v>99</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" s="32">
+        <v>2325388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="30">
+        <v>99</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" s="32">
+        <v>16946047</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="30">
+        <v>99</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" s="32">
+        <v>2946400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="30">
+        <v>99</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3585732832</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="30">
+        <v>99</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C150" s="2">
+        <v>330962000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="30">
+        <v>99</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" s="2">
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="30">
+        <v>99</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="2">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="30">
+        <v>99</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="2">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="30">
+        <v>99</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="2">
+        <v>70600000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="30">
+        <v>99</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" s="2">
+        <v>70362000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="30">
+        <v>99</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C156" s="2">
+        <v>796290000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="30">
+        <v>99</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="2">
+        <v>613000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="30">
+        <v>99</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="30">
+        <v>99</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="2">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="30">
+        <v>99</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="C160" s="2">
+        <v>169290000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="30">
+        <v>99</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="2">
+        <v>648063647</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="30">
+        <v>99</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="2">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="30">
+        <v>99</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="2">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="30">
+        <v>99</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C164" s="2">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="30">
+        <v>99</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C165" s="2">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="30">
+        <v>99</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C166" s="2">
+        <v>265000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="30">
+        <v>99</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="C167" s="2">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="30">
+        <v>99</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="C168" s="2">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="30">
+        <v>99</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" s="2">
+        <v>34063647</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="30">
+        <v>99</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1292000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="30">
+        <v>99</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C171" s="2">
+        <v>510000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="30">
+        <v>99</v>
+      </c>
+      <c r="B172" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C172" s="2">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="30">
+        <v>99</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C173" s="2">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="30">
+        <v>99</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" s="2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="30">
+        <v>99</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" s="2">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="30">
+        <v>99</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" s="2">
+        <v>46000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="30">
+        <v>99</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C177" s="2">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="30">
+        <v>99</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C178" s="2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="30">
+        <v>99</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C179" s="2">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="30">
+        <v>99</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C180" s="2">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="30">
+        <v>99</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C181" s="2">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="30">
+        <v>99</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C182" s="2">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="30">
+        <v>99</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C183" s="2">
+        <v>518417185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="30">
+        <v>99</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" s="2">
+        <v>812243942</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="30">
+        <v>99</v>
+      </c>
+      <c r="B185" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" s="2">
+        <v>355500000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="30">
+        <v>99</v>
+      </c>
+      <c r="B186" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" s="2">
+        <v>345500000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="30">
+        <v>99</v>
+      </c>
+      <c r="B187" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="30">
+        <v>99</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" s="2">
+        <v>226743942</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="30">
+        <v>99</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189" s="34">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="30">
+        <v>99</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190" s="34">
+        <v>145000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="30">
+        <v>99</v>
+      </c>
+      <c r="B191" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" s="35">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="30">
+        <v>99</v>
+      </c>
+      <c r="B192" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C192" s="34">
+        <v>5243942</v>
+      </c>
+    </row>
+    <row r="193" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A193" s="30">
+        <v>99</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C193" s="34">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A194" s="30">
+        <v>99</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C194" s="34">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A195" s="30">
+        <v>99</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C195" s="34">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A196" s="30">
+        <v>99</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C196" s="34">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A197" s="30">
+        <v>99</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="C197" s="34">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A198" s="30">
+        <v>99</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C198" s="34">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A199" s="30">
+        <v>99</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C199" s="34">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A200" s="30">
+        <v>99</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C200" s="34">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A201" s="30">
+        <v>99</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C201" s="34">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>99</v>
+      </c>
+      <c r="B202" t="s">
+        <v>380</v>
+      </c>
+      <c r="C202" s="2">
+        <v>19473602905</v>
+      </c>
+      <c r="D202" s="34">
+        <v>56167555</v>
+      </c>
+      <c r="E202" s="34">
+        <v>95378427</v>
+      </c>
+      <c r="F202" s="34">
+        <v>149501712</v>
+      </c>
+      <c r="G202" s="34">
+        <v>84928858</v>
+      </c>
+      <c r="H202" s="34">
+        <v>16973380</v>
+      </c>
+      <c r="I202" s="34">
+        <v>28971740</v>
+      </c>
+      <c r="J202" s="34">
+        <v>31082961</v>
+      </c>
+      <c r="K202" s="34">
+        <v>61405161</v>
+      </c>
+      <c r="L202" s="34">
+        <v>73503865</v>
+      </c>
+      <c r="M202" s="34">
+        <v>107536079</v>
+      </c>
+      <c r="N202" s="34">
+        <v>41551686</v>
+      </c>
+      <c r="O202" s="34">
+        <v>34297822</v>
+      </c>
+      <c r="P202" s="34">
+        <v>51446733</v>
+      </c>
+      <c r="Q202" s="34">
+        <v>685956444</v>
+      </c>
+      <c r="R202" s="34">
+        <v>17148911</v>
+      </c>
+      <c r="S202" s="34">
+        <v>205786933</v>
+      </c>
+      <c r="T202" s="34">
+        <v>68595644</v>
+      </c>
+      <c r="U202" s="34">
+        <v>51446733</v>
+      </c>
+      <c r="V202" s="34">
+        <v>85744556</v>
+      </c>
+      <c r="W202" s="34">
+        <v>154340200</v>
+      </c>
+      <c r="X202" s="34">
+        <v>68595644</v>
+      </c>
+      <c r="Y202" s="34">
+        <v>17148911</v>
+      </c>
+      <c r="Z202" s="34">
+        <v>102893468</v>
+      </c>
+      <c r="AA202" s="34">
+        <v>102893467</v>
+      </c>
+      <c r="AB202" s="34">
+        <v>68595644</v>
+      </c>
+      <c r="AC202" s="34">
+        <v>10160000</v>
+      </c>
+      <c r="AD202" s="34">
+        <v>305836612</v>
+      </c>
+      <c r="AE202" s="34">
+        <v>35342948</v>
+      </c>
+      <c r="AF202" s="34">
+        <v>23524574</v>
+      </c>
+      <c r="AG202" s="34">
+        <v>743201757</v>
+      </c>
+      <c r="AH202" s="34">
+        <v>70231000</v>
+      </c>
+      <c r="AI202" s="34">
+        <v>361950000</v>
+      </c>
+      <c r="AJ202" s="34">
+        <v>59242400</v>
+      </c>
+      <c r="AK202" s="34">
+        <v>536000000</v>
+      </c>
+      <c r="AL202" s="34">
+        <v>4443341236</v>
+      </c>
+      <c r="AM202" s="34">
+        <v>551000000</v>
+      </c>
+      <c r="AN202" s="34">
+        <v>400000</v>
+      </c>
+      <c r="AO202" s="34">
+        <v>102188074</v>
+      </c>
+      <c r="AP202" s="34">
+        <v>8100000</v>
+      </c>
+      <c r="AQ202" s="34">
+        <v>104272005</v>
+      </c>
+      <c r="AR202" s="34">
+        <v>1061775701</v>
+      </c>
+      <c r="AS202" s="34">
+        <v>602612860</v>
+      </c>
+      <c r="AT202" s="34">
+        <v>43243942</v>
+      </c>
+      <c r="AU202" s="34">
+        <v>66600000</v>
+      </c>
+      <c r="AV202" s="34">
+        <v>4250000</v>
+      </c>
+      <c r="AW202" s="34">
+        <v>76200</v>
+      </c>
+      <c r="AX202" s="34">
+        <v>338044000</v>
+      </c>
+      <c r="AY202" s="34">
+        <v>3810000</v>
+      </c>
+      <c r="AZ202" s="34">
+        <v>473734774</v>
+      </c>
+      <c r="BA202" s="34">
+        <v>6000000</v>
+      </c>
+      <c r="BB202" s="34">
+        <v>309858943</v>
+      </c>
+      <c r="BC202" s="34">
+        <v>533814469</v>
+      </c>
+      <c r="BD202" s="34">
+        <v>13615454</v>
+      </c>
+      <c r="BE202" s="34">
+        <v>202010760</v>
+      </c>
+      <c r="BF202" s="34">
+        <v>5201182662</v>
+      </c>
+      <c r="BG202" s="34">
+        <v>796290000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/2021_budget_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1004" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FA28C86-66BB-433F-B7EA-5E9D81065607}"/>
+  <xr:revisionPtr revIDLastSave="1015" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0409EED2-3BBA-492A-A2B4-152942588857}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 BEVÉTEL" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="387">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -689,15 +689,6 @@
     <t>Egyéb működési bevételek (B38)</t>
   </si>
   <si>
-    <t>Működési célú átvett pénzeszközök (B4)</t>
-  </si>
-  <si>
-    <t>Belföldi értékpapírok bevételei (B81)</t>
-  </si>
-  <si>
-    <t>Maradvány igénybevétele (B82)</t>
-  </si>
-  <si>
     <t>Finanszírozási többlet (maradvány, értékpapírok beváltása) (FT1)</t>
   </si>
   <si>
@@ -1179,6 +1170,33 @@
   </si>
   <si>
     <t>Kiadások összesen</t>
+  </si>
+  <si>
+    <t>Működési bevételek és átvett pénzeszközök (B3)</t>
+  </si>
+  <si>
+    <t>Működési célú átvett pénzeszközök (B39)</t>
+  </si>
+  <si>
+    <t>Felhalmozási  bevételek, támogatások, átvett pénzeszközök (B4)</t>
+  </si>
+  <si>
+    <t>Ingatlanok értékesítése (B41)</t>
+  </si>
+  <si>
+    <t>Felhalmozási célú támogatás államháztartáson belülről (B42)</t>
+  </si>
+  <si>
+    <t>Felhalmozási célú átvett pénzeszközök (B43)</t>
+  </si>
+  <si>
+    <t>Finanszírozási bevételek (B5)</t>
+  </si>
+  <si>
+    <t>Belföldi értékpapírok bevételei (B51)</t>
+  </si>
+  <si>
+    <t>Maradvány igénybevétele (B52)</t>
   </si>
 </sst>
 </file>
@@ -4099,16 +4117,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CCF99-671C-466C-8EB9-A95C45EF2C45}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="109.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,7 +4138,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4131,7 +4149,7 @@
       <c r="A3">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
@@ -4142,7 +4160,7 @@
       <c r="A4">
         <v>99</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -4153,7 +4171,7 @@
       <c r="A5">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
@@ -4164,7 +4182,7 @@
       <c r="A6">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="28">
@@ -4175,7 +4193,7 @@
       <c r="A7">
         <v>99</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="28">
@@ -4186,7 +4204,7 @@
       <c r="A8">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="28">
@@ -4197,7 +4215,7 @@
       <c r="A9">
         <v>99</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="28">
@@ -4208,7 +4226,7 @@
       <c r="A10">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
@@ -4219,7 +4237,7 @@
       <c r="A11">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C11" s="2">
@@ -4230,7 +4248,7 @@
       <c r="A12">
         <v>99</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C12" s="2">
@@ -4241,7 +4259,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="2">
@@ -4252,7 +4270,7 @@
       <c r="A14">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C14" s="2">
@@ -4263,7 +4281,7 @@
       <c r="A15">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C15" s="2">
@@ -4274,7 +4292,7 @@
       <c r="A16">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2">
@@ -4285,7 +4303,7 @@
       <c r="A17">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="2">
@@ -4296,7 +4314,7 @@
       <c r="A18">
         <v>99</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C18" s="2">
@@ -4307,7 +4325,7 @@
       <c r="A19">
         <v>99</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C19" s="2">
@@ -4318,7 +4336,7 @@
       <c r="A20">
         <v>99</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C20" s="2">
@@ -4329,7 +4347,7 @@
       <c r="A21">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2">
@@ -4340,7 +4358,7 @@
       <c r="A22">
         <v>99</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
@@ -4351,7 +4369,7 @@
       <c r="A23">
         <v>99</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2">
@@ -4362,7 +4380,7 @@
       <c r="A24">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2">
@@ -4373,7 +4391,7 @@
       <c r="A25">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2">
@@ -4384,7 +4402,7 @@
       <c r="A26">
         <v>99</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
@@ -4395,7 +4413,7 @@
       <c r="A27">
         <v>99</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="2">
@@ -4406,7 +4424,7 @@
       <c r="A28">
         <v>99</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
@@ -4417,7 +4435,7 @@
       <c r="A29">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2">
@@ -4428,7 +4446,7 @@
       <c r="A30">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="2">
@@ -4439,18 +4457,18 @@
       <c r="A31">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
-        <v>20</v>
+      <c r="B31" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="C31" s="2">
-        <v>2285497273</v>
+        <v>2285897273</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>99</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="2">
@@ -4461,7 +4479,7 @@
       <c r="A33">
         <v>99</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2">
@@ -4472,7 +4490,7 @@
       <c r="A34">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="2">
@@ -4483,7 +4501,7 @@
       <c r="A35">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="2">
@@ -4494,7 +4512,7 @@
       <c r="A36">
         <v>99</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="2">
@@ -4505,7 +4523,7 @@
       <c r="A37">
         <v>99</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="2">
@@ -4516,7 +4534,7 @@
       <c r="A38">
         <v>99</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C38" s="2">
@@ -4527,7 +4545,7 @@
       <c r="A39">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C39" s="2">
@@ -4538,7 +4556,7 @@
       <c r="A40">
         <v>99</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C40" s="2">
@@ -4549,7 +4567,7 @@
       <c r="A41">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="2">
@@ -4560,7 +4578,7 @@
       <c r="A42">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="2">
@@ -4571,7 +4589,7 @@
       <c r="A43">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="2">
@@ -4582,7 +4600,7 @@
       <c r="A44">
         <v>99</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C44" s="2">
@@ -4593,7 +4611,7 @@
       <c r="A45">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C45" s="2">
@@ -4604,8 +4622,8 @@
       <c r="A46">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
-        <v>217</v>
+      <c r="B46" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="C46" s="2">
         <v>400000</v>
@@ -4615,19 +4633,19 @@
       <c r="A47">
         <v>99</v>
       </c>
-      <c r="B47" t="s">
-        <v>36</v>
+      <c r="B47" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="C47" s="2">
-        <v>200000000</v>
+        <v>1310255998</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
-        <v>37</v>
+      <c r="B48" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C48" s="2">
         <v>968100000</v>
@@ -4637,19 +4655,19 @@
       <c r="A49">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
-        <v>38</v>
+      <c r="B49" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="C49" s="2">
-        <v>968100000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>99</v>
       </c>
-      <c r="B50" t="s">
-        <v>39</v>
+      <c r="B50" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="C50" s="2">
         <v>142155998</v>
@@ -4659,8 +4677,8 @@
       <c r="A51">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
-        <v>40</v>
+      <c r="B51" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="C51" s="2">
         <v>6712832403</v>
@@ -4670,8 +4688,8 @@
       <c r="A52">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
-        <v>218</v>
+      <c r="B52" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="C52" s="2">
         <v>1994660000</v>
@@ -4681,8 +4699,8 @@
       <c r="A53">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
-        <v>219</v>
+      <c r="B53" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="C53" s="2">
         <v>4718172403</v>
@@ -4692,12 +4710,16 @@
       <c r="A54">
         <v>99</v>
       </c>
-      <c r="B54" t="s">
-        <v>220</v>
+      <c r="B54" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C54" s="2">
         <v>6712832403</v>
       </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4708,8 +4730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360EBD22-8A27-462E-8847-1D905C6EB368}">
   <dimension ref="A1:BG202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +4783,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
@@ -4775,172 +4797,172 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="AA2" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AD2" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AG2" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AH2" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AI2" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AK2" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AL2" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AN2" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AT2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AU2" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AV2" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AW2" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AX2" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="BA2" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="BB2" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="AY2" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
+      <c r="BC2" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BD2" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BE2" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BF2" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="BD2" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="BE2" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>379</v>
-      </c>
       <c r="BG2" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -5564,7 +5586,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C59" s="32">
         <v>365086335</v>
@@ -5575,7 +5597,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C60" s="32">
         <v>36000000</v>
@@ -5586,7 +5608,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C61" s="32">
         <v>47360000</v>
@@ -5597,7 +5619,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C62" s="32">
         <v>195455450</v>
@@ -5608,7 +5630,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C63" s="32">
         <v>0</v>
@@ -5619,7 +5641,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C64" s="32">
         <v>86270885</v>
@@ -5762,7 +5784,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C77" s="32">
         <v>126544000</v>
@@ -5773,7 +5795,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C78" s="32">
         <v>35000000</v>
@@ -5784,7 +5806,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C79" s="32">
         <v>7824000</v>
@@ -5795,7 +5817,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C80" s="32">
         <v>40000000</v>
@@ -5806,7 +5828,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C81" s="32">
         <v>1000000</v>
@@ -5817,7 +5839,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C82" s="32">
         <v>720000</v>
@@ -5828,7 +5850,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C83" s="32">
         <v>40000000</v>
@@ -5839,7 +5861,7 @@
         <v>99</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C84" s="32">
         <v>2000000</v>
@@ -5850,7 +5872,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C85" s="32">
         <v>282024000</v>
@@ -5861,7 +5883,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C86" s="32">
         <v>50000000</v>
@@ -5872,7 +5894,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C87" s="32">
         <v>2000000</v>
@@ -5883,7 +5905,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C88" s="32">
         <v>12000000</v>
@@ -5894,7 +5916,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C89" s="32">
         <v>3000000</v>
@@ -5905,7 +5927,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C90" s="32">
         <v>80000000</v>
@@ -5916,7 +5938,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C91" s="32">
         <v>22500000</v>
@@ -5927,7 +5949,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C92" s="32">
         <v>8000000</v>
@@ -5938,7 +5960,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C93" s="32">
         <v>500000</v>
@@ -5949,7 +5971,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C94" s="32">
         <v>22500000</v>
@@ -5960,7 +5982,7 @@
         <v>99</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C95" s="32">
         <v>4250000</v>
@@ -5971,7 +5993,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C96" s="32">
         <v>1000000</v>
@@ -5982,7 +6004,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C97" s="32">
         <v>10000000</v>
@@ -5993,7 +6015,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C98" s="32">
         <v>66274000</v>
@@ -6015,7 +6037,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C100" s="32">
         <v>743201757</v>
@@ -6026,7 +6048,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C101" s="32">
         <v>41800000</v>
@@ -6037,7 +6059,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C102" s="32">
         <v>40000000</v>
@@ -6048,7 +6070,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C103" s="32">
         <v>1800000</v>
@@ -6059,7 +6081,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C104" s="32">
         <v>874501278</v>
@@ -6070,7 +6092,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C105" s="32">
         <v>40000000</v>
@@ -6081,7 +6103,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C106" s="32">
         <v>67100000</v>
@@ -6092,7 +6114,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C107" s="32">
         <v>17000000</v>
@@ -6103,7 +6125,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C108" s="32">
         <v>2400000</v>
@@ -6114,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C109" s="32">
         <v>32000000</v>
@@ -6125,7 +6147,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C110" s="32">
         <v>2500000</v>
@@ -6136,7 +6158,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C111" s="32">
         <v>6000000</v>
@@ -6147,7 +6169,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C112" s="32">
         <v>2100000</v>
@@ -6158,7 +6180,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C113" s="32">
         <v>3000000</v>
@@ -6169,7 +6191,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C114" s="32">
         <v>100000</v>
@@ -6180,7 +6202,7 @@
         <v>99</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C115" s="32">
         <v>2000000</v>
@@ -6191,7 +6213,7 @@
         <v>99</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C116" s="32">
         <v>10500000</v>
@@ -6202,7 +6224,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C117" s="32">
         <v>500000</v>
@@ -6213,7 +6235,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C118" s="32">
         <v>500000</v>
@@ -6224,7 +6246,7 @@
         <v>99</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C119" s="32">
         <v>500000</v>
@@ -6235,7 +6257,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C120" s="32">
         <v>500000</v>
@@ -6246,7 +6268,7 @@
         <v>99</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C121" s="32">
         <v>500000</v>
@@ -6257,7 +6279,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C122" s="32">
         <v>500000</v>
@@ -6268,7 +6290,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C123" s="32">
         <v>4000000</v>
@@ -6279,7 +6301,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C124" s="32">
         <v>1000000</v>
@@ -6290,7 +6312,7 @@
         <v>99</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C125" s="32">
         <v>2000000</v>
@@ -6301,7 +6323,7 @@
         <v>99</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C126" s="32">
         <v>500000</v>
@@ -6312,7 +6334,7 @@
         <v>99</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C127" s="32">
         <v>17000000</v>
@@ -6323,7 +6345,7 @@
         <v>99</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C128" s="32">
         <v>739901278</v>
@@ -6334,7 +6356,7 @@
         <v>99</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C129" s="32">
         <v>211901278</v>
@@ -6345,7 +6367,7 @@
         <v>99</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C130" s="2">
         <v>528000000</v>
@@ -6466,7 +6488,7 @@
         <v>99</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C141" s="2">
         <v>5224780</v>
@@ -6477,7 +6499,7 @@
         <v>99</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C142" s="32">
         <v>81280000</v>
@@ -6488,7 +6510,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C143" s="32">
         <v>16192500</v>
@@ -6499,7 +6521,7 @@
         <v>99</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C144" s="32">
         <v>94791110</v>
@@ -6510,7 +6532,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C145" s="32">
         <v>811685</v>
@@ -6521,7 +6543,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C146" s="32">
         <v>2325388</v>
@@ -6532,7 +6554,7 @@
         <v>99</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C147" s="32">
         <v>16946047</v>
@@ -6543,7 +6565,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C148" s="32">
         <v>2946400</v>
@@ -6576,7 +6598,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C151" s="2">
         <v>65000000</v>
@@ -6587,7 +6609,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C152" s="2">
         <v>100000000</v>
@@ -6598,7 +6620,7 @@
         <v>99</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C153" s="2">
         <v>25000000</v>
@@ -6609,7 +6631,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C154" s="2">
         <v>70600000</v>
@@ -6653,7 +6675,7 @@
         <v>99</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C158" s="2">
         <v>5000000</v>
@@ -6664,7 +6686,7 @@
         <v>99</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C159" s="2">
         <v>9000000</v>
@@ -6675,7 +6697,7 @@
         <v>99</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C160" s="2">
         <v>169290000</v>
@@ -6719,7 +6741,7 @@
         <v>99</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C164" s="2">
         <v>120000000</v>
@@ -6730,7 +6752,7 @@
         <v>99</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C165" s="2">
         <v>60000000</v>
@@ -6741,7 +6763,7 @@
         <v>99</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C166" s="2">
         <v>265000000</v>
@@ -6752,7 +6774,7 @@
         <v>99</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C167" s="2">
         <v>110000000</v>
@@ -6763,7 +6785,7 @@
         <v>99</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C168" s="2">
         <v>19000000</v>
@@ -6774,7 +6796,7 @@
         <v>99</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C169" s="2">
         <v>34063647</v>
@@ -6785,7 +6807,7 @@
         <v>99</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C170" s="2">
         <v>1292000000</v>
@@ -6796,7 +6818,7 @@
         <v>99</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C171" s="2">
         <v>510000000</v>
@@ -6807,7 +6829,7 @@
         <v>99</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C172" s="2">
         <v>50000000</v>
@@ -6818,7 +6840,7 @@
         <v>99</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C173" s="2">
         <v>6000000</v>
@@ -6829,7 +6851,7 @@
         <v>99</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C174" s="2">
         <v>5000000</v>
@@ -6840,7 +6862,7 @@
         <v>99</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C175" s="2">
         <v>15000000</v>
@@ -6851,7 +6873,7 @@
         <v>99</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C176" s="2">
         <v>46000000</v>
@@ -6862,7 +6884,7 @@
         <v>99</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C177" s="2">
         <v>400000000</v>
@@ -6873,7 +6895,7 @@
         <v>99</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C178" s="2">
         <v>5000000</v>
@@ -6884,7 +6906,7 @@
         <v>99</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C179" s="2">
         <v>30000000</v>
@@ -6895,7 +6917,7 @@
         <v>99</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C180" s="2">
         <v>50000000</v>
@@ -6906,7 +6928,7 @@
         <v>99</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C181" s="2">
         <v>15000000</v>
@@ -6917,7 +6939,7 @@
         <v>99</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C182" s="2">
         <v>160000000</v>
@@ -6928,7 +6950,7 @@
         <v>99</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C183" s="2">
         <v>518417185</v>
@@ -7027,7 +7049,7 @@
         <v>99</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C192" s="34">
         <v>5243942</v>
@@ -7038,7 +7060,7 @@
         <v>99</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C193" s="34">
         <v>15000000</v>
@@ -7049,7 +7071,7 @@
         <v>99</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C194" s="34">
         <v>10000000</v>
@@ -7060,7 +7082,7 @@
         <v>99</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C195" s="34">
         <v>5000000</v>
@@ -7071,7 +7093,7 @@
         <v>99</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C196" s="34">
         <v>5000000</v>
@@ -7082,7 +7104,7 @@
         <v>99</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C197" s="34">
         <v>3000000</v>
@@ -7093,7 +7115,7 @@
         <v>99</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C198" s="34">
         <v>8000000</v>
@@ -7104,7 +7126,7 @@
         <v>99</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C199" s="34">
         <v>30000000</v>
@@ -7115,7 +7137,7 @@
         <v>99</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C200" s="34">
         <v>30000000</v>
@@ -7126,7 +7148,7 @@
         <v>99</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C201" s="34">
         <v>200000000</v>
@@ -7137,7 +7159,7 @@
         <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C202" s="2">
         <v>19473602905</v>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/2021_budget_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0409EED2-3BBA-492A-A2B4-152942588857}"/>
+  <xr:revisionPtr revIDLastSave="1020" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97C4DC14-F2C5-4E89-B6D7-4254112EA5D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="384">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Egyéb közhatalmi bevételek (díjak, bírságok, pótlékok ) (B25)</t>
   </si>
   <si>
-    <t>Működési bevételek (B3)</t>
-  </si>
-  <si>
     <t>Nyújtott szolgáltatás ellenértéke (B31)</t>
   </si>
   <si>
@@ -143,27 +140,6 @@
     <t>Kamatbevételek (B37)</t>
   </si>
   <si>
-    <t>Működési célú átvett átvett pénzeszközök (B4)</t>
-  </si>
-  <si>
-    <t>Felhalmozási célú támogatás államháztartáson belülről (B5)</t>
-  </si>
-  <si>
-    <t>Felhalmozási  bevételek (B6)</t>
-  </si>
-  <si>
-    <t>Ingatlanok értékesítése (B61)</t>
-  </si>
-  <si>
-    <t>Felhalmozási célú átvett pénzeszközök (B7)</t>
-  </si>
-  <si>
-    <t>Finanszírozási bevételek (B8)</t>
-  </si>
-  <si>
-    <t>Maradvány igénybevétele (B81)</t>
-  </si>
-  <si>
     <t>Finanszírozási többlet (maradvány) (FT1)</t>
   </si>
   <si>
@@ -329,9 +305,6 @@
     <t>Szolgáltatási kiadások (K2103)</t>
   </si>
   <si>
-    <t>Kiküldetés, reklám (K2104)</t>
-  </si>
-  <si>
     <t>Különféle befizetések és dologi kiadások (K2105)</t>
   </si>
   <si>
@@ -707,9 +680,6 @@
     <t>Szolgáltatási kiadások (K2203)</t>
   </si>
   <si>
-    <t>Kiküldetés, reklám (K2204)</t>
-  </si>
-  <si>
     <t>Különféle befizetések és dologi kiadások (K2205)</t>
   </si>
   <si>
@@ -1197,6 +1167,27 @@
   </si>
   <si>
     <t>Maradvány igénybevétele (B52)</t>
+  </si>
+  <si>
+    <t>Működési célú átvett átvett pénzeszközök (B38)</t>
+  </si>
+  <si>
+    <t>Felhalmozási bevételek, támogatások, átvett pénzeszközök (B4)</t>
+  </si>
+  <si>
+    <t>Felhalmozási célú támogatás államháztartáson belülről (B41)</t>
+  </si>
+  <si>
+    <t>Felhalmozási  bevételek - ingatlanértékesítés (B42)</t>
+  </si>
+  <si>
+    <t>Finanszírozási bevételek - maradvány igénybevétele (B5)</t>
+  </si>
+  <si>
+    <t>Kiküldetés (K2104)</t>
+  </si>
+  <si>
+    <t>Kiküldetés (K2204)</t>
   </si>
 </sst>
 </file>
@@ -1661,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAB4C5-B3A4-426F-A8BC-E577AEC02B08}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,10 +1872,10 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2">
-        <v>3778814700</v>
+        <v>3779214700</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,7 +1883,7 @@
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>71036200</v>
@@ -1903,7 +1894,7 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
         <v>95023800</v>
@@ -1914,7 +1905,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>2269402000</v>
@@ -1925,7 +1916,7 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>400000000</v>
@@ -1937,7 +1928,7 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>541100000</v>
@@ -1949,7 +1940,7 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>130000000</v>
@@ -1961,7 +1952,7 @@
         <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>468000000</v>
@@ -1972,7 +1963,7 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>607302000</v>
@@ -1983,7 +1974,7 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>64000000</v>
@@ -1994,7 +1985,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <v>59000000</v>
@@ -2005,7 +1996,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
         <v>95250000</v>
@@ -2016,7 +2007,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2">
         <v>609741700</v>
@@ -2027,7 +2018,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2">
         <v>605361000</v>
@@ -2038,7 +2029,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
         <v>33000000</v>
@@ -2049,7 +2040,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="C33" s="2">
         <v>400000</v>
@@ -2060,10 +2051,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="C34" s="2">
-        <v>200000000</v>
+        <v>1060817431</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2071,10 +2062,10 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="C35" s="2">
-        <v>710636000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,7 +2073,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="C36" s="2">
         <v>710636000</v>
@@ -2093,7 +2084,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2">
         <v>150181431</v>
@@ -2104,7 +2095,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="C38" s="2">
         <v>2826252158</v>
@@ -2115,22 +2106,15 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
         <v>2826252158</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>99</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2826252158</v>
-      </c>
+      <c r="A40" s="19"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="25"/>
     </row>
@@ -2145,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BAFE8-6BF8-4E8A-B864-E53778D2F9B3}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2168,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7">
         <f>C4+C7+C11+C32+C36+C40+C44+C48</f>
@@ -2198,7 +2182,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7">
         <f>SUM(C5:C6)</f>
@@ -2211,7 +2195,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7">
         <v>217908168</v>
@@ -2223,7 +2207,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7">
         <v>41760014</v>
@@ -2235,7 +2219,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(C8:C10)</f>
@@ -2248,7 +2232,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7">
         <v>1538081462</v>
@@ -2260,7 +2244,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>21615392</v>
@@ -2272,7 +2256,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C10" s="7">
         <v>311812108</v>
@@ -2284,7 +2268,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7">
         <f>C12+C16+C20+C24+C28</f>
@@ -2297,7 +2281,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" s="7">
         <f>SUM(C13:C15)</f>
@@ -2310,7 +2294,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7">
         <v>77428849</v>
@@ -2322,7 +2306,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>900000</v>
@@ -2334,7 +2318,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <v>15287856</v>
@@ -2346,7 +2330,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7">
         <f>SUM(C17:C19)</f>
@@ -2359,7 +2343,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
         <v>117364155</v>
@@ -2371,7 +2355,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7">
         <v>3977000</v>
@@ -2383,7 +2367,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7">
         <v>25924959</v>
@@ -2395,7 +2379,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <f>SUM(C21:C23)</f>
@@ -2408,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7">
         <v>83957303</v>
@@ -2420,7 +2404,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7">
         <v>770000</v>
@@ -2432,7 +2416,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <v>16541451</v>
@@ -2444,7 +2428,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7">
         <f>SUM(C25:C27)</f>
@@ -2457,7 +2441,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <v>119592948</v>
@@ -2469,7 +2453,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7">
         <v>1870000</v>
@@ -2481,7 +2465,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>26270236</v>
@@ -2493,7 +2477,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <f>SUM(C29:C31)</f>
@@ -2506,7 +2490,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C29" s="7">
         <v>113855057</v>
@@ -2518,7 +2502,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7">
         <v>2490000</v>
@@ -2530,7 +2514,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C31" s="7">
         <v>24270240</v>
@@ -2542,7 +2526,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C33:C35)</f>
@@ -2555,7 +2539,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" s="7">
         <v>673123300</v>
@@ -2567,7 +2551,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C34" s="7">
         <v>82875200</v>
@@ -2579,7 +2563,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C35" s="7">
         <v>140844500</v>
@@ -2591,7 +2575,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C36" s="7">
         <f>SUM(C37:C39)</f>
@@ -2604,7 +2588,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
         <v>36680461</v>
@@ -2616,7 +2600,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C38" s="7">
         <v>1310000</v>
@@ -2628,7 +2612,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7">
         <v>7460588</v>
@@ -2640,7 +2624,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C40" s="7">
         <f>SUM(C41:C43)</f>
@@ -2653,7 +2637,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C41" s="7">
         <v>237656627</v>
@@ -2665,7 +2649,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C42" s="7">
         <v>5764400</v>
@@ -2677,7 +2661,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C43" s="7">
         <v>53035237</v>
@@ -2689,7 +2673,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7">
         <f>SUM(C45:C47)</f>
@@ -2702,7 +2686,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="7">
         <v>177302965</v>
@@ -2714,7 +2698,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" s="7">
         <v>1250000</v>
@@ -2726,7 +2710,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C47" s="7">
         <v>38103017</v>
@@ -2738,7 +2722,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C48" s="7">
         <f>SUM(C49:C51)</f>
@@ -2751,7 +2735,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C49" s="7">
         <v>222010984</v>
@@ -2763,7 +2747,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C50" s="7">
         <v>250000</v>
@@ -2775,7 +2759,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C51" s="7">
         <v>47701661</v>
@@ -2787,7 +2771,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C52" s="7">
         <f>C53+C59+C60+C66+C67+C68+C69+C70</f>
@@ -2800,7 +2784,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C53" s="7">
         <v>5287267089</v>
@@ -2812,7 +2796,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C54" s="23">
         <v>29970956</v>
@@ -2824,7 +2808,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C55" s="23">
         <v>58065000</v>
@@ -2836,7 +2820,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C56" s="23">
         <v>3451726392</v>
@@ -2848,7 +2832,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="C57" s="23">
         <v>91132500</v>
@@ -2860,7 +2844,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C58" s="23">
         <v>1656372241</v>
@@ -2872,7 +2856,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C59" s="7">
         <v>370941077</v>
@@ -2884,7 +2868,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C60" s="7">
         <f>SUM(C61:C65)</f>
@@ -2897,7 +2881,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C61" s="7">
         <v>10881300</v>
@@ -2909,7 +2893,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C62" s="7">
         <v>19492650</v>
@@ -2921,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C63" s="7">
         <v>15397500</v>
@@ -2933,7 +2917,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C64" s="7">
         <v>15516450</v>
@@ -2945,7 +2929,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C65" s="7">
         <v>18880500</v>
@@ -2957,7 +2941,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C66" s="7">
         <v>269407000</v>
@@ -2969,7 +2953,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C67" s="7">
         <v>13312063</v>
@@ -2981,7 +2965,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C68" s="7">
         <v>96503877</v>
@@ -2993,7 +2977,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C69" s="7">
         <v>40761893</v>
@@ -3005,7 +2989,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C70" s="7">
         <v>61391544</v>
@@ -3017,7 +3001,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C71" s="7">
         <f>C72+C73+C74+C75</f>
@@ -3030,7 +3014,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C72" s="7">
         <v>374096400</v>
@@ -3042,7 +3026,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C73" s="7">
         <v>120000</v>
@@ -3054,7 +3038,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C74" s="7">
         <v>130000</v>
@@ -3066,7 +3050,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C75" s="7">
         <v>3200000</v>
@@ -3078,7 +3062,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C76" s="7">
         <f>C77+C79+C97+C100</f>
@@ -3091,7 +3075,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7">
         <f>C78</f>
@@ -3104,7 +3088,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7">
         <v>38602000</v>
@@ -3116,7 +3100,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7">
         <f>C80+C81+C82+C83+C93</f>
@@ -3129,7 +3113,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7">
         <v>40000000</v>
@@ -3142,7 +3126,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7">
         <v>17000000</v>
@@ -3155,7 +3139,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7">
         <v>6000000</v>
@@ -3168,7 +3152,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7">
         <f>SUM(C84:C92)</f>
@@ -3182,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C84" s="7">
         <v>500000</v>
@@ -3195,7 +3179,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C85" s="7">
         <v>500000</v>
@@ -3208,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C86" s="7">
         <v>500000</v>
@@ -3221,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C87" s="7">
         <v>500000</v>
@@ -3234,7 +3218,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C88" s="7">
         <v>500000</v>
@@ -3247,7 +3231,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C89" s="7">
         <v>500000</v>
@@ -3260,7 +3244,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C90" s="7">
         <v>4000000</v>
@@ -3273,7 +3257,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C91" s="7">
         <v>1000000</v>
@@ -3286,7 +3270,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7">
         <v>2000000</v>
@@ -3299,7 +3283,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C93" s="7">
         <f>SUM(C94:C96)</f>
@@ -3313,7 +3297,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C94" s="7">
         <v>217385530</v>
@@ -3326,7 +3310,7 @@
         <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C95" s="7">
         <v>40000000</v>
@@ -3339,7 +3323,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C96" s="7">
         <v>467138327</v>
@@ -3352,7 +3336,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C97" s="7">
         <f>SUM(C98:C99)</f>
@@ -3366,7 +3350,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C98" s="7">
         <v>110000000</v>
@@ -3379,7 +3363,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C99" s="7">
         <v>1800000</v>
@@ -3392,7 +3376,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C100" s="7">
         <v>547120000</v>
@@ -3405,7 +3389,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C101" s="7">
         <v>100000000</v>
@@ -3418,7 +3402,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C102" s="7">
         <v>447120000</v>
@@ -3431,7 +3415,7 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2">
         <f>C104+C113+C114+C120+C121+C122+C123+C124</f>
@@ -3444,7 +3428,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2">
         <v>332239129</v>
@@ -3456,7 +3440,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2">
         <v>500000</v>
@@ -3468,7 +3452,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2">
         <v>2000000</v>
@@ -3480,7 +3464,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2">
         <v>57486220</v>
@@ -3492,7 +3476,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2">
         <v>250000000</v>
@@ -3504,7 +3488,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2">
         <v>16196279</v>
@@ -3516,7 +3500,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2">
         <v>85000000</v>
@@ -3528,7 +3512,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C111" s="2">
         <v>4684000</v>
@@ -3540,7 +3524,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2">
         <v>1287630</v>
@@ -3552,7 +3536,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2">
         <v>81280000</v>
@@ -3563,7 +3547,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C114" s="2">
         <f>SUM(C115:C119)</f>
@@ -3575,7 +3559,7 @@
         <v>99</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2">
         <v>1231900</v>
@@ -3586,7 +3570,7 @@
         <v>99</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2">
         <v>10814050</v>
@@ -3597,7 +3581,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C117" s="2">
         <v>3619500</v>
@@ -3608,7 +3592,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C118" s="2">
         <v>1651000</v>
@@ -3619,7 +3603,7 @@
         <v>99</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C119" s="2">
         <v>1714500</v>
@@ -3630,7 +3614,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C120" s="2">
         <v>151050000</v>
@@ -3642,7 +3626,7 @@
         <v>99</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C121" s="2">
         <v>939800</v>
@@ -3653,7 +3637,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C122" s="2">
         <v>2933060</v>
@@ -3664,7 +3648,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2">
         <v>4379450</v>
@@ -3675,7 +3659,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C124" s="2">
         <v>7200900</v>
@@ -3686,7 +3670,7 @@
         <v>99</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C125" s="5">
         <f>C126+C132+C135</f>
@@ -3699,7 +3683,7 @@
         <v>99</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C126" s="2">
         <f>C127+C128+C129+C130+C131</f>
@@ -3711,7 +3695,7 @@
         <v>99</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C127" s="2">
         <v>533000000</v>
@@ -3722,7 +3706,7 @@
         <v>99</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2">
         <v>170000000</v>
@@ -3733,7 +3717,7 @@
         <v>99</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C129" s="2">
         <v>45000000</v>
@@ -3744,7 +3728,7 @@
         <v>99</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C130" s="2">
         <v>110000000</v>
@@ -3755,7 +3739,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C131" s="2">
         <v>145588402</v>
@@ -3766,7 +3750,7 @@
         <v>99</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C132" s="2">
         <f>C133+C134</f>
@@ -3778,7 +3762,7 @@
         <v>99</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C133" s="2">
         <v>620000000</v>
@@ -3789,7 +3773,7 @@
         <v>99</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C134" s="2">
         <v>167400000</v>
@@ -3800,7 +3784,7 @@
         <v>99</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C135" s="2">
         <f>C136+C137+C138+C139+C140+C141+C142+C143</f>
@@ -3812,7 +3796,7 @@
         <v>99</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C136" s="2">
         <v>20000000</v>
@@ -3823,7 +3807,7 @@
         <v>99</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C137" s="2">
         <v>69000000</v>
@@ -3834,7 +3818,7 @@
         <v>99</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2">
         <v>325000000</v>
@@ -3845,7 +3829,7 @@
         <v>99</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C139" s="2">
         <v>173000000</v>
@@ -3856,7 +3840,7 @@
         <v>99</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C140" s="2">
         <v>15000000</v>
@@ -3867,7 +3851,7 @@
         <v>99</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C141" s="2">
         <v>24000000</v>
@@ -3878,7 +3862,7 @@
         <v>99</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C142" s="2">
         <v>30000000</v>
@@ -3889,7 +3873,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C143" s="2">
         <v>171720000</v>
@@ -3900,7 +3884,7 @@
         <v>99</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C144" s="5">
         <f>C145+C148+C156</f>
@@ -3913,7 +3897,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C145" s="13">
         <f>C146+C147</f>
@@ -3926,7 +3910,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C146" s="14">
         <v>356000000</v>
@@ -3938,7 +3922,7 @@
         <v>99</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C147" s="13">
         <v>20000000</v>
@@ -3950,7 +3934,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C148" s="14">
         <f>SUM(C149:C155)</f>
@@ -3965,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C149" s="16">
         <v>500000</v>
@@ -3979,7 +3963,7 @@
         <v>99</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C150" s="16">
         <v>145000000</v>
@@ -3993,7 +3977,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C151" s="17">
         <v>50000000</v>
@@ -4007,7 +3991,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C152" s="16">
         <v>7000000</v>
@@ -4021,7 +4005,7 @@
         <v>99</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C153" s="16">
         <v>4500000</v>
@@ -4035,7 +4019,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C154" s="16">
         <v>17000000</v>
@@ -4049,7 +4033,7 @@
         <v>99</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C155" s="16">
         <v>16000000</v>
@@ -4063,7 +4047,7 @@
         <v>99</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C156" s="16">
         <f>C157+C158</f>
@@ -4078,7 +4062,7 @@
         <v>99</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C157" s="14">
         <v>400000000</v>
@@ -4092,7 +4076,7 @@
         <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C158" s="2">
         <v>673100000</v>
@@ -4120,7 +4104,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,7 +4115,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,7 +4167,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C6" s="28">
         <v>462309000</v>
@@ -4194,7 +4178,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C7" s="28">
         <v>5997600</v>
@@ -4205,7 +4189,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C8" s="28">
         <v>11939410</v>
@@ -4216,7 +4200,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C9" s="28">
         <v>99559800</v>
@@ -4238,7 +4222,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2">
         <v>59121800</v>
@@ -4249,7 +4233,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2">
         <v>270785550</v>
@@ -4260,7 +4244,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C13" s="2">
         <v>15282000</v>
@@ -4271,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C14" s="2">
         <v>811600</v>
@@ -4282,7 +4266,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C15" s="2">
         <v>119679000</v>
@@ -4304,7 +4288,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2">
         <v>100443284</v>
@@ -4315,7 +4299,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2">
         <v>154589000</v>
@@ -4326,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2">
         <v>53810320</v>
@@ -4337,7 +4321,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2">
         <v>137494427</v>
@@ -4458,7 +4442,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C31" s="2">
         <v>2285897273</v>
@@ -4469,7 +4453,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2">
         <v>64986200</v>
@@ -4480,7 +4464,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>91990000</v>
@@ -4491,7 +4475,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
         <v>1440700000</v>
@@ -4502,7 +4486,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="2">
         <v>266600000</v>
@@ -4513,7 +4497,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="2">
         <v>427400000</v>
@@ -4524,7 +4508,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="2">
         <v>135000000</v>
@@ -4535,7 +4519,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2">
         <v>500000000</v>
@@ -4546,7 +4530,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C39" s="2">
         <v>46700000</v>
@@ -4557,7 +4541,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2">
         <v>65000000</v>
@@ -4568,7 +4552,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2">
         <v>83098010</v>
@@ -4579,7 +4563,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2">
         <v>379225063</v>
@@ -4590,7 +4574,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2">
         <v>125498000</v>
@@ -4601,7 +4585,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2">
         <v>95000000</v>
@@ -4612,7 +4596,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C45" s="2">
         <v>5000000</v>
@@ -4623,7 +4607,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2">
         <v>400000</v>
@@ -4634,7 +4618,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2">
         <v>1310255998</v>
@@ -4645,7 +4629,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2">
         <v>968100000</v>
@@ -4656,7 +4640,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2">
         <v>200000000</v>
@@ -4667,7 +4651,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2">
         <v>142155998</v>
@@ -4678,7 +4662,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2">
         <v>6712832403</v>
@@ -4689,7 +4673,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2">
         <v>1994660000</v>
@@ -4700,7 +4684,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2">
         <v>4718172403</v>
@@ -4711,7 +4695,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C54" s="2">
         <v>6712832403</v>
@@ -4730,8 +4714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360EBD22-8A27-462E-8847-1D905C6EB368}">
   <dimension ref="A1:BG202"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,7 +4767,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
@@ -4797,172 +4781,172 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="AA2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="AD2" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="AG2" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="AH2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="AI2" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AK2" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AL2" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AN2" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AT2" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AU2" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AV2" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AW2" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AX2" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="BA2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="BB2" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="BC2" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="BD2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="BE2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="BF2" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="AV2" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="AY2" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="BD2" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="BE2" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>376</v>
-      </c>
       <c r="BG2" s="29" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -4970,7 +4954,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" s="32">
         <v>5103770263</v>
@@ -4981,7 +4965,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" s="32">
         <v>222768231</v>
@@ -4992,7 +4976,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C5" s="32">
         <v>189960800</v>
@@ -5003,7 +4987,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C6" s="32">
         <v>32807431</v>
@@ -5014,7 +4998,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="32">
         <v>2043364244</v>
@@ -5025,7 +5009,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="32">
         <v>1732037214</v>
@@ -5036,7 +5020,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C9" s="32">
         <v>16842828</v>
@@ -5047,7 +5031,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C10" s="32">
         <v>294484202</v>
@@ -5058,7 +5042,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="32">
         <v>640438866</v>
@@ -5069,7 +5053,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C12" s="32">
         <v>93243562</v>
@@ -5080,7 +5064,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="32">
         <v>79251341</v>
@@ -5091,7 +5075,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" s="32">
         <v>1000000</v>
@@ -5102,7 +5086,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="32">
         <v>12992221</v>
@@ -5113,7 +5097,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="32">
         <v>149693557</v>
@@ -5124,7 +5108,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="32">
         <v>125277036</v>
@@ -5135,7 +5119,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C18" s="32">
         <v>1734915</v>
@@ -5146,7 +5130,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" s="32">
         <v>22681606</v>
@@ -5157,7 +5141,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="32">
         <v>104072380</v>
@@ -5168,7 +5152,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="32">
         <v>89039212</v>
@@ -5179,7 +5163,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="32">
         <v>578000</v>
@@ -5190,7 +5174,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" s="32">
         <v>14455168</v>
@@ -5201,7 +5185,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C24" s="32">
         <v>149086199</v>
@@ -5212,7 +5196,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C25" s="32">
         <v>124929241</v>
@@ -5223,7 +5207,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C26" s="32">
         <v>1370000</v>
@@ -5234,7 +5218,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" s="32">
         <v>22786958</v>
@@ -5245,7 +5229,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C28" s="32">
         <v>144343168</v>
@@ -5256,7 +5240,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C29" s="32">
         <v>121478024</v>
@@ -5267,7 +5251,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C30" s="32">
         <v>1441000</v>
@@ -5278,7 +5262,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C31" s="32">
         <v>21424144</v>
@@ -5289,7 +5273,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C32" s="32">
         <v>1326100000</v>
@@ -5300,7 +5284,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C33" s="32">
         <v>1120587200</v>
@@ -5311,7 +5295,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C34" s="32">
         <v>17088000</v>
@@ -5322,7 +5306,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C35" s="32">
         <v>188424800</v>
@@ -5333,7 +5317,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C36" s="32">
         <v>42027890</v>
@@ -5344,7 +5328,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37" s="32">
         <v>34811556</v>
@@ -5355,7 +5339,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C38" s="32">
         <v>1310000</v>
@@ -5366,7 +5350,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C39" s="32">
         <v>5906334</v>
@@ -5377,7 +5361,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C40" s="32">
         <v>300466210</v>
@@ -5388,7 +5372,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C41" s="32">
         <v>247951691</v>
@@ -5399,7 +5383,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C42" s="32">
         <v>6335400</v>
@@ -5410,7 +5394,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C43" s="32">
         <v>46179119</v>
@@ -5421,7 +5405,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" s="32">
         <v>223227098</v>
@@ -5432,7 +5416,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C45" s="32">
         <v>188228592</v>
@@ -5443,7 +5427,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C46" s="32">
         <v>1250000</v>
@@ -5454,7 +5438,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C47" s="32">
         <v>33748506</v>
@@ -5465,7 +5449,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C48" s="32">
         <v>305377724</v>
@@ -5476,7 +5460,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C49" s="32">
         <v>259300317</v>
@@ -5487,7 +5471,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C50" s="32">
         <v>250000</v>
@@ -5498,7 +5482,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C51" s="32">
         <v>45827407</v>
@@ -5509,7 +5493,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C52" s="32">
         <v>5554643775</v>
@@ -5520,7 +5504,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C53" s="32">
         <v>4603346824</v>
@@ -5531,7 +5515,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C54" s="33">
         <v>40477590</v>
@@ -5542,7 +5526,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C55" s="33">
         <v>62775000</v>
@@ -5553,7 +5537,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C56" s="33">
         <v>3171066602</v>
@@ -5564,7 +5548,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="C57" s="33">
         <v>64100000</v>
@@ -5575,7 +5559,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C58" s="33">
         <v>1264927632</v>
@@ -5586,7 +5570,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C59" s="32">
         <v>365086335</v>
@@ -5597,7 +5581,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C60" s="32">
         <v>36000000</v>
@@ -5608,7 +5592,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C61" s="32">
         <v>47360000</v>
@@ -5619,7 +5603,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C62" s="32">
         <v>195455450</v>
@@ -5630,7 +5614,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="C63" s="32">
         <v>0</v>
@@ -5641,7 +5625,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C64" s="32">
         <v>86270885</v>
@@ -5652,7 +5636,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C65" s="32">
         <v>78107500</v>
@@ -5663,7 +5647,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C66" s="32">
         <v>10205750</v>
@@ -5674,7 +5658,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C67" s="32">
         <v>18945750</v>
@@ -5685,7 +5669,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C68" s="32">
         <v>14116750</v>
@@ -5696,7 +5680,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C69" s="32">
         <v>15148150</v>
@@ -5707,7 +5691,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C70" s="32">
         <v>19691100</v>
@@ -5718,7 +5702,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C71" s="32">
         <v>294000000</v>
@@ -5729,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C72" s="32">
         <v>13207980</v>
@@ -5740,7 +5724,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C73" s="32">
         <v>103891480</v>
@@ -5751,7 +5735,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C74" s="32">
         <v>40623646</v>
@@ -5762,7 +5746,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C75" s="32">
         <v>56380010</v>
@@ -5773,7 +5757,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C76" s="32">
         <v>408568000</v>
@@ -5784,7 +5768,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C77" s="32">
         <v>126544000</v>
@@ -5795,7 +5779,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C78" s="32">
         <v>35000000</v>
@@ -5806,7 +5790,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C79" s="32">
         <v>7824000</v>
@@ -5817,7 +5801,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C80" s="32">
         <v>40000000</v>
@@ -5828,7 +5812,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C81" s="32">
         <v>1000000</v>
@@ -5839,7 +5823,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C82" s="32">
         <v>720000</v>
@@ -5850,7 +5834,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C83" s="32">
         <v>40000000</v>
@@ -5861,7 +5845,7 @@
         <v>99</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C84" s="32">
         <v>2000000</v>
@@ -5872,7 +5856,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C85" s="32">
         <v>282024000</v>
@@ -5883,7 +5867,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C86" s="32">
         <v>50000000</v>
@@ -5894,7 +5878,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C87" s="32">
         <v>2000000</v>
@@ -5905,7 +5889,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C88" s="32">
         <v>12000000</v>
@@ -5916,7 +5900,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C89" s="32">
         <v>3000000</v>
@@ -5927,7 +5911,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C90" s="32">
         <v>80000000</v>
@@ -5938,7 +5922,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C91" s="32">
         <v>22500000</v>
@@ -5949,7 +5933,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C92" s="32">
         <v>8000000</v>
@@ -5960,7 +5944,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="32">
         <v>500000</v>
@@ -5971,7 +5955,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C94" s="32">
         <v>22500000</v>
@@ -5982,7 +5966,7 @@
         <v>99</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C95" s="32">
         <v>4250000</v>
@@ -5993,7 +5977,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C96" s="32">
         <v>1000000</v>
@@ -6004,7 +5988,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C97" s="32">
         <v>10000000</v>
@@ -6015,7 +5999,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C98" s="32">
         <v>66274000</v>
@@ -6026,7 +6010,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C99" s="32">
         <v>2706803035</v>
@@ -6037,7 +6021,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C100" s="32">
         <v>743201757</v>
@@ -6048,7 +6032,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C101" s="32">
         <v>41800000</v>
@@ -6059,7 +6043,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C102" s="32">
         <v>40000000</v>
@@ -6070,7 +6054,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C103" s="32">
         <v>1800000</v>
@@ -6081,7 +6065,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C104" s="32">
         <v>874501278</v>
@@ -6092,7 +6076,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C105" s="32">
         <v>40000000</v>
@@ -6103,7 +6087,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C106" s="32">
         <v>67100000</v>
@@ -6114,7 +6098,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C107" s="32">
         <v>17000000</v>
@@ -6125,7 +6109,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C108" s="32">
         <v>2400000</v>
@@ -6136,7 +6120,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C109" s="32">
         <v>32000000</v>
@@ -6147,7 +6131,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C110" s="32">
         <v>2500000</v>
@@ -6158,7 +6142,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C111" s="32">
         <v>6000000</v>
@@ -6169,7 +6153,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C112" s="32">
         <v>2100000</v>
@@ -6180,7 +6164,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C113" s="32">
         <v>3000000</v>
@@ -6191,7 +6175,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C114" s="32">
         <v>100000</v>
@@ -6202,7 +6186,7 @@
         <v>99</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C115" s="32">
         <v>2000000</v>
@@ -6213,7 +6197,7 @@
         <v>99</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C116" s="32">
         <v>10500000</v>
@@ -6224,7 +6208,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C117" s="32">
         <v>500000</v>
@@ -6235,7 +6219,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C118" s="32">
         <v>500000</v>
@@ -6246,7 +6230,7 @@
         <v>99</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C119" s="32">
         <v>500000</v>
@@ -6257,7 +6241,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C120" s="32">
         <v>500000</v>
@@ -6268,7 +6252,7 @@
         <v>99</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C121" s="32">
         <v>500000</v>
@@ -6279,7 +6263,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C122" s="32">
         <v>500000</v>
@@ -6290,7 +6274,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C123" s="32">
         <v>4000000</v>
@@ -6301,7 +6285,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C124" s="32">
         <v>1000000</v>
@@ -6312,7 +6296,7 @@
         <v>99</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C125" s="32">
         <v>2000000</v>
@@ -6323,7 +6307,7 @@
         <v>99</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C126" s="32">
         <v>500000</v>
@@ -6334,7 +6318,7 @@
         <v>99</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C127" s="32">
         <v>17000000</v>
@@ -6345,7 +6329,7 @@
         <v>99</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C128" s="32">
         <v>739901278</v>
@@ -6356,7 +6340,7 @@
         <v>99</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C129" s="32">
         <v>211901278</v>
@@ -6367,7 +6351,7 @@
         <v>99</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C130" s="2">
         <v>528000000</v>
@@ -6378,7 +6362,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C131" s="32">
         <v>1047300000</v>
@@ -6389,7 +6373,7 @@
         <v>99</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C132" s="32">
         <v>100000000</v>
@@ -6400,7 +6384,7 @@
         <v>99</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C133" s="32">
         <v>947300000</v>
@@ -6411,7 +6395,7 @@
         <v>99</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2">
         <v>1301841058</v>
@@ -6422,7 +6406,7 @@
         <v>99</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C135" s="2">
         <v>1081323148</v>
@@ -6433,7 +6417,7 @@
         <v>99</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C136" s="2">
         <v>1287400</v>
@@ -6444,7 +6428,7 @@
         <v>99</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C137" s="2">
         <v>2000000</v>
@@ -6455,7 +6439,7 @@
         <v>99</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C138" s="2">
         <v>333345000</v>
@@ -6466,7 +6450,7 @@
         <v>99</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2">
         <v>653800000</v>
@@ -6477,7 +6461,7 @@
         <v>99</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2">
         <v>90890748</v>
@@ -6488,7 +6472,7 @@
         <v>99</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C141" s="2">
         <v>5224780</v>
@@ -6499,7 +6483,7 @@
         <v>99</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C142" s="32">
         <v>81280000</v>
@@ -6510,7 +6494,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C143" s="32">
         <v>16192500</v>
@@ -6521,7 +6505,7 @@
         <v>99</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C144" s="32">
         <v>94791110</v>
@@ -6532,7 +6516,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C145" s="32">
         <v>811685</v>
@@ -6543,7 +6527,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C146" s="32">
         <v>2325388</v>
@@ -6554,7 +6538,7 @@
         <v>99</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C147" s="32">
         <v>16946047</v>
@@ -6565,7 +6549,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C148" s="32">
         <v>2946400</v>
@@ -6576,7 +6560,7 @@
         <v>99</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C149" s="2">
         <v>3585732832</v>
@@ -6587,7 +6571,7 @@
         <v>99</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C150" s="2">
         <v>330962000</v>
@@ -6598,7 +6582,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C151" s="2">
         <v>65000000</v>
@@ -6609,7 +6593,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C152" s="2">
         <v>100000000</v>
@@ -6620,7 +6604,7 @@
         <v>99</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C153" s="2">
         <v>25000000</v>
@@ -6631,7 +6615,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C154" s="2">
         <v>70600000</v>
@@ -6642,7 +6626,7 @@
         <v>99</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C155" s="2">
         <v>70362000</v>
@@ -6653,7 +6637,7 @@
         <v>99</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C156" s="2">
         <v>796290000</v>
@@ -6664,7 +6648,7 @@
         <v>99</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C157" s="2">
         <v>613000000</v>
@@ -6675,7 +6659,7 @@
         <v>99</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C158" s="2">
         <v>5000000</v>
@@ -6686,7 +6670,7 @@
         <v>99</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C159" s="2">
         <v>9000000</v>
@@ -6697,7 +6681,7 @@
         <v>99</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C160" s="2">
         <v>169290000</v>
@@ -6708,7 +6692,7 @@
         <v>99</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C161" s="2">
         <v>648063647</v>
@@ -6719,7 +6703,7 @@
         <v>99</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C162" s="2">
         <v>20000000</v>
@@ -6730,7 +6714,7 @@
         <v>99</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C163" s="2">
         <v>20000000</v>
@@ -6741,7 +6725,7 @@
         <v>99</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C164" s="2">
         <v>120000000</v>
@@ -6752,7 +6736,7 @@
         <v>99</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C165" s="2">
         <v>60000000</v>
@@ -6763,7 +6747,7 @@
         <v>99</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C166" s="2">
         <v>265000000</v>
@@ -6774,7 +6758,7 @@
         <v>99</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C167" s="2">
         <v>110000000</v>
@@ -6785,7 +6769,7 @@
         <v>99</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C168" s="2">
         <v>19000000</v>
@@ -6796,7 +6780,7 @@
         <v>99</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C169" s="2">
         <v>34063647</v>
@@ -6807,7 +6791,7 @@
         <v>99</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C170" s="2">
         <v>1292000000</v>
@@ -6818,7 +6802,7 @@
         <v>99</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C171" s="2">
         <v>510000000</v>
@@ -6829,7 +6813,7 @@
         <v>99</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C172" s="2">
         <v>50000000</v>
@@ -6840,7 +6824,7 @@
         <v>99</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C173" s="2">
         <v>6000000</v>
@@ -6851,7 +6835,7 @@
         <v>99</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C174" s="2">
         <v>5000000</v>
@@ -6862,7 +6846,7 @@
         <v>99</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C175" s="2">
         <v>15000000</v>
@@ -6873,7 +6857,7 @@
         <v>99</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C176" s="2">
         <v>46000000</v>
@@ -6884,7 +6868,7 @@
         <v>99</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C177" s="2">
         <v>400000000</v>
@@ -6895,7 +6879,7 @@
         <v>99</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C178" s="2">
         <v>5000000</v>
@@ -6906,7 +6890,7 @@
         <v>99</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C179" s="2">
         <v>30000000</v>
@@ -6917,7 +6901,7 @@
         <v>99</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C180" s="2">
         <v>50000000</v>
@@ -6928,7 +6912,7 @@
         <v>99</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C181" s="2">
         <v>15000000</v>
@@ -6939,7 +6923,7 @@
         <v>99</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C182" s="2">
         <v>160000000</v>
@@ -6950,7 +6934,7 @@
         <v>99</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C183" s="2">
         <v>518417185</v>
@@ -6961,7 +6945,7 @@
         <v>99</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C184" s="2">
         <v>812243942</v>
@@ -6972,7 +6956,7 @@
         <v>99</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C185" s="2">
         <v>355500000</v>
@@ -6983,7 +6967,7 @@
         <v>99</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C186" s="2">
         <v>345500000</v>
@@ -6994,7 +6978,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C187" s="2">
         <v>10000000</v>
@@ -7005,7 +6989,7 @@
         <v>99</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C188" s="2">
         <v>226743942</v>
@@ -7016,7 +7000,7 @@
         <v>99</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C189" s="34">
         <v>500000</v>
@@ -7027,7 +7011,7 @@
         <v>99</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C190" s="34">
         <v>145000000</v>
@@ -7038,7 +7022,7 @@
         <v>99</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C191" s="35">
         <v>30000000</v>
@@ -7049,7 +7033,7 @@
         <v>99</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C192" s="34">
         <v>5243942</v>
@@ -7060,7 +7044,7 @@
         <v>99</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C193" s="34">
         <v>15000000</v>
@@ -7071,7 +7055,7 @@
         <v>99</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C194" s="34">
         <v>10000000</v>
@@ -7082,7 +7066,7 @@
         <v>99</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C195" s="34">
         <v>5000000</v>
@@ -7093,7 +7077,7 @@
         <v>99</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C196" s="34">
         <v>5000000</v>
@@ -7104,7 +7088,7 @@
         <v>99</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C197" s="34">
         <v>3000000</v>
@@ -7115,7 +7099,7 @@
         <v>99</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C198" s="34">
         <v>8000000</v>
@@ -7126,7 +7110,7 @@
         <v>99</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C199" s="34">
         <v>30000000</v>
@@ -7137,7 +7121,7 @@
         <v>99</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C200" s="34">
         <v>30000000</v>
@@ -7148,7 +7132,7 @@
         <v>99</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C201" s="34">
         <v>200000000</v>
@@ -7159,7 +7143,7 @@
         <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C202" s="2">
         <v>19473602905</v>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/2021_budget_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1020" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{97C4DC14-F2C5-4E89-B6D7-4254112EA5D8}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{581F29AE-9E7C-4200-89DA-2A6F51B3F210}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 BEVÉTEL" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="382">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Kamatbevételek (B37)</t>
   </si>
   <si>
-    <t>Finanszírozási többlet (maradvány) (FT1)</t>
-  </si>
-  <si>
     <t>Személyi juttatások és járulékok (K1)</t>
   </si>
   <si>
@@ -362,12 +359,6 @@
     <t>Egyéb működési célú kiadások  (K4)</t>
   </si>
   <si>
-    <t>Önkormányzat egyéb működési célú kiadásai (K41)</t>
-  </si>
-  <si>
-    <t>Elvonások és befizetések (K4101)</t>
-  </si>
-  <si>
     <t>Egyéb működési célú támogatás államháztartáson kívülre (K42)</t>
   </si>
   <si>
@@ -662,9 +653,6 @@
     <t>Egyéb működési bevételek (B38)</t>
   </si>
   <si>
-    <t>Finanszírozási többlet (maradvány, értékpapírok beváltása) (FT1)</t>
-  </si>
-  <si>
     <t>2021 KIADÁS</t>
   </si>
   <si>
@@ -1188,6 +1176,12 @@
   </si>
   <si>
     <t>Kiküldetés (K2204)</t>
+  </si>
+  <si>
+    <t>Finanszírozási bevétel - maradvány, értékpapírok beváltása (FT1)</t>
+  </si>
+  <si>
+    <t>Finanszírozási bevétel - maradvány (FT1)</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAB4C5-B3A4-426F-A8BC-E577AEC02B08}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1866,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C18" s="2">
         <v>3779214700</v>
@@ -2040,7 +2034,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C33" s="2">
         <v>400000</v>
@@ -2051,7 +2045,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C34" s="2">
         <v>1060817431</v>
@@ -2062,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C35" s="2">
         <v>200000000</v>
@@ -2073,7 +2067,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2">
         <v>710636000</v>
@@ -2084,7 +2078,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2">
         <v>150181431</v>
@@ -2095,7 +2089,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2">
         <v>2826252158</v>
@@ -2106,7 +2100,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="C39" s="2">
         <v>2826252158</v>
@@ -2127,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BAFE8-6BF8-4E8A-B864-E53778D2F9B3}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,10 +2162,9 @@
         <v>99</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
-        <f>C4+C7+C11+C32+C36+C40+C44+C48</f>
         <v>4487046138</v>
       </c>
       <c r="E3" s="25"/>
@@ -2182,10 +2175,9 @@
         <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7">
-        <f>SUM(C5:C6)</f>
         <v>259668182</v>
       </c>
       <c r="E4" s="25"/>
@@ -2195,7 +2187,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7">
         <v>217908168</v>
@@ -2207,7 +2199,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7">
         <v>41760014</v>
@@ -2219,10 +2211,9 @@
         <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <f>SUM(C8:C10)</f>
         <v>1871508962</v>
       </c>
       <c r="E7" s="25"/>
@@ -2232,7 +2223,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7">
         <v>1538081462</v>
@@ -2244,7 +2235,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7">
         <v>21615392</v>
@@ -2256,7 +2247,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="7">
         <v>311812108</v>
@@ -2268,10 +2259,9 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="7">
-        <f>C12+C16+C20+C24+C28</f>
         <v>630500054</v>
       </c>
       <c r="E11" s="25"/>
@@ -2281,10 +2271,9 @@
         <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7">
-        <f>SUM(C13:C15)</f>
         <v>93616705</v>
       </c>
       <c r="E12" s="25"/>
@@ -2294,7 +2283,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="7">
         <v>77428849</v>
@@ -2306,7 +2295,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>900000</v>
@@ -2318,7 +2307,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="7">
         <v>15287856</v>
@@ -2330,10 +2319,9 @@
         <v>99</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <f>SUM(C17:C19)</f>
         <v>147266114</v>
       </c>
       <c r="E16" s="25"/>
@@ -2343,7 +2331,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7">
         <v>117364155</v>
@@ -2355,7 +2343,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7">
         <v>3977000</v>
@@ -2367,7 +2355,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7">
         <v>25924959</v>
@@ -2379,10 +2367,9 @@
         <v>99</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7">
-        <f>SUM(C21:C23)</f>
         <v>101268754</v>
       </c>
       <c r="E20" s="25"/>
@@ -2392,7 +2379,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="7">
         <v>83957303</v>
@@ -2404,7 +2391,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7">
         <v>770000</v>
@@ -2416,7 +2403,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>16541451</v>
@@ -2428,10 +2415,9 @@
         <v>99</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7">
-        <f>SUM(C25:C27)</f>
         <v>147733184</v>
       </c>
       <c r="E24" s="25"/>
@@ -2441,7 +2427,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="7">
         <v>119592948</v>
@@ -2453,7 +2439,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7">
         <v>1870000</v>
@@ -2465,7 +2451,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="7">
         <v>26270236</v>
@@ -2477,10 +2463,9 @@
         <v>99</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7">
-        <f>SUM(C29:C31)</f>
         <v>140615297</v>
       </c>
       <c r="E28" s="25"/>
@@ -2490,7 +2475,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>113855057</v>
@@ -2502,7 +2487,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="7">
         <v>2490000</v>
@@ -2514,7 +2499,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="7">
         <v>24270240</v>
@@ -2526,10 +2511,9 @@
         <v>99</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7">
-        <f>SUM(C33:C35)</f>
         <v>896843000</v>
       </c>
       <c r="E32" s="25"/>
@@ -2539,7 +2523,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="7">
         <v>673123300</v>
@@ -2551,7 +2535,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7">
         <v>82875200</v>
@@ -2563,7 +2547,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="7">
         <v>140844500</v>
@@ -2575,10 +2559,9 @@
         <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="7">
-        <f>SUM(C37:C39)</f>
         <v>45451049</v>
       </c>
       <c r="E36" s="25"/>
@@ -2588,7 +2571,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
         <v>36680461</v>
@@ -2600,7 +2583,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7">
         <v>1310000</v>
@@ -2612,7 +2595,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="7">
         <v>7460588</v>
@@ -2624,10 +2607,9 @@
         <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="7">
-        <f>SUM(C41:C43)</f>
         <v>296456264</v>
       </c>
       <c r="E40" s="25"/>
@@ -2637,7 +2619,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="7">
         <v>237656627</v>
@@ -2649,7 +2631,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="7">
         <v>5764400</v>
@@ -2661,7 +2643,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="7">
         <v>53035237</v>
@@ -2673,10 +2655,9 @@
         <v>99</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7">
-        <f>SUM(C45:C47)</f>
         <v>216655982</v>
       </c>
       <c r="E44" s="25"/>
@@ -2686,7 +2667,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="7">
         <v>177302965</v>
@@ -2698,7 +2679,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="7">
         <v>1250000</v>
@@ -2710,7 +2691,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="7">
         <v>38103017</v>
@@ -2722,10 +2703,9 @@
         <v>99</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="7">
-        <f>SUM(C49:C51)</f>
         <v>269962645</v>
       </c>
       <c r="E48" s="25"/>
@@ -2735,7 +2715,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="7">
         <v>222010984</v>
@@ -2747,7 +2727,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="7">
         <v>250000</v>
@@ -2759,7 +2739,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="7">
         <v>47701661</v>
@@ -2771,10 +2751,9 @@
         <v>99</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="7">
-        <f>C53+C59+C60+C66+C67+C68+C69+C70</f>
         <v>6219752943</v>
       </c>
       <c r="E52" s="25"/>
@@ -2784,7 +2763,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="7">
         <v>5287267089</v>
@@ -2796,7 +2775,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="23">
         <v>29970956</v>
@@ -2808,7 +2787,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="23">
         <v>58065000</v>
@@ -2820,7 +2799,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="23">
         <v>3451726392</v>
@@ -2832,7 +2811,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C57" s="23">
         <v>91132500</v>
@@ -2844,7 +2823,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="23">
         <v>1656372241</v>
@@ -2856,7 +2835,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="7">
         <v>370941077</v>
@@ -2868,10 +2847,9 @@
         <v>99</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="7">
-        <f>SUM(C61:C65)</f>
         <v>80168400</v>
       </c>
       <c r="E60" s="25"/>
@@ -2881,7 +2859,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="7">
         <v>10881300</v>
@@ -2893,7 +2871,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7">
         <v>19492650</v>
@@ -2905,7 +2883,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7">
         <v>15397500</v>
@@ -2917,7 +2895,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7">
         <v>15516450</v>
@@ -2929,7 +2907,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="7">
         <v>18880500</v>
@@ -2941,7 +2919,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="7">
         <v>269407000</v>
@@ -2953,7 +2931,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="7">
         <v>13312063</v>
@@ -2965,7 +2943,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7">
         <v>96503877</v>
@@ -2977,7 +2955,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="7">
         <v>40761893</v>
@@ -2989,7 +2967,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="7">
         <v>61391544</v>
@@ -3001,10 +2979,9 @@
         <v>99</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="7">
-        <f>C72+C73+C74+C75</f>
         <v>377546400</v>
       </c>
       <c r="E71" s="25"/>
@@ -3014,7 +2991,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="7">
         <v>374096400</v>
@@ -3026,7 +3003,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="7">
         <v>120000</v>
@@ -3038,7 +3015,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7">
         <v>130000</v>
@@ -3050,7 +3027,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="7">
         <v>3200000</v>
@@ -3062,10 +3039,9 @@
         <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7">
-        <f>C77+C79+C97+C100</f>
         <v>1495045857</v>
       </c>
       <c r="E76" s="25"/>
@@ -3074,11 +3050,10 @@
       <c r="A77" s="9">
         <v>99</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>108</v>
+      <c r="B77" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="C77" s="7">
-        <f>C78</f>
         <v>38602000</v>
       </c>
       <c r="E77" s="25"/>
@@ -3088,10 +3063,10 @@
         <v>99</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7">
-        <v>38602000</v>
+        <v>797523857</v>
       </c>
       <c r="E78" s="25"/>
     </row>
@@ -3100,36 +3075,36 @@
         <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7">
-        <f>C80+C81+C82+C83+C93</f>
-        <v>797523857</v>
-      </c>
+        <v>40000000</v>
+      </c>
+      <c r="D79" s="8"/>
       <c r="E79" s="25"/>
     </row>
-    <row r="80" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7">
-        <v>40000000</v>
+        <v>17000000</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="25"/>
     </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7">
-        <v>17000000</v>
+        <v>6000000</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="25"/>
@@ -3139,34 +3114,33 @@
         <v>99</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="25"/>
     </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>99</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7">
-        <f>SUM(C84:C92)</f>
-        <v>10000000</v>
+        <v>500000</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="25"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>99</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7">
         <v>500000</v>
@@ -3179,7 +3153,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7">
         <v>500000</v>
@@ -3192,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7">
         <v>500000</v>
@@ -3205,7 +3179,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7">
         <v>500000</v>
@@ -3218,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7">
         <v>500000</v>
@@ -3231,10 +3205,10 @@
         <v>99</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7">
-        <v>500000</v>
+        <v>4000000</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="25"/>
@@ -3244,10 +3218,10 @@
         <v>99</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="25"/>
@@ -3257,10 +3231,10 @@
         <v>99</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="7">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="25"/>
@@ -3270,10 +3244,10 @@
         <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C92" s="7">
-        <v>2000000</v>
+        <v>724523857</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="25"/>
@@ -3283,11 +3257,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" s="7">
-        <f>SUM(C94:C96)</f>
-        <v>724523857</v>
+        <v>217385530</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="25"/>
@@ -3297,10 +3270,10 @@
         <v>99</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7">
-        <v>217385530</v>
+        <v>40000000</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="25"/>
@@ -3310,10 +3283,10 @@
         <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C95" s="7">
-        <v>40000000</v>
+        <v>467138327</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="25"/>
@@ -3323,10 +3296,10 @@
         <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C96" s="7">
-        <v>467138327</v>
+        <v>111800000</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="25"/>
@@ -3336,11 +3309,10 @@
         <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" s="7">
-        <f>SUM(C98:C99)</f>
-        <v>111800000</v>
+        <v>110000000</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="25"/>
@@ -3350,10 +3322,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C98" s="7">
-        <v>110000000</v>
+        <v>1800000</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="25"/>
@@ -3363,12 +3335,12 @@
         <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" s="7">
-        <v>1800000</v>
-      </c>
-      <c r="D99" s="8"/>
+        <v>547120000</v>
+      </c>
+      <c r="D99" s="24"/>
       <c r="E99" s="25"/>
     </row>
     <row r="100" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,12 +3348,12 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="7">
-        <v>547120000</v>
-      </c>
-      <c r="D100" s="24"/>
+        <v>100000000</v>
+      </c>
+      <c r="D100" s="8"/>
       <c r="E100" s="25"/>
     </row>
     <row r="101" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3389,37 +3361,35 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C101" s="7">
-        <v>100000000</v>
-      </c>
-      <c r="D101" s="8"/>
+        <v>447120000</v>
+      </c>
+      <c r="D101" s="24"/>
       <c r="E101" s="25"/>
     </row>
-    <row r="102" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>99</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" s="7">
-        <v>447120000</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="2">
+        <v>599053289</v>
+      </c>
+      <c r="D102" s="25"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>99</v>
       </c>
-      <c r="B103" t="s">
-        <v>134</v>
+      <c r="B103" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C103" s="2">
-        <f>C104+C113+C114+C120+C121+C122+C123+C124</f>
-        <v>599053289</v>
+        <v>332239129</v>
       </c>
       <c r="D103" s="25"/>
     </row>
@@ -3428,10 +3398,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2">
-        <v>332239129</v>
+        <v>500000</v>
       </c>
       <c r="D104" s="25"/>
     </row>
@@ -3440,10 +3410,10 @@
         <v>99</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D105" s="25"/>
     </row>
@@ -3452,34 +3422,34 @@
         <v>99</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="D106" s="25"/>
+        <v>57486220</v>
+      </c>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>99</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2">
-        <v>57486220</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>250000000</v>
+      </c>
+      <c r="D107" s="25"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>99</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C108" s="2">
-        <v>250000000</v>
+        <v>16196279</v>
       </c>
       <c r="D108" s="25"/>
     </row>
@@ -3488,10 +3458,10 @@
         <v>99</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2">
-        <v>16196279</v>
+        <v>85000000</v>
       </c>
       <c r="D109" s="25"/>
     </row>
@@ -3500,10 +3470,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2">
-        <v>85000000</v>
+        <v>4684000</v>
       </c>
       <c r="D110" s="25"/>
     </row>
@@ -3512,10 +3482,10 @@
         <v>99</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C111" s="2">
-        <v>4684000</v>
+        <v>1287630</v>
       </c>
       <c r="D111" s="25"/>
     </row>
@@ -3524,22 +3494,21 @@
         <v>99</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2">
-        <v>1287630</v>
-      </c>
-      <c r="D112" s="25"/>
+        <v>81280000</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>99</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2">
-        <v>81280000</v>
+        <v>19030950</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,11 +3516,10 @@
         <v>99</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2">
-        <f>SUM(C115:C119)</f>
-        <v>19030950</v>
+        <v>1231900</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,10 +3527,10 @@
         <v>99</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2">
-        <v>1231900</v>
+        <v>10814050</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3570,10 +3538,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C116" s="2">
-        <v>10814050</v>
+        <v>3619500</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,10 +3549,10 @@
         <v>99</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C117" s="2">
-        <v>3619500</v>
+        <v>1651000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3592,10 +3560,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2">
-        <v>1651000</v>
+        <v>1714500</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3603,33 +3571,33 @@
         <v>99</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C119" s="2">
-        <v>1714500</v>
-      </c>
+        <v>151050000</v>
+      </c>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>99</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C120" s="2">
-        <v>151050000</v>
-      </c>
-      <c r="D120" s="6"/>
+        <v>939800</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>99</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" s="2">
-        <v>939800</v>
+        <v>2933060</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,10 +3605,10 @@
         <v>99</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C122" s="2">
-        <v>2933060</v>
+        <v>4379450</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3648,46 +3616,44 @@
         <v>99</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="2">
+        <v>7200900</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>99</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2618708402</v>
+      </c>
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>99</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C123" s="2">
-        <v>4379450</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>99</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" s="2">
-        <v>7200900</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>99</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" s="5">
-        <f>C126+C132+C135</f>
-        <v>2618708402</v>
-      </c>
-      <c r="E125" s="25"/>
+      <c r="C125" s="2">
+        <v>1003588402</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>99</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C126" s="2">
-        <f>C127+C128+C129+C130+C131</f>
-        <v>1003588402</v>
+        <v>533000000</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,10 +3661,10 @@
         <v>99</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C127" s="2">
-        <v>533000000</v>
+        <v>170000000</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,10 +3672,10 @@
         <v>99</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C128" s="2">
-        <v>170000000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,10 +3683,10 @@
         <v>99</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C129" s="2">
-        <v>45000000</v>
+        <v>110000000</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,10 +3694,10 @@
         <v>99</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C130" s="2">
-        <v>110000000</v>
+        <v>145588402</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,10 +3705,10 @@
         <v>99</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C131" s="2">
-        <v>145588402</v>
+        <v>787400000</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3750,11 +3716,10 @@
         <v>99</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C132" s="2">
-        <f>C133+C134</f>
-        <v>787400000</v>
+        <v>620000000</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,10 +3727,10 @@
         <v>99</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C133" s="2">
-        <v>620000000</v>
+        <v>167400000</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,10 +3738,10 @@
         <v>99</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C134" s="2">
-        <v>167400000</v>
+        <v>827720000</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,11 +3749,10 @@
         <v>99</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2">
-        <f>C136+C137+C138+C139+C140+C141+C142+C143</f>
-        <v>827720000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3796,10 +3760,10 @@
         <v>99</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C136" s="2">
-        <v>20000000</v>
+        <v>69000000</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,10 +3771,10 @@
         <v>99</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2">
-        <v>69000000</v>
+        <v>325000000</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,10 +3782,10 @@
         <v>99</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C138" s="2">
-        <v>325000000</v>
+        <v>173000000</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3829,10 +3793,10 @@
         <v>99</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C139" s="2">
-        <v>173000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3840,10 +3804,10 @@
         <v>99</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C140" s="2">
-        <v>15000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,10 +3815,10 @@
         <v>99</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C141" s="2">
-        <v>24000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,46 +3826,45 @@
         <v>99</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="2">
+        <v>171720000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>99</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1689100000</v>
+      </c>
+      <c r="E143" s="25"/>
+    </row>
+    <row r="144" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>99</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C142" s="2">
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
-        <v>99</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="2">
-        <v>171720000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
-        <v>99</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C144" s="5">
-        <f>C145+C148+C156</f>
-        <v>1689100000</v>
-      </c>
-      <c r="E144" s="25"/>
+      <c r="C144" s="13">
+        <v>376000000</v>
+      </c>
+      <c r="E144" s="11"/>
     </row>
     <row r="145" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>99</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C145" s="13">
-        <f>C146+C147</f>
-        <v>376000000</v>
+        <v>174</v>
+      </c>
+      <c r="C145" s="14">
+        <v>356000000</v>
       </c>
       <c r="E145" s="11"/>
     </row>
@@ -3910,35 +3873,36 @@
         <v>99</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C146" s="14">
-        <v>356000000</v>
+        <v>175</v>
+      </c>
+      <c r="C146" s="13">
+        <v>20000000</v>
       </c>
       <c r="E146" s="11"/>
     </row>
-    <row r="147" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>99</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C147" s="13">
-        <v>20000000</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C147" s="14">
+        <v>240000000</v>
+      </c>
+      <c r="D147" s="12"/>
       <c r="E147" s="11"/>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>99</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C148" s="14">
-        <f>SUM(C149:C155)</f>
-        <v>240000000</v>
+        <v>177</v>
+      </c>
+      <c r="C148" s="16">
+        <v>500000</v>
       </c>
       <c r="D148" s="12"/>
       <c r="E148" s="11"/>
@@ -3949,10 +3913,10 @@
         <v>99</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C149" s="16">
-        <v>500000</v>
+        <v>145000000</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="11"/>
@@ -3963,10 +3927,10 @@
         <v>99</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C150" s="16">
-        <v>145000000</v>
+        <v>179</v>
+      </c>
+      <c r="C150" s="17">
+        <v>50000000</v>
       </c>
       <c r="D150" s="12"/>
       <c r="E150" s="11"/>
@@ -3977,10 +3941,10 @@
         <v>99</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="17">
-        <v>50000000</v>
+        <v>180</v>
+      </c>
+      <c r="C151" s="16">
+        <v>7000000</v>
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="11"/>
@@ -3991,10 +3955,10 @@
         <v>99</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C152" s="16">
-        <v>7000000</v>
+        <v>4500000</v>
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="11"/>
@@ -4005,10 +3969,10 @@
         <v>99</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C153" s="16">
-        <v>4500000</v>
+        <v>17000000</v>
       </c>
       <c r="D153" s="12"/>
       <c r="E153" s="11"/>
@@ -4019,10 +3983,10 @@
         <v>99</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C154" s="16">
-        <v>17000000</v>
+        <v>16000000</v>
       </c>
       <c r="D154" s="12"/>
       <c r="E154" s="11"/>
@@ -4032,13 +3996,13 @@
       <c r="A155" s="9">
         <v>99</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>186</v>
+      <c r="B155" s="18" t="s">
+        <v>184</v>
       </c>
       <c r="C155" s="16">
-        <v>16000000</v>
-      </c>
-      <c r="D155" s="12"/>
+        <v>1073100000</v>
+      </c>
+      <c r="D155" s="11"/>
       <c r="E155" s="11"/>
       <c r="F155" s="12"/>
     </row>
@@ -4046,51 +4010,36 @@
       <c r="A156" s="9">
         <v>99</v>
       </c>
-      <c r="B156" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156" s="16">
-        <f>C157+C158</f>
-        <v>1073100000</v>
-      </c>
-      <c r="D156" s="11"/>
+      <c r="B156" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="14">
+        <v>400000000</v>
+      </c>
+      <c r="D156" s="12"/>
       <c r="E156" s="11"/>
       <c r="F156" s="12"/>
     </row>
-    <row r="157" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>99</v>
       </c>
-      <c r="B157" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C157" s="14">
-        <v>400000000</v>
-      </c>
-      <c r="D157" s="12"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="12"/>
+      <c r="B157" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="2">
+        <v>673100000</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
-        <v>99</v>
-      </c>
-      <c r="B158" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="2">
-        <v>673100000</v>
-      </c>
+      <c r="A158" s="9"/>
+      <c r="D158" s="11"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="D159" s="11"/>
+      <c r="A159"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4103,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CCF99-671C-466C-8EB9-A95C45EF2C45}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4167,7 +4116,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="28">
         <v>462309000</v>
@@ -4178,7 +4127,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="28">
         <v>5997600</v>
@@ -4189,7 +4138,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="28">
         <v>11939410</v>
@@ -4200,7 +4149,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" s="28">
         <v>99559800</v>
@@ -4222,7 +4171,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2">
         <v>59121800</v>
@@ -4233,7 +4182,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="2">
         <v>270785550</v>
@@ -4244,7 +4193,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2">
         <v>15282000</v>
@@ -4255,7 +4204,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2">
         <v>811600</v>
@@ -4266,7 +4215,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2">
         <v>119679000</v>
@@ -4288,7 +4237,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2">
         <v>100443284</v>
@@ -4299,7 +4248,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2">
         <v>154589000</v>
@@ -4310,7 +4259,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2">
         <v>53810320</v>
@@ -4321,7 +4270,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2">
         <v>137494427</v>
@@ -4442,7 +4391,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C31" s="2">
         <v>2285897273</v>
@@ -4519,7 +4468,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C38" s="2">
         <v>500000000</v>
@@ -4530,7 +4479,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C39" s="2">
         <v>46700000</v>
@@ -4541,7 +4490,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C40" s="2">
         <v>65000000</v>
@@ -4596,7 +4545,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C45" s="2">
         <v>5000000</v>
@@ -4607,7 +4556,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2">
         <v>400000</v>
@@ -4618,7 +4567,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2">
         <v>1310255998</v>
@@ -4629,7 +4578,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2">
         <v>968100000</v>
@@ -4640,7 +4589,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2">
         <v>200000000</v>
@@ -4651,7 +4600,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2">
         <v>142155998</v>
@@ -4662,7 +4611,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C51" s="2">
         <v>6712832403</v>
@@ -4673,7 +4622,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C52" s="2">
         <v>1994660000</v>
@@ -4684,7 +4633,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C53" s="2">
         <v>4718172403</v>
@@ -4695,7 +4644,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2">
         <v>6712832403</v>
@@ -4767,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
@@ -4781,172 +4730,172 @@
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="M2" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="N2" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="P2" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="AA2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AD2" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AG2" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AH2" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AI2" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AK2" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AL2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AM2" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AN2" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AT2" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AU2" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AV2" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AW2" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AX2" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="BA2" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="BB2" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="BC2" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="AY2" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
+      <c r="BD2" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BE2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BF2" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="BC2" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="BD2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="BE2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>366</v>
-      </c>
       <c r="BG2" s="29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -4954,7 +4903,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="32">
         <v>5103770263</v>
@@ -4965,7 +4914,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="32">
         <v>222768231</v>
@@ -4976,7 +4925,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="32">
         <v>189960800</v>
@@ -4987,7 +4936,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="32">
         <v>32807431</v>
@@ -4998,7 +4947,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="32">
         <v>2043364244</v>
@@ -5009,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="32">
         <v>1732037214</v>
@@ -5020,7 +4969,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="32">
         <v>16842828</v>
@@ -5031,7 +4980,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="32">
         <v>294484202</v>
@@ -5042,7 +4991,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="32">
         <v>640438866</v>
@@ -5053,7 +5002,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="32">
         <v>93243562</v>
@@ -5064,7 +5013,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="32">
         <v>79251341</v>
@@ -5075,7 +5024,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="32">
         <v>1000000</v>
@@ -5086,7 +5035,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="32">
         <v>12992221</v>
@@ -5097,7 +5046,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="32">
         <v>149693557</v>
@@ -5108,7 +5057,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="32">
         <v>125277036</v>
@@ -5119,7 +5068,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="32">
         <v>1734915</v>
@@ -5130,7 +5079,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="32">
         <v>22681606</v>
@@ -5141,7 +5090,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="32">
         <v>104072380</v>
@@ -5152,7 +5101,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="32">
         <v>89039212</v>
@@ -5163,7 +5112,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="32">
         <v>578000</v>
@@ -5174,7 +5123,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="32">
         <v>14455168</v>
@@ -5185,7 +5134,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="32">
         <v>149086199</v>
@@ -5196,7 +5145,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="32">
         <v>124929241</v>
@@ -5207,7 +5156,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="32">
         <v>1370000</v>
@@ -5218,7 +5167,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="32">
         <v>22786958</v>
@@ -5229,7 +5178,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="32">
         <v>144343168</v>
@@ -5240,7 +5189,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="32">
         <v>121478024</v>
@@ -5251,7 +5200,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="32">
         <v>1441000</v>
@@ -5262,7 +5211,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="32">
         <v>21424144</v>
@@ -5273,7 +5222,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="32">
         <v>1326100000</v>
@@ -5284,7 +5233,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="32">
         <v>1120587200</v>
@@ -5295,7 +5244,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="32">
         <v>17088000</v>
@@ -5306,7 +5255,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="32">
         <v>188424800</v>
@@ -5317,7 +5266,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="32">
         <v>42027890</v>
@@ -5328,7 +5277,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="32">
         <v>34811556</v>
@@ -5339,7 +5288,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="32">
         <v>1310000</v>
@@ -5350,7 +5299,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="32">
         <v>5906334</v>
@@ -5361,7 +5310,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="32">
         <v>300466210</v>
@@ -5372,7 +5321,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="32">
         <v>247951691</v>
@@ -5383,7 +5332,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="32">
         <v>6335400</v>
@@ -5394,7 +5343,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="32">
         <v>46179119</v>
@@ -5405,7 +5354,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C44" s="32">
         <v>223227098</v>
@@ -5416,7 +5365,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="32">
         <v>188228592</v>
@@ -5427,7 +5376,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="32">
         <v>1250000</v>
@@ -5438,7 +5387,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="32">
         <v>33748506</v>
@@ -5449,7 +5398,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="32">
         <v>305377724</v>
@@ -5460,7 +5409,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="32">
         <v>259300317</v>
@@ -5471,7 +5420,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="32">
         <v>250000</v>
@@ -5482,7 +5431,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="32">
         <v>45827407</v>
@@ -5493,7 +5442,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="32">
         <v>5554643775</v>
@@ -5504,7 +5453,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="32">
         <v>4603346824</v>
@@ -5515,7 +5464,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" s="33">
         <v>40477590</v>
@@ -5526,7 +5475,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="33">
         <v>62775000</v>
@@ -5537,7 +5486,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="33">
         <v>3171066602</v>
@@ -5548,7 +5497,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C57" s="33">
         <v>64100000</v>
@@ -5559,7 +5508,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="33">
         <v>1264927632</v>
@@ -5570,7 +5519,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C59" s="32">
         <v>365086335</v>
@@ -5581,7 +5530,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C60" s="32">
         <v>36000000</v>
@@ -5592,7 +5541,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C61" s="32">
         <v>47360000</v>
@@ -5603,7 +5552,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C62" s="32">
         <v>195455450</v>
@@ -5614,7 +5563,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C63" s="32">
         <v>0</v>
@@ -5625,7 +5574,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C64" s="32">
         <v>86270885</v>
@@ -5636,7 +5585,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="32">
         <v>78107500</v>
@@ -5647,7 +5596,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="32">
         <v>10205750</v>
@@ -5658,7 +5607,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="32">
         <v>18945750</v>
@@ -5669,7 +5618,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="32">
         <v>14116750</v>
@@ -5680,7 +5629,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="32">
         <v>15148150</v>
@@ -5691,7 +5640,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="32">
         <v>19691100</v>
@@ -5702,7 +5651,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="32">
         <v>294000000</v>
@@ -5713,7 +5662,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="32">
         <v>13207980</v>
@@ -5724,7 +5673,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="32">
         <v>103891480</v>
@@ -5735,7 +5684,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="32">
         <v>40623646</v>
@@ -5746,7 +5695,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="32">
         <v>56380010</v>
@@ -5757,7 +5706,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="32">
         <v>408568000</v>
@@ -5768,7 +5717,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C77" s="32">
         <v>126544000</v>
@@ -5779,7 +5728,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C78" s="32">
         <v>35000000</v>
@@ -5790,7 +5739,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C79" s="32">
         <v>7824000</v>
@@ -5801,7 +5750,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C80" s="32">
         <v>40000000</v>
@@ -5812,7 +5761,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C81" s="32">
         <v>1000000</v>
@@ -5823,7 +5772,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C82" s="32">
         <v>720000</v>
@@ -5834,7 +5783,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C83" s="32">
         <v>40000000</v>
@@ -5845,7 +5794,7 @@
         <v>99</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C84" s="32">
         <v>2000000</v>
@@ -5856,7 +5805,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C85" s="32">
         <v>282024000</v>
@@ -5867,7 +5816,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C86" s="32">
         <v>50000000</v>
@@ -5878,7 +5827,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C87" s="32">
         <v>2000000</v>
@@ -5889,7 +5838,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C88" s="32">
         <v>12000000</v>
@@ -5900,7 +5849,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C89" s="32">
         <v>3000000</v>
@@ -5911,7 +5860,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C90" s="32">
         <v>80000000</v>
@@ -5922,7 +5871,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C91" s="32">
         <v>22500000</v>
@@ -5933,7 +5882,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C92" s="32">
         <v>8000000</v>
@@ -5944,7 +5893,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C93" s="32">
         <v>500000</v>
@@ -5955,7 +5904,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C94" s="32">
         <v>22500000</v>
@@ -5966,7 +5915,7 @@
         <v>99</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C95" s="32">
         <v>4250000</v>
@@ -5977,7 +5926,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C96" s="32">
         <v>1000000</v>
@@ -5988,7 +5937,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C97" s="32">
         <v>10000000</v>
@@ -5999,7 +5948,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C98" s="32">
         <v>66274000</v>
@@ -6010,7 +5959,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="32">
         <v>2706803035</v>
@@ -6021,7 +5970,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C100" s="32">
         <v>743201757</v>
@@ -6032,7 +5981,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C101" s="32">
         <v>41800000</v>
@@ -6043,7 +5992,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C102" s="32">
         <v>40000000</v>
@@ -6054,7 +6003,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C103" s="32">
         <v>1800000</v>
@@ -6065,7 +6014,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C104" s="32">
         <v>874501278</v>
@@ -6076,7 +6025,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C105" s="32">
         <v>40000000</v>
@@ -6087,7 +6036,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C106" s="32">
         <v>67100000</v>
@@ -6098,7 +6047,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C107" s="32">
         <v>17000000</v>
@@ -6109,7 +6058,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C108" s="32">
         <v>2400000</v>
@@ -6120,7 +6069,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C109" s="32">
         <v>32000000</v>
@@ -6131,7 +6080,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C110" s="32">
         <v>2500000</v>
@@ -6142,7 +6091,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C111" s="32">
         <v>6000000</v>
@@ -6153,7 +6102,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C112" s="32">
         <v>2100000</v>
@@ -6164,7 +6113,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C113" s="32">
         <v>3000000</v>
@@ -6175,7 +6124,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C114" s="32">
         <v>100000</v>
@@ -6186,7 +6135,7 @@
         <v>99</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C115" s="32">
         <v>2000000</v>
@@ -6197,7 +6146,7 @@
         <v>99</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C116" s="32">
         <v>10500000</v>
@@ -6208,7 +6157,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C117" s="32">
         <v>500000</v>
@@ -6219,7 +6168,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C118" s="32">
         <v>500000</v>
@@ -6230,7 +6179,7 @@
         <v>99</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C119" s="32">
         <v>500000</v>
@@ -6241,7 +6190,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C120" s="32">
         <v>500000</v>
@@ -6252,7 +6201,7 @@
         <v>99</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C121" s="32">
         <v>500000</v>
@@ -6263,7 +6212,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C122" s="32">
         <v>500000</v>
@@ -6274,7 +6223,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C123" s="32">
         <v>4000000</v>
@@ -6285,7 +6234,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C124" s="32">
         <v>1000000</v>
@@ -6296,7 +6245,7 @@
         <v>99</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C125" s="32">
         <v>2000000</v>
@@ -6307,7 +6256,7 @@
         <v>99</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C126" s="32">
         <v>500000</v>
@@ -6318,7 +6267,7 @@
         <v>99</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C127" s="32">
         <v>17000000</v>
@@ -6329,7 +6278,7 @@
         <v>99</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C128" s="32">
         <v>739901278</v>
@@ -6340,7 +6289,7 @@
         <v>99</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C129" s="32">
         <v>211901278</v>
@@ -6351,7 +6300,7 @@
         <v>99</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C130" s="2">
         <v>528000000</v>
@@ -6362,7 +6311,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C131" s="32">
         <v>1047300000</v>
@@ -6373,7 +6322,7 @@
         <v>99</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C132" s="32">
         <v>100000000</v>
@@ -6384,7 +6333,7 @@
         <v>99</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C133" s="32">
         <v>947300000</v>
@@ -6395,7 +6344,7 @@
         <v>99</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C134" s="2">
         <v>1301841058</v>
@@ -6406,7 +6355,7 @@
         <v>99</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2">
         <v>1081323148</v>
@@ -6417,7 +6366,7 @@
         <v>99</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2">
         <v>1287400</v>
@@ -6428,7 +6377,7 @@
         <v>99</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C137" s="2">
         <v>2000000</v>
@@ -6439,7 +6388,7 @@
         <v>99</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C138" s="2">
         <v>333345000</v>
@@ -6450,7 +6399,7 @@
         <v>99</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C139" s="2">
         <v>653800000</v>
@@ -6461,7 +6410,7 @@
         <v>99</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C140" s="2">
         <v>90890748</v>
@@ -6472,7 +6421,7 @@
         <v>99</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C141" s="2">
         <v>5224780</v>
@@ -6483,7 +6432,7 @@
         <v>99</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C142" s="32">
         <v>81280000</v>
@@ -6494,7 +6443,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C143" s="32">
         <v>16192500</v>
@@ -6505,7 +6454,7 @@
         <v>99</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C144" s="32">
         <v>94791110</v>
@@ -6516,7 +6465,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C145" s="32">
         <v>811685</v>
@@ -6527,7 +6476,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C146" s="32">
         <v>2325388</v>
@@ -6538,7 +6487,7 @@
         <v>99</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C147" s="32">
         <v>16946047</v>
@@ -6549,7 +6498,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C148" s="32">
         <v>2946400</v>
@@ -6560,7 +6509,7 @@
         <v>99</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C149" s="2">
         <v>3585732832</v>
@@ -6571,7 +6520,7 @@
         <v>99</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C150" s="2">
         <v>330962000</v>
@@ -6582,7 +6531,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C151" s="2">
         <v>65000000</v>
@@ -6593,7 +6542,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C152" s="2">
         <v>100000000</v>
@@ -6604,7 +6553,7 @@
         <v>99</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C153" s="2">
         <v>25000000</v>
@@ -6615,7 +6564,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C154" s="2">
         <v>70600000</v>
@@ -6626,7 +6575,7 @@
         <v>99</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C155" s="2">
         <v>70362000</v>
@@ -6637,7 +6586,7 @@
         <v>99</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2">
         <v>796290000</v>
@@ -6648,7 +6597,7 @@
         <v>99</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C157" s="2">
         <v>613000000</v>
@@ -6659,7 +6608,7 @@
         <v>99</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C158" s="2">
         <v>5000000</v>
@@ -6670,7 +6619,7 @@
         <v>99</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C159" s="2">
         <v>9000000</v>
@@ -6681,7 +6630,7 @@
         <v>99</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C160" s="2">
         <v>169290000</v>
@@ -6692,7 +6641,7 @@
         <v>99</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C161" s="2">
         <v>648063647</v>
@@ -6703,7 +6652,7 @@
         <v>99</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C162" s="2">
         <v>20000000</v>
@@ -6714,7 +6663,7 @@
         <v>99</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C163" s="2">
         <v>20000000</v>
@@ -6725,7 +6674,7 @@
         <v>99</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C164" s="2">
         <v>120000000</v>
@@ -6736,7 +6685,7 @@
         <v>99</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C165" s="2">
         <v>60000000</v>
@@ -6747,7 +6696,7 @@
         <v>99</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C166" s="2">
         <v>265000000</v>
@@ -6758,7 +6707,7 @@
         <v>99</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C167" s="2">
         <v>110000000</v>
@@ -6769,7 +6718,7 @@
         <v>99</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C168" s="2">
         <v>19000000</v>
@@ -6780,7 +6729,7 @@
         <v>99</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C169" s="2">
         <v>34063647</v>
@@ -6791,7 +6740,7 @@
         <v>99</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C170" s="2">
         <v>1292000000</v>
@@ -6802,7 +6751,7 @@
         <v>99</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C171" s="2">
         <v>510000000</v>
@@ -6813,7 +6762,7 @@
         <v>99</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C172" s="2">
         <v>50000000</v>
@@ -6824,7 +6773,7 @@
         <v>99</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C173" s="2">
         <v>6000000</v>
@@ -6835,7 +6784,7 @@
         <v>99</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C174" s="2">
         <v>5000000</v>
@@ -6846,7 +6795,7 @@
         <v>99</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C175" s="2">
         <v>15000000</v>
@@ -6857,7 +6806,7 @@
         <v>99</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C176" s="2">
         <v>46000000</v>
@@ -6868,7 +6817,7 @@
         <v>99</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C177" s="2">
         <v>400000000</v>
@@ -6879,7 +6828,7 @@
         <v>99</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C178" s="2">
         <v>5000000</v>
@@ -6890,7 +6839,7 @@
         <v>99</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C179" s="2">
         <v>30000000</v>
@@ -6901,7 +6850,7 @@
         <v>99</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C180" s="2">
         <v>50000000</v>
@@ -6912,7 +6861,7 @@
         <v>99</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C181" s="2">
         <v>15000000</v>
@@ -6923,7 +6872,7 @@
         <v>99</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C182" s="2">
         <v>160000000</v>
@@ -6934,7 +6883,7 @@
         <v>99</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C183" s="2">
         <v>518417185</v>
@@ -6945,7 +6894,7 @@
         <v>99</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C184" s="2">
         <v>812243942</v>
@@ -6956,7 +6905,7 @@
         <v>99</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C185" s="2">
         <v>355500000</v>
@@ -6967,7 +6916,7 @@
         <v>99</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C186" s="2">
         <v>345500000</v>
@@ -6978,7 +6927,7 @@
         <v>99</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C187" s="2">
         <v>10000000</v>
@@ -6989,7 +6938,7 @@
         <v>99</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C188" s="2">
         <v>226743942</v>
@@ -7000,7 +6949,7 @@
         <v>99</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C189" s="34">
         <v>500000</v>
@@ -7011,7 +6960,7 @@
         <v>99</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C190" s="34">
         <v>145000000</v>
@@ -7022,7 +6971,7 @@
         <v>99</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C191" s="35">
         <v>30000000</v>
@@ -7033,7 +6982,7 @@
         <v>99</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C192" s="34">
         <v>5243942</v>
@@ -7044,7 +6993,7 @@
         <v>99</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C193" s="34">
         <v>15000000</v>
@@ -7055,7 +7004,7 @@
         <v>99</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C194" s="34">
         <v>10000000</v>
@@ -7066,7 +7015,7 @@
         <v>99</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C195" s="34">
         <v>5000000</v>
@@ -7077,7 +7026,7 @@
         <v>99</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C196" s="34">
         <v>5000000</v>
@@ -7088,7 +7037,7 @@
         <v>99</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C197" s="34">
         <v>3000000</v>
@@ -7099,7 +7048,7 @@
         <v>99</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C198" s="34">
         <v>8000000</v>
@@ -7110,7 +7059,7 @@
         <v>99</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C199" s="34">
         <v>30000000</v>
@@ -7121,7 +7070,7 @@
         <v>99</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C200" s="34">
         <v>30000000</v>
@@ -7132,7 +7081,7 @@
         <v>99</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C201" s="34">
         <v>200000000</v>
@@ -7143,7 +7092,7 @@
         <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C202" s="2">
         <v>19473602905</v>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/TERÉZVÁROS_KÖKÖ/2021_budget_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{581F29AE-9E7C-4200-89DA-2A6F51B3F210}"/>
+  <xr:revisionPtr revIDLastSave="1038" documentId="8_{E24534E0-E60B-4E45-949D-D5E79B4883FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BA3BEBB-DFAD-4105-814D-D63F6D0B4F85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{501F2212-62D4-412E-9A6C-EB2F87D26B78}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="384">
   <si>
     <t>Megnevezés</t>
   </si>
@@ -110,15 +110,6 @@
     <t>Parkolási bevétel a fővárosi területeken (B3301)</t>
   </si>
   <si>
-    <t>Helyiség bérleti díj bevétel (B3302)</t>
-  </si>
-  <si>
-    <t>Lakásbérleti díj bevétel (B3303)</t>
-  </si>
-  <si>
-    <t>Közterület használati díjból származó bevétel (B3304)</t>
-  </si>
-  <si>
     <t>Haszonbérlet és egyéb parkolási bevétel (B3305)</t>
   </si>
   <si>
@@ -356,9 +347,6 @@
     <t>Terézvárosi Család- és Gyermekjóléti Központ költségvetéséből folyósított pénzbeli juttatások (K34)</t>
   </si>
   <si>
-    <t>Egyéb működési célú kiadások  (K4)</t>
-  </si>
-  <si>
     <t>Egyéb működési célú támogatás államháztartáson kívülre (K42)</t>
   </si>
   <si>
@@ -392,9 +380,6 @@
     <t>Szinyei Merse Pál Alapítvány (K420406)</t>
   </si>
   <si>
-    <t>Máltai Szeretetszolgálat  (K420407)</t>
-  </si>
-  <si>
     <t>Fehér Kereszt Baráti Kör Egyesület (K420408)</t>
   </si>
   <si>
@@ -419,9 +404,6 @@
     <t>BRFK Térfigyelő rendszerrel és a járőrszolgálattal kapcsolatos feladatok (K4301)</t>
   </si>
   <si>
-    <t>Könyvtárak támogatása  (K4302)</t>
-  </si>
-  <si>
     <t>Tartalékok (K44)</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>Egyéb tárgyi eszközök beszerzése, létesítése (K5103)</t>
   </si>
   <si>
-    <t>Ingatlan vásárlás (K5104)</t>
-  </si>
-  <si>
     <t>Beruházási célú előzetesen felszámított le nem vonható ÁFA (K5105)</t>
   </si>
   <si>
@@ -506,9 +485,6 @@
     <t>Patrona óvoda bővítése, felújítása (K6101)</t>
   </si>
   <si>
-    <t>Játérvár óvoda udvarfelújítás (K6102)</t>
-  </si>
-  <si>
     <t>Tóth Aladár Zeneiskola fűtés korszerűsítése (K6103)</t>
   </si>
   <si>
@@ -521,9 +497,6 @@
     <t>Egészségügyi intézmények felújításai (K62)</t>
   </si>
   <si>
-    <t>Terézvárosi Egészségügyi Szolgálat épület felújítás (K6201)</t>
-  </si>
-  <si>
     <t>ÁFA (K6202)</t>
   </si>
   <si>
@@ -542,15 +515,9 @@
     <t>15 db üres lakás felújítása (K6304)</t>
   </si>
   <si>
-    <t>Podmaniczky utcai kutyafuttató felújítása, (K6305)</t>
-  </si>
-  <si>
     <t>Paulay-Hegedűs-Liszt F. közötti szakasz út- és járda építése (K6306)</t>
   </si>
   <si>
-    <t>Forgalombiztonsági építmények, eszközök létesítése  (K6307)</t>
-  </si>
-  <si>
     <t>ÁFA (K6308)</t>
   </si>
   <si>
@@ -575,21 +542,9 @@
     <t>Vissza nem térítendő társasházi pályázat (K7202)</t>
   </si>
   <si>
-    <t>Magánszemély kéménybélelés vissza nem térítendő támogatása (K7203)</t>
-  </si>
-  <si>
-    <t>Társasházi zöldfelület fejlesztés pályázat (K7204)</t>
-  </si>
-  <si>
-    <t>TVR rendelet örökségvédelem (K7205)</t>
-  </si>
-  <si>
     <t>Egyéb felhalmozási kiadások egyházak részére (K7206)</t>
   </si>
   <si>
-    <t>Terézvárosi Foglalkoztatást elősegítő Nonprofit Kft. (K7207)</t>
-  </si>
-  <si>
     <t>Felhalmozási céltartalék (K73)</t>
   </si>
   <si>
@@ -602,9 +557,6 @@
     <t>2021 BEVÉTEL</t>
   </si>
   <si>
-    <t>Önkormányzati Hivatal működésének támogatása  (B110101)</t>
-  </si>
-  <si>
     <t>Településüzemeltetés - zöldterület-gazdálkodás támogatása (B110102)</t>
   </si>
   <si>
@@ -617,18 +569,12 @@
     <t>Óvodaműködtetési támogatás (B110201)</t>
   </si>
   <si>
-    <t>Az Óvodában foglalkoztatott pedagógusok átlagbéralapú támogatása (B110202)</t>
-  </si>
-  <si>
     <t>Kiegészítő támogatás a pedagógusok és a pedagógus szakképzettséggel rendelkező segítők minősítéséből adódó többletkiadásokhoz (B110203)</t>
   </si>
   <si>
     <t>Nemzetiségi pótlék (B110204)</t>
   </si>
   <si>
-    <t>Az óvodában foglalkoztatott pedagógusok nevelőmunkáját közvetlenül segítők átlagbéralapú támogatása (B110205)</t>
-  </si>
-  <si>
     <t>Egyes szociális és gyermekjóléti feladatok támogatása (B110301)</t>
   </si>
   <si>
@@ -683,9 +629,6 @@
     <t>Lakhatási támogatás (K3103)</t>
   </si>
   <si>
-    <t>Hátralékkiegyenlítő támogatás              (K3104)</t>
-  </si>
-  <si>
     <t>Hátralékkiegyenlítő támogatáshoz nyújtott lakhatási támogatás (K3105)</t>
   </si>
   <si>
@@ -716,18 +659,9 @@
     <t>Egyszeri természetbeni juttatásként (K3206)</t>
   </si>
   <si>
-    <t>Méltányossági segély  (K3207)</t>
-  </si>
-  <si>
     <t>Rendkívüli bérletidíj-támogatás (K3208)</t>
   </si>
   <si>
-    <t>Lakás-felújítási támogatás (K3209)</t>
-  </si>
-  <si>
-    <t>Fiatalok életkezdési támogatás (K3210)</t>
-  </si>
-  <si>
     <t>Mosható nadrágpelenka támogatás (K3211)</t>
   </si>
   <si>
@@ -746,9 +680,6 @@
     <t>BRFK Térfigyelő rendszerrel és a járőrszolgálattal kapcsolatos feladatok (K4201)</t>
   </si>
   <si>
-    <t>Könyvtárak támogatása  (K4202)</t>
-  </si>
-  <si>
     <t>Egyéb működési célú támogatás államháztartáson kívülre (K43)</t>
   </si>
   <si>
@@ -806,9 +737,6 @@
     <t>Szinyei Merse Pál Alapítvány (K430306)</t>
   </si>
   <si>
-    <t>Máltai Szeretetszolgálat  (K430307)</t>
-  </si>
-  <si>
     <t>Fehér Kereszt Baráti Kör Egyesület (K430308)</t>
   </si>
   <si>
@@ -854,15 +782,9 @@
     <t>Terézvárosi Egyesített Bölcsődék beruházásai (K59)</t>
   </si>
   <si>
-    <t>Játékvár óvoda (Lendvay u. 24.) udvarfelújítás (K6101)</t>
-  </si>
-  <si>
     <t>Tóth Aladár Zeneiskola (Szív utca 19-21.) homlokzatfelújítás (K6102)</t>
   </si>
   <si>
-    <t>Bajza utcai általános iskola tanuszodájának fűtéskorszerűsítése (K6103)</t>
-  </si>
-  <si>
     <t>Szinyei Merse Pál Gimnázium homlokzatfelújítás (K6104)</t>
   </si>
   <si>
@@ -899,18 +821,12 @@
     <t>Jókai tér felújítása (K6401)</t>
   </si>
   <si>
-    <t>Gyalogos aluljáró felújítása, Bajza - Búlcsú utcai aluljáró  (K6402)</t>
-  </si>
-  <si>
     <t>Bulcsú utcai aluljáró melletti zöldfelületek felújítása (K6403)</t>
   </si>
   <si>
     <t>Podmaniczky utcai  hulladéksziget áthelyezése (K6404)</t>
   </si>
   <si>
-    <t>Kutyafuttató felújítás (K6405)</t>
-  </si>
-  <si>
     <t>Benczúr utcai zöldsáv kialakítás (K6406)</t>
   </si>
   <si>
@@ -929,18 +845,9 @@
     <t>Közvilágítás kialakítása (K6411)</t>
   </si>
   <si>
-    <t>Térfigyelő kamerarendszer telepítése (K6412)</t>
-  </si>
-  <si>
     <t>Épületek, közterek felújításának ÁFA-ja (K65)</t>
   </si>
   <si>
-    <t>Társasházi zöldfelület fejlesztés pályázat áthúzódó része (K7204)</t>
-  </si>
-  <si>
-    <t>Társasházi zöldfelület fejlesztés új pályázat (K7205)</t>
-  </si>
-  <si>
     <t>Nyílászárók korszerűsítése (K7206)</t>
   </si>
   <si>
@@ -953,15 +860,9 @@
     <t>Társasházi kerékpártároló (K7209)</t>
   </si>
   <si>
-    <t>Terézvárosi Foglalkoztatást elősegítő Nonprofit Kft. (K7210)</t>
-  </si>
-  <si>
     <t>Egyéb felhalmozási célú támogatások államháztartáson belülre (K73)</t>
   </si>
   <si>
-    <t>BRKF támogatása (K7301)</t>
-  </si>
-  <si>
     <t>Felhalmozási céltartalék (K74)</t>
   </si>
   <si>
@@ -992,9 +893,6 @@
     <t>104042 Család-és Gyermekjóléti Szolgálat</t>
   </si>
   <si>
-    <t>104043 Család-és Gyermekjóléti Központ (központ)</t>
-  </si>
-  <si>
     <t>104043 Család-és gyermekjóléti Központ (iskolai szociális munka)</t>
   </si>
   <si>
@@ -1031,9 +929,6 @@
     <t>074011 Foglalkoztatás- egészségügyi szolgáltatás</t>
   </si>
   <si>
-    <t>074031 Család-és nővédelmi egészségügyi gondozás</t>
-  </si>
-  <si>
     <t>074032 Ifjúság-és egészségügyi gondozás</t>
   </si>
   <si>
@@ -1046,9 +941,6 @@
     <t>104031 Gyermekek bőlcsödében és mini bőlcsödében</t>
   </si>
   <si>
-    <t>104035 Gyermekétkeztetés bőlcsödében,fogyatékosok nappali intézményében</t>
-  </si>
-  <si>
     <t>104036 Munkahelyi étkeztetés gyermekek napközbeni ellátását biztosító intézményben (bölcsöde)</t>
   </si>
   <si>
@@ -1175,20 +1067,134 @@
     <t>Kiküldetés (K2104)</t>
   </si>
   <si>
-    <t>Kiküldetés (K2204)</t>
-  </si>
-  <si>
     <t>Finanszírozási bevétel - maradvány, értékpapírok beváltása (FT1)</t>
   </si>
   <si>
-    <t>Finanszírozási bevétel - maradvány (FT1)</t>
+    <t>104035 Gyermekétkeztetés bölcsődében,fogyatékosok nappali intézményében</t>
+  </si>
+  <si>
+    <t>104043 Család-és Gyermekjóléti Központ</t>
+  </si>
+  <si>
+    <t>074031 Család- és nővédelmi egészségügyi gondozás</t>
+  </si>
+  <si>
+    <t>Polgármesteri hivatal működésének támogatása (B110101)</t>
+  </si>
+  <si>
+    <t>Az óvodákban foglalkoztatott pedagógusok átlagbéralapú támogatása (B110202)</t>
+  </si>
+  <si>
+    <t>Az óvodákban foglalkoztatott pedagógusok nevelőmunkáját közvetlenül segítők átlagbéralapú támogatása (B110205)</t>
+  </si>
+  <si>
+    <t>Helyiségbérletidíj-bevétel (B3302)</t>
+  </si>
+  <si>
+    <t>Lakásbérletidíj-bevétel (B3303)</t>
+  </si>
+  <si>
+    <t>Kiküldetés, reklám (K2204)</t>
+  </si>
+  <si>
+    <t>Hátralékkiegyenlítő támogatás (K3104)</t>
+  </si>
+  <si>
+    <t>Méltányossági segély (K3207)</t>
+  </si>
+  <si>
+    <t>Lakásfelújítási támogatás (K3209)</t>
+  </si>
+  <si>
+    <t>Fiatalok életkezdési támogatása (K3210)</t>
+  </si>
+  <si>
+    <t>Egyéb működési célú kiadások (K4)</t>
+  </si>
+  <si>
+    <t>Könyvtárak támogatása (K4202)</t>
+  </si>
+  <si>
+    <t>Máltai Szeretetszolgálat (K430307)</t>
+  </si>
+  <si>
+    <t>Ingatlanvásárlás (K5104)</t>
+  </si>
+  <si>
+    <t>Játékvár óvoda (Lendvay u. ) udvarfelújítás (K6101)</t>
+  </si>
+  <si>
+    <t>Bajza Utcai Általános Iskola tanuszodájának fűtéskorszerűsítése (K6103)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Egészségügyi Szolgálat épületfelújítás (K6201)</t>
+  </si>
+  <si>
+    <t>Gyalogos aluljáró felújítása, Bajza - Búlcsú utcai aluljáró (K6402)</t>
+  </si>
+  <si>
+    <t>Kutyafuttató-felújítás (K6405)</t>
+  </si>
+  <si>
+    <t>Térfigyelőkamera-rendszer telepítése (K6412)</t>
+  </si>
+  <si>
+    <t>Kéménybélelés vissza nem térítendő támogatása magánszemélyeknek (K7203)</t>
+  </si>
+  <si>
+    <t>Társasházi zöldfelület-fejlesztés (pályázat áthúzódó része) (K7204)</t>
+  </si>
+  <si>
+    <t>Társasházi zöldfelület-fejlesztés (új pályázat) (K7205)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Foglalkoztatást Elősegítő Nonprofit Kft. (K7210)</t>
+  </si>
+  <si>
+    <t>BRFK támogatása (K7301)</t>
+  </si>
+  <si>
+    <t>Helyiségbérleti-díj bevétel (B3302)</t>
+  </si>
+  <si>
+    <t>Lakásbérleti-díj bevétel (B3303)</t>
+  </si>
+  <si>
+    <t>Közterülethasználati díjból származó bevétel (B3304)</t>
+  </si>
+  <si>
+    <t>Finanszírozási többlet (maradvány) (FT1)</t>
+  </si>
+  <si>
+    <t>Máltai Szeretetszolgálat (K420407)</t>
+  </si>
+  <si>
+    <t>Könyvtárak támogatása (K4302)</t>
+  </si>
+  <si>
+    <t>Játékvár óvoda udvarfelújítás (K6102)</t>
+  </si>
+  <si>
+    <t>Podmaniczky utcai kutyafuttató felújítása (K6305)</t>
+  </si>
+  <si>
+    <t>Forgalombiztonsági építmények, eszközök létesítése (K6307)</t>
+  </si>
+  <si>
+    <t>Társasházi zöldfelület-fejlesztés pályázat (K7204)</t>
+  </si>
+  <si>
+    <t>TVR-rendelet örökségvédelem (K7205)</t>
+  </si>
+  <si>
+    <t>Terézvárosi Foglalkoztatást Elősegítő Nonprofit Kft. (K7207)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,6 +1256,12 @@
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1271,7 +1283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1330,6 +1342,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1646,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96FAB4C5-B3A4-426F-A8BC-E577AEC02B08}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1879,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C18" s="2">
         <v>3779214700</v>
@@ -1922,7 +1935,7 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>372</v>
       </c>
       <c r="C23" s="2">
         <v>541100000</v>
@@ -1934,7 +1947,7 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="C24" s="2">
         <v>130000000</v>
@@ -1946,7 +1959,7 @@
         <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="C25" s="2">
         <v>468000000</v>
@@ -1957,7 +1970,7 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
         <v>607302000</v>
@@ -1968,7 +1981,7 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>64000000</v>
@@ -1979,7 +1992,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>59000000</v>
@@ -1990,7 +2003,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
         <v>95250000</v>
@@ -2001,7 +2014,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2">
         <v>609741700</v>
@@ -2012,7 +2025,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
         <v>605361000</v>
@@ -2023,7 +2036,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2">
         <v>33000000</v>
@@ -2034,7 +2047,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2">
         <v>400000</v>
@@ -2045,7 +2058,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2">
         <v>1060817431</v>
@@ -2056,7 +2069,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2">
         <v>200000000</v>
@@ -2067,7 +2080,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2">
         <v>710636000</v>
@@ -2078,7 +2091,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2">
         <v>150181431</v>
@@ -2089,7 +2102,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="C38" s="2">
         <v>2826252158</v>
@@ -2100,7 +2113,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C39" s="2">
         <v>2826252158</v>
@@ -2123,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76BAFE8-6BF8-4E8A-B864-E53778D2F9B3}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2175,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>4487046138</v>
@@ -2175,7 +2188,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7">
         <v>259668182</v>
@@ -2187,7 +2200,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>217908168</v>
@@ -2199,7 +2212,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
         <v>41760014</v>
@@ -2211,7 +2224,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>1871508962</v>
@@ -2223,7 +2236,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7">
         <v>1538081462</v>
@@ -2235,7 +2248,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7">
         <v>21615392</v>
@@ -2247,7 +2260,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>311812108</v>
@@ -2259,7 +2272,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="7">
         <v>630500054</v>
@@ -2271,7 +2284,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>93616705</v>
@@ -2283,7 +2296,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7">
         <v>77428849</v>
@@ -2295,7 +2308,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>900000</v>
@@ -2307,7 +2320,7 @@
         <v>99</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7">
         <v>15287856</v>
@@ -2319,7 +2332,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7">
         <v>147266114</v>
@@ -2331,7 +2344,7 @@
         <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>117364155</v>
@@ -2343,7 +2356,7 @@
         <v>99</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7">
         <v>3977000</v>
@@ -2355,7 +2368,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7">
         <v>25924959</v>
@@ -2367,7 +2380,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>101268754</v>
@@ -2379,7 +2392,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="7">
         <v>83957303</v>
@@ -2391,7 +2404,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>770000</v>
@@ -2403,7 +2416,7 @@
         <v>99</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7">
         <v>16541451</v>
@@ -2415,7 +2428,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="7">
         <v>147733184</v>
@@ -2427,7 +2440,7 @@
         <v>99</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="7">
         <v>119592948</v>
@@ -2439,7 +2452,7 @@
         <v>99</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7">
         <v>1870000</v>
@@ -2451,7 +2464,7 @@
         <v>99</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7">
         <v>26270236</v>
@@ -2463,7 +2476,7 @@
         <v>99</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7">
         <v>140615297</v>
@@ -2475,7 +2488,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7">
         <v>113855057</v>
@@ -2487,7 +2500,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7">
         <v>2490000</v>
@@ -2499,7 +2512,7 @@
         <v>99</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7">
         <v>24270240</v>
@@ -2511,7 +2524,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7">
         <v>896843000</v>
@@ -2523,7 +2536,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="7">
         <v>673123300</v>
@@ -2535,7 +2548,7 @@
         <v>99</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="7">
         <v>82875200</v>
@@ -2547,7 +2560,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="7">
         <v>140844500</v>
@@ -2559,7 +2572,7 @@
         <v>99</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7">
         <v>45451049</v>
@@ -2571,7 +2584,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="7">
         <v>36680461</v>
@@ -2583,7 +2596,7 @@
         <v>99</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="7">
         <v>1310000</v>
@@ -2595,7 +2608,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="7">
         <v>7460588</v>
@@ -2607,7 +2620,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="7">
         <v>296456264</v>
@@ -2619,7 +2632,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7">
         <v>237656627</v>
@@ -2631,7 +2644,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="7">
         <v>5764400</v>
@@ -2643,7 +2656,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7">
         <v>53035237</v>
@@ -2655,7 +2668,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7">
         <v>216655982</v>
@@ -2667,7 +2680,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7">
         <v>177302965</v>
@@ -2679,7 +2692,7 @@
         <v>99</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" s="7">
         <v>1250000</v>
@@ -2691,7 +2704,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7">
         <v>38103017</v>
@@ -2703,7 +2716,7 @@
         <v>99</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7">
         <v>269962645</v>
@@ -2715,7 +2728,7 @@
         <v>99</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7">
         <v>222010984</v>
@@ -2727,7 +2740,7 @@
         <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="7">
         <v>250000</v>
@@ -2739,7 +2752,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" s="7">
         <v>47701661</v>
@@ -2751,7 +2764,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="7">
         <v>6219752943</v>
@@ -2763,7 +2776,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7">
         <v>5287267089</v>
@@ -2775,7 +2788,7 @@
         <v>99</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C54" s="23">
         <v>29970956</v>
@@ -2787,7 +2800,7 @@
         <v>99</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C55" s="23">
         <v>58065000</v>
@@ -2799,7 +2812,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" s="23">
         <v>3451726392</v>
@@ -2811,7 +2824,7 @@
         <v>99</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C57" s="23">
         <v>91132500</v>
@@ -2823,7 +2836,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C58" s="23">
         <v>1656372241</v>
@@ -2835,7 +2848,7 @@
         <v>99</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7">
         <v>370941077</v>
@@ -2847,7 +2860,7 @@
         <v>99</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C60" s="7">
         <v>80168400</v>
@@ -2859,7 +2872,7 @@
         <v>99</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7">
         <v>10881300</v>
@@ -2871,7 +2884,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7">
         <v>19492650</v>
@@ -2883,7 +2896,7 @@
         <v>99</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7">
         <v>15397500</v>
@@ -2895,7 +2908,7 @@
         <v>99</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7">
         <v>15516450</v>
@@ -2907,7 +2920,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7">
         <v>18880500</v>
@@ -2919,7 +2932,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7">
         <v>269407000</v>
@@ -2931,7 +2944,7 @@
         <v>99</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7">
         <v>13312063</v>
@@ -2943,7 +2956,7 @@
         <v>99</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7">
         <v>96503877</v>
@@ -2955,7 +2968,7 @@
         <v>99</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7">
         <v>40761893</v>
@@ -2967,7 +2980,7 @@
         <v>99</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7">
         <v>61391544</v>
@@ -2979,7 +2992,7 @@
         <v>99</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C71" s="7">
         <v>377546400</v>
@@ -2991,7 +3004,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C72" s="7">
         <v>374096400</v>
@@ -3003,7 +3016,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="7">
         <v>120000</v>
@@ -3015,7 +3028,7 @@
         <v>99</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C74" s="7">
         <v>130000</v>
@@ -3027,7 +3040,7 @@
         <v>99</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="7">
         <v>3200000</v>
@@ -3039,7 +3052,7 @@
         <v>99</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>106</v>
+        <v>357</v>
       </c>
       <c r="C76" s="7">
         <v>1495045857</v>
@@ -3051,7 +3064,7 @@
         <v>99</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C77" s="7">
         <v>38602000</v>
@@ -3063,7 +3076,7 @@
         <v>99</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7">
         <v>797523857</v>
@@ -3075,7 +3088,7 @@
         <v>99</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C79" s="7">
         <v>40000000</v>
@@ -3088,7 +3101,7 @@
         <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C80" s="7">
         <v>17000000</v>
@@ -3101,7 +3114,7 @@
         <v>99</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7">
         <v>6000000</v>
@@ -3114,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C82" s="7">
         <v>10000000</v>
@@ -3127,7 +3140,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C83" s="7">
         <v>500000</v>
@@ -3140,7 +3153,7 @@
         <v>99</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C84" s="7">
         <v>500000</v>
@@ -3153,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C85" s="7">
         <v>500000</v>
@@ -3166,7 +3179,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C86" s="7">
         <v>500000</v>
@@ -3179,7 +3192,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C87" s="7">
         <v>500000</v>
@@ -3192,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" s="7">
         <v>500000</v>
@@ -3205,7 +3218,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>118</v>
+        <v>376</v>
       </c>
       <c r="C89" s="7">
         <v>4000000</v>
@@ -3218,7 +3231,7 @@
         <v>99</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C90" s="7">
         <v>1000000</v>
@@ -3231,7 +3244,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C91" s="7">
         <v>2000000</v>
@@ -3244,7 +3257,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C92" s="7">
         <v>724523857</v>
@@ -3257,7 +3270,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C93" s="7">
         <v>217385530</v>
@@ -3270,7 +3283,7 @@
         <v>99</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C94" s="7">
         <v>40000000</v>
@@ -3283,7 +3296,7 @@
         <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C95" s="7">
         <v>467138327</v>
@@ -3296,7 +3309,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C96" s="7">
         <v>111800000</v>
@@ -3309,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C97" s="7">
         <v>110000000</v>
@@ -3322,7 +3335,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>127</v>
+        <v>377</v>
       </c>
       <c r="C98" s="7">
         <v>1800000</v>
@@ -3335,7 +3348,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C99" s="7">
         <v>547120000</v>
@@ -3348,7 +3361,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C100" s="7">
         <v>100000000</v>
@@ -3361,7 +3374,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C101" s="7">
         <v>447120000</v>
@@ -3374,7 +3387,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2">
         <v>599053289</v>
@@ -3386,7 +3399,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2">
         <v>332239129</v>
@@ -3398,7 +3411,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C104" s="2">
         <v>500000</v>
@@ -3410,7 +3423,7 @@
         <v>99</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2">
         <v>2000000</v>
@@ -3422,7 +3435,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C106" s="2">
         <v>57486220</v>
@@ -3434,7 +3447,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>136</v>
+        <v>360</v>
       </c>
       <c r="C107" s="2">
         <v>250000000</v>
@@ -3446,7 +3459,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2">
         <v>16196279</v>
@@ -3458,7 +3471,7 @@
         <v>99</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C109" s="2">
         <v>85000000</v>
@@ -3470,7 +3483,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C110" s="2">
         <v>4684000</v>
@@ -3482,7 +3495,7 @@
         <v>99</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C111" s="2">
         <v>1287630</v>
@@ -3494,7 +3507,7 @@
         <v>99</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C112" s="2">
         <v>81280000</v>
@@ -3505,7 +3518,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C113" s="2">
         <v>19030950</v>
@@ -3516,7 +3529,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C114" s="2">
         <v>1231900</v>
@@ -3527,7 +3540,7 @@
         <v>99</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2">
         <v>10814050</v>
@@ -3538,7 +3551,7 @@
         <v>99</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C116" s="2">
         <v>3619500</v>
@@ -3549,7 +3562,7 @@
         <v>99</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2">
         <v>1651000</v>
@@ -3560,7 +3573,7 @@
         <v>99</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C118" s="2">
         <v>1714500</v>
@@ -3571,7 +3584,7 @@
         <v>99</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2">
         <v>151050000</v>
@@ -3583,7 +3596,7 @@
         <v>99</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C120" s="2">
         <v>939800</v>
@@ -3594,7 +3607,7 @@
         <v>99</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C121" s="2">
         <v>2933060</v>
@@ -3605,7 +3618,7 @@
         <v>99</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2">
         <v>4379450</v>
@@ -3616,7 +3629,7 @@
         <v>99</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C123" s="2">
         <v>7200900</v>
@@ -3627,7 +3640,7 @@
         <v>99</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C124" s="5">
         <v>2618708402</v>
@@ -3639,7 +3652,7 @@
         <v>99</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2">
         <v>1003588402</v>
@@ -3650,7 +3663,7 @@
         <v>99</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C126" s="2">
         <v>533000000</v>
@@ -3661,7 +3674,7 @@
         <v>99</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>156</v>
+        <v>378</v>
       </c>
       <c r="C127" s="2">
         <v>170000000</v>
@@ -3672,7 +3685,7 @@
         <v>99</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C128" s="2">
         <v>45000000</v>
@@ -3683,7 +3696,7 @@
         <v>99</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C129" s="2">
         <v>110000000</v>
@@ -3694,7 +3707,7 @@
         <v>99</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C130" s="2">
         <v>145588402</v>
@@ -3705,7 +3718,7 @@
         <v>99</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2">
         <v>787400000</v>
@@ -3716,7 +3729,7 @@
         <v>99</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="C132" s="2">
         <v>620000000</v>
@@ -3727,7 +3740,7 @@
         <v>99</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C133" s="2">
         <v>167400000</v>
@@ -3738,7 +3751,7 @@
         <v>99</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C134" s="2">
         <v>827720000</v>
@@ -3749,7 +3762,7 @@
         <v>99</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C135" s="2">
         <v>20000000</v>
@@ -3760,7 +3773,7 @@
         <v>99</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C136" s="2">
         <v>69000000</v>
@@ -3771,7 +3784,7 @@
         <v>99</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2">
         <v>325000000</v>
@@ -3782,7 +3795,7 @@
         <v>99</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C138" s="2">
         <v>173000000</v>
@@ -3793,7 +3806,7 @@
         <v>99</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="C139" s="2">
         <v>15000000</v>
@@ -3804,7 +3817,7 @@
         <v>99</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C140" s="2">
         <v>24000000</v>
@@ -3815,7 +3828,7 @@
         <v>99</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="C141" s="2">
         <v>30000000</v>
@@ -3826,7 +3839,7 @@
         <v>99</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2">
         <v>171720000</v>
@@ -3837,7 +3850,7 @@
         <v>99</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C143" s="5">
         <v>1689100000</v>
@@ -3849,7 +3862,7 @@
         <v>99</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C144" s="13">
         <v>376000000</v>
@@ -3861,7 +3874,7 @@
         <v>99</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C145" s="14">
         <v>356000000</v>
@@ -3873,7 +3886,7 @@
         <v>99</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C146" s="13">
         <v>20000000</v>
@@ -3885,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C147" s="14">
         <v>240000000</v>
@@ -3899,7 +3912,7 @@
         <v>99</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C148" s="16">
         <v>500000</v>
@@ -3913,7 +3926,7 @@
         <v>99</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C149" s="16">
         <v>145000000</v>
@@ -3927,7 +3940,7 @@
         <v>99</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="C150" s="17">
         <v>50000000</v>
@@ -3941,7 +3954,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
       <c r="C151" s="16">
         <v>7000000</v>
@@ -3955,7 +3968,7 @@
         <v>99</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>181</v>
+        <v>382</v>
       </c>
       <c r="C152" s="16">
         <v>4500000</v>
@@ -3969,7 +3982,7 @@
         <v>99</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C153" s="16">
         <v>17000000</v>
@@ -3983,7 +3996,7 @@
         <v>99</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="C154" s="16">
         <v>16000000</v>
@@ -3997,7 +4010,7 @@
         <v>99</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C155" s="16">
         <v>1073100000</v>
@@ -4011,7 +4024,7 @@
         <v>99</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C156" s="14">
         <v>400000000</v>
@@ -4025,7 +4038,7 @@
         <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2">
         <v>673100000</v>
@@ -4052,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CCF99-671C-466C-8EB9-A95C45EF2C45}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,587 +4077,587 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>99</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>2971152231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1512472231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>579805810</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>188</v>
+      <c r="B6" s="36" t="s">
+        <v>347</v>
       </c>
       <c r="C6" s="28">
         <v>462309000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>189</v>
+      <c r="B7" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="28">
         <v>5997600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>190</v>
+      <c r="B8" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="28">
         <v>11939410</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>191</v>
+      <c r="B9" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="C9" s="28">
         <v>99559800</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="36" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>465679950</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>192</v>
+      <c r="B11" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="C11" s="2">
         <v>59121800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>193</v>
+      <c r="B12" s="36" t="s">
+        <v>348</v>
       </c>
       <c r="C12" s="2">
         <v>270785550</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>194</v>
+      <c r="B13" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="C13" s="2">
         <v>15282000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>99</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>195</v>
+      <c r="B14" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="C14" s="2">
         <v>811600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>99</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>196</v>
+      <c r="B15" s="36" t="s">
+        <v>349</v>
       </c>
       <c r="C15" s="2">
         <v>119679000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>99</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>446337031</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>99</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>197</v>
+      <c r="B17" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="C17" s="2">
         <v>100443284</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>99</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>198</v>
+      <c r="B18" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="C18" s="2">
         <v>154589000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>99</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>199</v>
+      <c r="B19" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="C19" s="2">
         <v>53810320</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>99</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>200</v>
+      <c r="B20" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="C20" s="2">
         <v>137494427</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>99</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="36" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2">
         <v>20649440</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>99</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
         <v>1458680000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>99</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="2">
         <v>6193465000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="36" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2">
         <v>2440000000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2">
         <v>2400000000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>99</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2">
         <v>40000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>99</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="2">
         <v>2987965000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>99</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>99</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="36" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>300000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>99</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="36" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="2">
         <v>465500000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>364</v>
+      <c r="B31" s="36" t="s">
+        <v>328</v>
       </c>
       <c r="C31" s="2">
         <v>2285897273</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>99</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2">
         <v>64986200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>99</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="2">
         <v>91990000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2">
         <v>1440700000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>99</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="2">
         <v>266600000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>99</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>24</v>
+      <c r="B36" s="36" t="s">
+        <v>350</v>
       </c>
       <c r="C36" s="2">
         <v>427400000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>99</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>25</v>
+      <c r="B37" s="36" t="s">
+        <v>351</v>
       </c>
       <c r="C37" s="2">
         <v>135000000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>99</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>201</v>
+      <c r="B38" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="C38" s="2">
         <v>500000000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>99</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>202</v>
+      <c r="B39" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="C39" s="2">
         <v>46700000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>99</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>203</v>
+      <c r="B40" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="C40" s="2">
         <v>65000000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>99</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>30</v>
+      <c r="B41" s="36" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="2">
         <v>83098010</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>99</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>31</v>
+      <c r="B42" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="C42" s="2">
         <v>379225063</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>99</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>32</v>
+      <c r="B43" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="2">
         <v>125498000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>99</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>33</v>
+      <c r="B44" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="C44" s="2">
         <v>95000000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>204</v>
+      <c r="B45" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="C45" s="2">
         <v>5000000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>99</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>365</v>
+      <c r="B46" s="36" t="s">
+        <v>329</v>
       </c>
       <c r="C46" s="2">
         <v>400000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>366</v>
+      <c r="B47" s="36" t="s">
+        <v>330</v>
       </c>
       <c r="C47" s="2">
         <v>1310255998</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>367</v>
+      <c r="B48" s="36" t="s">
+        <v>331</v>
       </c>
       <c r="C48" s="2">
         <v>968100000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>368</v>
+      <c r="B49" s="36" t="s">
+        <v>332</v>
       </c>
       <c r="C49" s="2">
         <v>200000000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>99</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>369</v>
+      <c r="B50" s="36" t="s">
+        <v>333</v>
       </c>
       <c r="C50" s="2">
         <v>142155998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>99</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>370</v>
+      <c r="B51" s="36" t="s">
+        <v>334</v>
       </c>
       <c r="C51" s="2">
         <v>6712832403</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>99</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>371</v>
+      <c r="B52" s="36" t="s">
+        <v>335</v>
       </c>
       <c r="C52" s="2">
         <v>1994660000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>99</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>372</v>
+      <c r="B53" s="36" t="s">
+        <v>336</v>
       </c>
       <c r="C53" s="2">
         <v>4718172403</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>99</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>380</v>
+      <c r="B54" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="C54" s="2">
         <v>6712832403</v>
@@ -4663,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360EBD22-8A27-462E-8847-1D905C6EB368}">
   <dimension ref="A1:BG202"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4716,2372 +4729,2372 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB2" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK2" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL2" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM2" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN2" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="AO2" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="AP2" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="AR2" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="AS2" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="AT2" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="AU2" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="AV2" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="AW2" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="AX2" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="AY2" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ2" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="BA2" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="BB2" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="BC2" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="BD2" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="BE2" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="BF2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="V2" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL2" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="AM2" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="AO2" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="AP2" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="AQ2" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="AR2" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="AS2" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="AT2" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="AU2" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="AY2" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="AZ2" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="BC2" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="BD2" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="BE2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="BF2" s="29" t="s">
-        <v>362</v>
-      </c>
       <c r="BG2" s="29" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>99</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>34</v>
+      <c r="B3" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="32">
         <v>5103770263</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>99</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>35</v>
+      <c r="B4" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="32">
         <v>222768231</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>99</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>36</v>
+      <c r="B5" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="32">
         <v>189960800</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>99</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>37</v>
+      <c r="B6" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="32">
         <v>32807431</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>99</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>38</v>
+      <c r="B7" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="32">
         <v>2043364244</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>99</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>39</v>
+      <c r="B8" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="32">
         <v>1732037214</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>99</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>40</v>
+      <c r="B9" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="32">
         <v>16842828</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>99</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>41</v>
+      <c r="B10" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="32">
         <v>294484202</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>99</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>42</v>
+      <c r="B11" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="C11" s="32">
         <v>640438866</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>99</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>43</v>
+      <c r="B12" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="32">
         <v>93243562</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>99</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>44</v>
+      <c r="B13" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="32">
         <v>79251341</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>99</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>45</v>
+      <c r="B14" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="32">
         <v>1000000</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>99</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>46</v>
+      <c r="B15" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="32">
         <v>12992221</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>99</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>47</v>
+      <c r="B16" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="32">
         <v>149693557</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>99</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>48</v>
+      <c r="B17" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="32">
         <v>125277036</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>99</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>49</v>
+      <c r="B18" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="32">
         <v>1734915</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>99</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>50</v>
+      <c r="B19" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="32">
         <v>22681606</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>99</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>51</v>
+      <c r="B20" s="36" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="32">
         <v>104072380</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>99</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>52</v>
+      <c r="B21" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="32">
         <v>89039212</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>99</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>53</v>
+      <c r="B22" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="32">
         <v>578000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>99</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>54</v>
+      <c r="B23" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="32">
         <v>14455168</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>99</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>55</v>
+      <c r="B24" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="32">
         <v>149086199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>99</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>56</v>
+      <c r="B25" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="C25" s="32">
         <v>124929241</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>99</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>57</v>
+      <c r="B26" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="32">
         <v>1370000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>99</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>58</v>
+      <c r="B27" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="32">
         <v>22786958</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>99</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>59</v>
+      <c r="B28" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="32">
         <v>144343168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>99</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>60</v>
+      <c r="B29" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="32">
         <v>121478024</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>99</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>61</v>
+      <c r="B30" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="32">
         <v>1441000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>99</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>62</v>
+      <c r="B31" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="C31" s="32">
         <v>21424144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>99</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>63</v>
+      <c r="B32" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C32" s="32">
         <v>1326100000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>99</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>64</v>
+      <c r="B33" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="C33" s="32">
         <v>1120587200</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>99</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>65</v>
+      <c r="B34" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="32">
         <v>17088000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>99</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>66</v>
+      <c r="B35" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="C35" s="32">
         <v>188424800</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>99</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>67</v>
+      <c r="B36" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="C36" s="32">
         <v>42027890</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>99</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>68</v>
+      <c r="B37" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C37" s="32">
         <v>34811556</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>99</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>69</v>
+      <c r="B38" s="36" t="s">
+        <v>66</v>
       </c>
       <c r="C38" s="32">
         <v>1310000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>99</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>70</v>
+      <c r="B39" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="C39" s="32">
         <v>5906334</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>99</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>71</v>
+      <c r="B40" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="C40" s="32">
         <v>300466210</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>99</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>72</v>
+      <c r="B41" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="C41" s="32">
         <v>247951691</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>99</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>73</v>
+      <c r="B42" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C42" s="32">
         <v>6335400</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>99</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>74</v>
+      <c r="B43" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="C43" s="32">
         <v>46179119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>99</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>75</v>
+      <c r="B44" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="C44" s="32">
         <v>223227098</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>99</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>76</v>
+      <c r="B45" s="36" t="s">
+        <v>73</v>
       </c>
       <c r="C45" s="32">
         <v>188228592</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>99</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>77</v>
+      <c r="B46" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C46" s="32">
         <v>1250000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>99</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>78</v>
+      <c r="B47" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="C47" s="32">
         <v>33748506</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>99</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>79</v>
+      <c r="B48" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="C48" s="32">
         <v>305377724</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>99</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>80</v>
+      <c r="B49" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C49" s="32">
         <v>259300317</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>99</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>81</v>
+      <c r="B50" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C50" s="32">
         <v>250000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>99</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>82</v>
+      <c r="B51" s="36" t="s">
+        <v>79</v>
       </c>
       <c r="C51" s="32">
         <v>45827407</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>99</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>83</v>
+      <c r="B52" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="32">
         <v>5554643775</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>99</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>84</v>
+      <c r="B53" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="C53" s="32">
         <v>4603346824</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>99</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>85</v>
+      <c r="B54" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C54" s="33">
         <v>40477590</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>99</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>86</v>
+      <c r="B55" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="C55" s="33">
         <v>62775000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>99</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>87</v>
+      <c r="B56" s="36" t="s">
+        <v>84</v>
       </c>
       <c r="C56" s="33">
         <v>3171066602</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>99</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>378</v>
+      <c r="B57" s="36" t="s">
+        <v>342</v>
       </c>
       <c r="C57" s="33">
         <v>64100000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>99</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>88</v>
+      <c r="B58" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="C58" s="33">
         <v>1264927632</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>99</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>206</v>
+      <c r="B59" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="C59" s="32">
         <v>365086335</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>99</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>207</v>
+      <c r="B60" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="C60" s="32">
         <v>36000000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>99</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>208</v>
+      <c r="B61" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="C61" s="32">
         <v>47360000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>99</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>209</v>
+      <c r="B62" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="C62" s="32">
         <v>195455450</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>99</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>379</v>
+      <c r="B63" s="36" t="s">
+        <v>352</v>
       </c>
       <c r="C63" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>99</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>210</v>
+      <c r="B64" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="C64" s="32">
         <v>86270885</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>99</v>
       </c>
-      <c r="B65" s="31" t="s">
-        <v>90</v>
+      <c r="B65" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C65" s="32">
         <v>78107500</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>99</v>
       </c>
-      <c r="B66" s="31" t="s">
-        <v>91</v>
+      <c r="B66" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="C66" s="32">
         <v>10205750</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>99</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>92</v>
+      <c r="B67" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C67" s="32">
         <v>18945750</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>99</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>93</v>
+      <c r="B68" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="C68" s="32">
         <v>14116750</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>99</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>94</v>
+      <c r="B69" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="C69" s="32">
         <v>15148150</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>99</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>95</v>
+      <c r="B70" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="C70" s="32">
         <v>19691100</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>99</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>96</v>
+      <c r="B71" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="C71" s="32">
         <v>294000000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>99</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>97</v>
+      <c r="B72" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="C72" s="32">
         <v>13207980</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>99</v>
       </c>
-      <c r="B73" s="31" t="s">
-        <v>98</v>
+      <c r="B73" s="36" t="s">
+        <v>95</v>
       </c>
       <c r="C73" s="32">
         <v>103891480</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>99</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>99</v>
+      <c r="B74" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="C74" s="32">
         <v>40623646</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>99</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>100</v>
+      <c r="B75" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="C75" s="32">
         <v>56380010</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>99</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>101</v>
+      <c r="B76" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="C76" s="32">
         <v>408568000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>99</v>
       </c>
-      <c r="B77" s="31" t="s">
-        <v>211</v>
+      <c r="B77" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="C77" s="32">
         <v>126544000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>99</v>
       </c>
-      <c r="B78" s="31" t="s">
-        <v>212</v>
+      <c r="B78" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="C78" s="32">
         <v>35000000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>99</v>
       </c>
-      <c r="B79" s="31" t="s">
-        <v>213</v>
+      <c r="B79" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="C79" s="32">
         <v>7824000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="30">
         <v>99</v>
       </c>
-      <c r="B80" s="31" t="s">
-        <v>214</v>
+      <c r="B80" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="C80" s="32">
         <v>40000000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="30">
         <v>99</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>215</v>
+      <c r="B81" s="36" t="s">
+        <v>353</v>
       </c>
       <c r="C81" s="32">
         <v>1000000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="30">
         <v>99</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>216</v>
+      <c r="B82" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="C82" s="32">
         <v>720000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="30">
         <v>99</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>217</v>
+      <c r="B83" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="C83" s="32">
         <v>40000000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="30">
         <v>99</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>218</v>
+      <c r="B84" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="C84" s="32">
         <v>2000000</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="30">
         <v>99</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>219</v>
+      <c r="B85" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="C85" s="32">
         <v>282024000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="30">
         <v>99</v>
       </c>
-      <c r="B86" s="31" t="s">
-        <v>220</v>
+      <c r="B86" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="C86" s="32">
         <v>50000000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="30">
         <v>99</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>221</v>
+      <c r="B87" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="C87" s="32">
         <v>2000000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="30">
         <v>99</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>222</v>
+      <c r="B88" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="C88" s="32">
         <v>12000000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="30">
         <v>99</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>223</v>
+      <c r="B89" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="C89" s="32">
         <v>3000000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="30">
         <v>99</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>224</v>
+      <c r="B90" s="36" t="s">
+        <v>205</v>
       </c>
       <c r="C90" s="32">
         <v>80000000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="30">
         <v>99</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>225</v>
+      <c r="B91" s="36" t="s">
+        <v>206</v>
       </c>
       <c r="C91" s="32">
         <v>22500000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="30">
         <v>99</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>226</v>
+      <c r="B92" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="C92" s="32">
         <v>8000000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="30">
         <v>99</v>
       </c>
-      <c r="B93" s="31" t="s">
-        <v>227</v>
+      <c r="B93" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="C93" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="30">
         <v>99</v>
       </c>
-      <c r="B94" s="31" t="s">
-        <v>228</v>
+      <c r="B94" s="36" t="s">
+        <v>355</v>
       </c>
       <c r="C94" s="32">
         <v>22500000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="30">
         <v>99</v>
       </c>
-      <c r="B95" s="31" t="s">
-        <v>229</v>
+      <c r="B95" s="36" t="s">
+        <v>356</v>
       </c>
       <c r="C95" s="32">
         <v>4250000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="30">
         <v>99</v>
       </c>
-      <c r="B96" s="31" t="s">
-        <v>230</v>
+      <c r="B96" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="C96" s="32">
         <v>1000000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="30">
         <v>99</v>
       </c>
-      <c r="B97" s="31" t="s">
-        <v>231</v>
+      <c r="B97" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="C97" s="32">
         <v>10000000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="30">
         <v>99</v>
       </c>
-      <c r="B98" s="31" t="s">
-        <v>232</v>
+      <c r="B98" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="C98" s="32">
         <v>66274000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="30">
         <v>99</v>
       </c>
-      <c r="B99" s="31" t="s">
-        <v>106</v>
+      <c r="B99" s="36" t="s">
+        <v>357</v>
       </c>
       <c r="C99" s="32">
         <v>2706803035</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="30">
         <v>99</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>233</v>
+      <c r="B100" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="C100" s="32">
         <v>743201757</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="30">
         <v>99</v>
       </c>
-      <c r="B101" s="31" t="s">
-        <v>234</v>
+      <c r="B101" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="C101" s="32">
         <v>41800000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>99</v>
       </c>
-      <c r="B102" s="31" t="s">
-        <v>235</v>
+      <c r="B102" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="C102" s="32">
         <v>40000000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="30">
         <v>99</v>
       </c>
-      <c r="B103" s="31" t="s">
-        <v>236</v>
+      <c r="B103" s="36" t="s">
+        <v>358</v>
       </c>
       <c r="C103" s="32">
         <v>1800000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="30">
         <v>99</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>237</v>
+      <c r="B104" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="C104" s="32">
         <v>874501278</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="30">
         <v>99</v>
       </c>
-      <c r="B105" s="31" t="s">
-        <v>238</v>
+      <c r="B105" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="C105" s="32">
         <v>40000000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="30">
         <v>99</v>
       </c>
-      <c r="B106" s="31" t="s">
-        <v>239</v>
+      <c r="B106" s="36" t="s">
+        <v>216</v>
       </c>
       <c r="C106" s="32">
         <v>67100000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="30">
         <v>99</v>
       </c>
-      <c r="B107" s="31" t="s">
-        <v>240</v>
+      <c r="B107" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="C107" s="32">
         <v>17000000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="30">
         <v>99</v>
       </c>
-      <c r="B108" s="31" t="s">
-        <v>241</v>
+      <c r="B108" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="C108" s="32">
         <v>2400000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="30">
         <v>99</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>242</v>
+      <c r="B109" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="C109" s="32">
         <v>32000000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="30">
         <v>99</v>
       </c>
-      <c r="B110" s="31" t="s">
-        <v>243</v>
+      <c r="B110" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="C110" s="32">
         <v>2500000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="30">
         <v>99</v>
       </c>
-      <c r="B111" s="31" t="s">
-        <v>244</v>
+      <c r="B111" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="C111" s="32">
         <v>6000000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="30">
         <v>99</v>
       </c>
-      <c r="B112" s="31" t="s">
-        <v>245</v>
+      <c r="B112" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="C112" s="32">
         <v>2100000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="30">
         <v>99</v>
       </c>
-      <c r="B113" s="31" t="s">
-        <v>246</v>
+      <c r="B113" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="C113" s="32">
         <v>3000000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="30">
         <v>99</v>
       </c>
-      <c r="B114" s="31" t="s">
-        <v>247</v>
+      <c r="B114" s="36" t="s">
+        <v>224</v>
       </c>
       <c r="C114" s="32">
         <v>100000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="30">
         <v>99</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>248</v>
+      <c r="B115" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="C115" s="32">
         <v>2000000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="30">
         <v>99</v>
       </c>
-      <c r="B116" s="31" t="s">
-        <v>249</v>
+      <c r="B116" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="C116" s="32">
         <v>10500000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="30">
         <v>99</v>
       </c>
-      <c r="B117" s="31" t="s">
-        <v>250</v>
+      <c r="B117" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="C117" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="30">
         <v>99</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>251</v>
+      <c r="B118" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="C118" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="30">
         <v>99</v>
       </c>
-      <c r="B119" s="31" t="s">
-        <v>252</v>
+      <c r="B119" s="36" t="s">
+        <v>229</v>
       </c>
       <c r="C119" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="30">
         <v>99</v>
       </c>
-      <c r="B120" s="31" t="s">
-        <v>253</v>
+      <c r="B120" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="C120" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="30">
         <v>99</v>
       </c>
-      <c r="B121" s="31" t="s">
-        <v>254</v>
+      <c r="B121" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="C121" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="30">
         <v>99</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>255</v>
+      <c r="B122" s="36" t="s">
+        <v>232</v>
       </c>
       <c r="C122" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="30">
         <v>99</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>256</v>
+      <c r="B123" s="36" t="s">
+        <v>359</v>
       </c>
       <c r="C123" s="32">
         <v>4000000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="30">
         <v>99</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>257</v>
+      <c r="B124" s="36" t="s">
+        <v>233</v>
       </c>
       <c r="C124" s="32">
         <v>1000000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="30">
         <v>99</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>258</v>
+      <c r="B125" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="C125" s="32">
         <v>2000000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="30">
         <v>99</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>259</v>
+      <c r="B126" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="C126" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="30">
         <v>99</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>260</v>
+      <c r="B127" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="C127" s="32">
         <v>17000000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="30">
         <v>99</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>261</v>
+      <c r="B128" s="36" t="s">
+        <v>237</v>
       </c>
       <c r="C128" s="32">
         <v>739901278</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="30">
         <v>99</v>
       </c>
-      <c r="B129" s="31" t="s">
-        <v>262</v>
+      <c r="B129" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="C129" s="32">
         <v>211901278</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="30">
         <v>99</v>
       </c>
-      <c r="B130" s="31" t="s">
-        <v>263</v>
+      <c r="B130" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="C130" s="2">
         <v>528000000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="30">
         <v>99</v>
       </c>
-      <c r="B131" s="31" t="s">
-        <v>128</v>
+      <c r="B131" s="36" t="s">
+        <v>122</v>
       </c>
       <c r="C131" s="32">
         <v>1047300000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="30">
         <v>99</v>
       </c>
-      <c r="B132" s="31" t="s">
-        <v>129</v>
+      <c r="B132" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="C132" s="32">
         <v>100000000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="30">
         <v>99</v>
       </c>
-      <c r="B133" s="31" t="s">
-        <v>130</v>
+      <c r="B133" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="C133" s="32">
         <v>947300000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="30">
         <v>99</v>
       </c>
-      <c r="B134" s="31" t="s">
-        <v>131</v>
+      <c r="B134" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="C134" s="2">
         <v>1301841058</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="30">
         <v>99</v>
       </c>
-      <c r="B135" s="31" t="s">
-        <v>132</v>
+      <c r="B135" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="C135" s="2">
         <v>1081323148</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="30">
         <v>99</v>
       </c>
-      <c r="B136" s="31" t="s">
-        <v>133</v>
+      <c r="B136" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="C136" s="2">
         <v>1287400</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="30">
         <v>99</v>
       </c>
-      <c r="B137" s="31" t="s">
-        <v>134</v>
+      <c r="B137" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="C137" s="2">
         <v>2000000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="30">
         <v>99</v>
       </c>
-      <c r="B138" s="31" t="s">
-        <v>135</v>
+      <c r="B138" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="C138" s="2">
         <v>333345000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="30">
         <v>99</v>
       </c>
-      <c r="B139" s="31" t="s">
-        <v>136</v>
+      <c r="B139" s="36" t="s">
+        <v>360</v>
       </c>
       <c r="C139" s="2">
         <v>653800000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="30">
         <v>99</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>137</v>
+      <c r="B140" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="C140" s="2">
         <v>90890748</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="30">
         <v>99</v>
       </c>
-      <c r="B141" s="31" t="s">
-        <v>264</v>
+      <c r="B141" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="C141" s="2">
         <v>5224780</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="30">
         <v>99</v>
       </c>
-      <c r="B142" s="31" t="s">
-        <v>265</v>
+      <c r="B142" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="C142" s="32">
         <v>81280000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="30">
         <v>99</v>
       </c>
-      <c r="B143" s="31" t="s">
-        <v>266</v>
+      <c r="B143" s="36" t="s">
+        <v>242</v>
       </c>
       <c r="C143" s="32">
         <v>16192500</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="30">
         <v>99</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>267</v>
+      <c r="B144" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="C144" s="32">
         <v>94791110</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="30">
         <v>99</v>
       </c>
-      <c r="B145" s="31" t="s">
-        <v>268</v>
+      <c r="B145" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="C145" s="32">
         <v>811685</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="30">
         <v>99</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>269</v>
+      <c r="B146" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="C146" s="32">
         <v>2325388</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="30">
         <v>99</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>270</v>
+      <c r="B147" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="C147" s="32">
         <v>16946047</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="30">
         <v>99</v>
       </c>
-      <c r="B148" s="31" t="s">
-        <v>271</v>
+      <c r="B148" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="C148" s="32">
         <v>2946400</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="30">
         <v>99</v>
       </c>
-      <c r="B149" s="31" t="s">
-        <v>153</v>
+      <c r="B149" s="36" t="s">
+        <v>146</v>
       </c>
       <c r="C149" s="2">
         <v>3585732832</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="30">
         <v>99</v>
       </c>
-      <c r="B150" s="31" t="s">
-        <v>154</v>
+      <c r="B150" s="36" t="s">
+        <v>147</v>
       </c>
       <c r="C150" s="2">
         <v>330962000</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="30">
         <v>99</v>
       </c>
-      <c r="B151" s="31" t="s">
-        <v>272</v>
+      <c r="B151" s="36" t="s">
+        <v>361</v>
       </c>
       <c r="C151" s="2">
         <v>65000000</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="30">
         <v>99</v>
       </c>
-      <c r="B152" s="31" t="s">
-        <v>273</v>
+      <c r="B152" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="C152" s="2">
         <v>100000000</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="30">
         <v>99</v>
       </c>
-      <c r="B153" s="31" t="s">
-        <v>274</v>
+      <c r="B153" s="36" t="s">
+        <v>362</v>
       </c>
       <c r="C153" s="2">
         <v>25000000</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="30">
         <v>99</v>
       </c>
-      <c r="B154" s="31" t="s">
-        <v>275</v>
+      <c r="B154" s="36" t="s">
+        <v>249</v>
       </c>
       <c r="C154" s="2">
         <v>70600000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="30">
         <v>99</v>
       </c>
-      <c r="B155" s="31" t="s">
-        <v>159</v>
+      <c r="B155" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="C155" s="2">
         <v>70362000</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="30">
         <v>99</v>
       </c>
-      <c r="B156" s="31" t="s">
-        <v>160</v>
+      <c r="B156" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="C156" s="2">
         <v>796290000</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="30">
         <v>99</v>
       </c>
-      <c r="B157" s="31" t="s">
-        <v>161</v>
+      <c r="B157" s="36" t="s">
+        <v>363</v>
       </c>
       <c r="C157" s="2">
         <v>613000000</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="30">
         <v>99</v>
       </c>
-      <c r="B158" s="31" t="s">
-        <v>276</v>
+      <c r="B158" s="36" t="s">
+        <v>250</v>
       </c>
       <c r="C158" s="2">
         <v>5000000</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="30">
         <v>99</v>
       </c>
-      <c r="B159" s="31" t="s">
-        <v>277</v>
+      <c r="B159" s="36" t="s">
+        <v>251</v>
       </c>
       <c r="C159" s="2">
         <v>9000000</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="30">
         <v>99</v>
       </c>
-      <c r="B160" s="31" t="s">
-        <v>278</v>
+      <c r="B160" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="C160" s="2">
         <v>169290000</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="30">
         <v>99</v>
       </c>
-      <c r="B161" s="31" t="s">
-        <v>163</v>
+      <c r="B161" s="36" t="s">
+        <v>154</v>
       </c>
       <c r="C161" s="2">
         <v>648063647</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="30">
         <v>99</v>
       </c>
-      <c r="B162" s="31" t="s">
-        <v>164</v>
+      <c r="B162" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="C162" s="2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="30">
         <v>99</v>
       </c>
-      <c r="B163" s="31" t="s">
-        <v>165</v>
+      <c r="B163" s="36" t="s">
+        <v>156</v>
       </c>
       <c r="C163" s="2">
         <v>20000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="30">
         <v>99</v>
       </c>
-      <c r="B164" s="31" t="s">
-        <v>279</v>
+      <c r="B164" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="C164" s="2">
         <v>120000000</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="30">
         <v>99</v>
       </c>
-      <c r="B165" s="31" t="s">
-        <v>280</v>
+      <c r="B165" s="36" t="s">
+        <v>254</v>
       </c>
       <c r="C165" s="2">
         <v>60000000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="30">
         <v>99</v>
       </c>
-      <c r="B166" s="31" t="s">
-        <v>281</v>
+      <c r="B166" s="36" t="s">
+        <v>255</v>
       </c>
       <c r="C166" s="2">
         <v>265000000</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="30">
         <v>99</v>
       </c>
-      <c r="B167" s="31" t="s">
-        <v>282</v>
+      <c r="B167" s="36" t="s">
+        <v>256</v>
       </c>
       <c r="C167" s="2">
         <v>110000000</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="30">
         <v>99</v>
       </c>
-      <c r="B168" s="31" t="s">
-        <v>283</v>
+      <c r="B168" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="C168" s="2">
         <v>19000000</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="30">
         <v>99</v>
       </c>
-      <c r="B169" s="31" t="s">
-        <v>284</v>
+      <c r="B169" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="C169" s="2">
         <v>34063647</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="30">
         <v>99</v>
       </c>
-      <c r="B170" s="31" t="s">
-        <v>285</v>
+      <c r="B170" s="36" t="s">
+        <v>259</v>
       </c>
       <c r="C170" s="2">
         <v>1292000000</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="30">
         <v>99</v>
       </c>
-      <c r="B171" s="31" t="s">
-        <v>286</v>
+      <c r="B171" s="36" t="s">
+        <v>260</v>
       </c>
       <c r="C171" s="2">
         <v>510000000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="30">
         <v>99</v>
       </c>
-      <c r="B172" s="31" t="s">
-        <v>287</v>
+      <c r="B172" s="36" t="s">
+        <v>364</v>
       </c>
       <c r="C172" s="2">
         <v>50000000</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="30">
         <v>99</v>
       </c>
-      <c r="B173" s="31" t="s">
-        <v>288</v>
+      <c r="B173" s="36" t="s">
+        <v>261</v>
       </c>
       <c r="C173" s="2">
         <v>6000000</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="30">
         <v>99</v>
       </c>
-      <c r="B174" s="31" t="s">
-        <v>289</v>
+      <c r="B174" s="36" t="s">
+        <v>262</v>
       </c>
       <c r="C174" s="2">
         <v>5000000</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="30">
         <v>99</v>
       </c>
-      <c r="B175" s="31" t="s">
-        <v>290</v>
+      <c r="B175" s="36" t="s">
+        <v>365</v>
       </c>
       <c r="C175" s="2">
         <v>15000000</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="30">
         <v>99</v>
       </c>
-      <c r="B176" s="31" t="s">
-        <v>291</v>
+      <c r="B176" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="C176" s="2">
         <v>46000000</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="30">
         <v>99</v>
       </c>
-      <c r="B177" s="31" t="s">
-        <v>292</v>
+      <c r="B177" s="36" t="s">
+        <v>264</v>
       </c>
       <c r="C177" s="2">
         <v>400000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="30">
         <v>99</v>
       </c>
-      <c r="B178" s="31" t="s">
-        <v>293</v>
+      <c r="B178" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="C178" s="2">
         <v>5000000</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="30">
         <v>99</v>
       </c>
-      <c r="B179" s="31" t="s">
-        <v>294</v>
+      <c r="B179" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="C179" s="2">
         <v>30000000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30">
         <v>99</v>
       </c>
-      <c r="B180" s="31" t="s">
-        <v>295</v>
+      <c r="B180" s="36" t="s">
+        <v>267</v>
       </c>
       <c r="C180" s="2">
         <v>50000000</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="30">
         <v>99</v>
       </c>
-      <c r="B181" s="31" t="s">
-        <v>296</v>
+      <c r="B181" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="C181" s="2">
         <v>15000000</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="30">
         <v>99</v>
       </c>
-      <c r="B182" s="31" t="s">
-        <v>297</v>
+      <c r="B182" s="36" t="s">
+        <v>366</v>
       </c>
       <c r="C182" s="2">
         <v>160000000</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30">
         <v>99</v>
       </c>
-      <c r="B183" s="31" t="s">
-        <v>298</v>
+      <c r="B183" s="36" t="s">
+        <v>269</v>
       </c>
       <c r="C183" s="2">
         <v>518417185</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="30">
         <v>99</v>
       </c>
-      <c r="B184" s="31" t="s">
-        <v>172</v>
+      <c r="B184" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="C184" s="2">
         <v>812243942</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="30">
         <v>99</v>
       </c>
-      <c r="B185" s="31" t="s">
-        <v>173</v>
+      <c r="B185" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="C185" s="2">
         <v>355500000</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="30">
         <v>99</v>
       </c>
-      <c r="B186" s="31" t="s">
-        <v>174</v>
+      <c r="B186" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="C186" s="2">
         <v>345500000</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="30">
         <v>99</v>
       </c>
-      <c r="B187" s="31" t="s">
-        <v>175</v>
+      <c r="B187" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C187" s="2">
         <v>10000000</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="30">
         <v>99</v>
       </c>
-      <c r="B188" s="31" t="s">
-        <v>176</v>
+      <c r="B188" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="C188" s="2">
         <v>226743942</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="30">
         <v>99</v>
       </c>
-      <c r="B189" s="31" t="s">
-        <v>177</v>
+      <c r="B189" s="36" t="s">
+        <v>166</v>
       </c>
       <c r="C189" s="34">
         <v>500000</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="30">
         <v>99</v>
       </c>
-      <c r="B190" s="31" t="s">
-        <v>178</v>
+      <c r="B190" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="C190" s="34">
         <v>145000000</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="30">
         <v>99</v>
       </c>
-      <c r="B191" s="31" t="s">
-        <v>179</v>
+      <c r="B191" s="36" t="s">
+        <v>367</v>
       </c>
       <c r="C191" s="35">
         <v>30000000</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="30">
         <v>99</v>
       </c>
-      <c r="B192" s="31" t="s">
-        <v>299</v>
+      <c r="B192" s="36" t="s">
+        <v>368</v>
       </c>
       <c r="C192" s="34">
         <v>5243942</v>
       </c>
     </row>
-    <row r="193" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="30">
         <v>99</v>
       </c>
-      <c r="B193" s="31" t="s">
-        <v>300</v>
+      <c r="B193" s="36" t="s">
+        <v>369</v>
       </c>
       <c r="C193" s="34">
         <v>15000000</v>
       </c>
     </row>
-    <row r="194" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="30">
         <v>99</v>
       </c>
-      <c r="B194" s="31" t="s">
-        <v>301</v>
+      <c r="B194" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="C194" s="34">
         <v>10000000</v>
       </c>
     </row>
-    <row r="195" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="30">
         <v>99</v>
       </c>
-      <c r="B195" s="31" t="s">
-        <v>302</v>
+      <c r="B195" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="C195" s="34">
         <v>5000000</v>
       </c>
     </row>
-    <row r="196" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="30">
         <v>99</v>
       </c>
-      <c r="B196" s="31" t="s">
-        <v>303</v>
+      <c r="B196" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="C196" s="34">
         <v>5000000</v>
       </c>
     </row>
-    <row r="197" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="30">
         <v>99</v>
       </c>
-      <c r="B197" s="31" t="s">
-        <v>304</v>
+      <c r="B197" s="36" t="s">
+        <v>273</v>
       </c>
       <c r="C197" s="34">
         <v>3000000</v>
       </c>
     </row>
-    <row r="198" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="30">
         <v>99</v>
       </c>
-      <c r="B198" s="31" t="s">
-        <v>305</v>
+      <c r="B198" s="36" t="s">
+        <v>370</v>
       </c>
       <c r="C198" s="34">
         <v>8000000</v>
       </c>
     </row>
-    <row r="199" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="30">
         <v>99</v>
       </c>
-      <c r="B199" s="31" t="s">
-        <v>306</v>
+      <c r="B199" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="C199" s="34">
         <v>30000000</v>
       </c>
     </row>
-    <row r="200" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="30">
         <v>99</v>
       </c>
-      <c r="B200" s="31" t="s">
-        <v>307</v>
+      <c r="B200" s="36" t="s">
+        <v>371</v>
       </c>
       <c r="C200" s="34">
         <v>30000000</v>
       </c>
     </row>
-    <row r="201" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:59" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="30">
         <v>99</v>
       </c>
-      <c r="B201" s="31" t="s">
-        <v>308</v>
+      <c r="B201" s="36" t="s">
+        <v>275</v>
       </c>
       <c r="C201" s="34">
         <v>200000000</v>
@@ -7092,7 +7105,7 @@
         <v>99</v>
       </c>
       <c r="B202" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C202" s="2">
         <v>19473602905</v>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/JÓZSEFVÁROS_KÖKÖ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{E6C61E6A-64E9-4903-9915-7A6217DEA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F9DF125-F397-4D74-927C-201704554485}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{E6C61E6A-64E9-4903-9915-7A6217DEA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43946407-363D-4FB7-A67E-5F1F3D217528}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A5FFBDF2-3FC8-479A-A77C-B32FE37E1D3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5FFBDF2-3FC8-479A-A77C-B32FE37E1D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 BEVÉTEL" sheetId="1" r:id="rId1"/>
@@ -144,24 +144,6 @@
     <t>Tulajdonosi bevételek (B3101)</t>
   </si>
   <si>
-    <t>Parkolási bevétel (B310301)</t>
-  </si>
-  <si>
-    <t>Helyiségbérletidíj-bevétel (B310302)</t>
-  </si>
-  <si>
-    <t>Lakásbérletidíj-bevétel (B310303)</t>
-  </si>
-  <si>
-    <t>Telek és egyéb inatlanok  utáni bérleti díjbevétel  (B310304)</t>
-  </si>
-  <si>
-    <t>Piacüzemeltetésből származó bevétel (B310305)</t>
-  </si>
-  <si>
-    <t>Egyéb tulajdonnal összefüggő bevétel (víz, csatorna, szemét, fűtés) (B310306)</t>
-  </si>
-  <si>
     <t>Ellátási díjak (B3102)</t>
   </si>
   <si>
@@ -222,12 +204,6 @@
     <t>Felhalmozási célú átvett pénzeszközök államháztartáson kívülről (B43)</t>
   </si>
   <si>
-    <t>Munkáltatói kölcsön megtérülés (B3401)</t>
-  </si>
-  <si>
-    <t>Társasházak visszatérítendő kölcsönbevétele (B3402)</t>
-  </si>
-  <si>
     <t>Finanszírozási bevételek (B5)</t>
   </si>
   <si>
@@ -655,6 +631,30 @@
   </si>
   <si>
     <t>Finanszírozási kiadások (K8)</t>
+  </si>
+  <si>
+    <t>Parkolási bevétel (B310101)</t>
+  </si>
+  <si>
+    <t>Helyiségbérletidíj-bevétel (B310102)</t>
+  </si>
+  <si>
+    <t>Lakásbérletidíj-bevétel (B310103)</t>
+  </si>
+  <si>
+    <t>Piacüzemeltetésből származó bevétel (B310105)</t>
+  </si>
+  <si>
+    <t>Egyéb tulajdonnal összefüggő bevétel (víz, csatorna, szemét, fűtés) (B310106)</t>
+  </si>
+  <si>
+    <t>Telek és egyéb ingatlanok  utáni bérleti díjbevétel  (B310104)</t>
+  </si>
+  <si>
+    <t>Munkáltatói kölcsön megtérülés (B4301)</t>
+  </si>
+  <si>
+    <t>Társasházak visszatérítendő kölcsönbevétele (B4302)</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA9AEA-E1B4-4D04-A721-BE3256AB9353}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C34" s="4">
         <v>1172102079</v>
@@ -1409,7 +1409,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="C35" s="4">
         <v>592913000</v>
@@ -1420,7 +1420,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="C36" s="4">
         <v>686400000</v>
@@ -1431,7 +1431,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="C37" s="4">
         <v>80228181</v>
@@ -1442,7 +1442,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C38" s="4">
         <v>56722503</v>
@@ -1453,7 +1453,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="C39" s="4">
         <v>284145598</v>
@@ -1464,7 +1464,7 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C40" s="4">
         <v>134038000</v>
@@ -1475,7 +1475,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4">
         <v>690708894</v>
@@ -1486,7 +1486,7 @@
         <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C42" s="4">
         <v>76081000</v>
@@ -1497,7 +1497,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4">
         <v>172669000</v>
@@ -1508,7 +1508,7 @@
         <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4">
         <v>165733095</v>
@@ -1519,7 +1519,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4">
         <v>245674158</v>
@@ -1530,7 +1530,7 @@
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4">
         <v>14886000</v>
@@ -1541,7 +1541,7 @@
         <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4">
         <v>134928814</v>
@@ -1552,7 +1552,7 @@
         <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4">
         <v>95859344</v>
@@ -1563,7 +1563,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4">
         <v>2638243021</v>
@@ -1574,7 +1574,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4">
         <v>1992679007</v>
@@ -1585,7 +1585,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4">
         <v>428000000</v>
@@ -1596,7 +1596,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C52" s="4">
         <v>160000000</v>
@@ -1607,7 +1607,7 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C53" s="4">
         <v>253937007</v>
@@ -1618,7 +1618,7 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C54" s="4">
         <v>1150742000</v>
@@ -1629,7 +1629,7 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4">
         <v>395286014</v>
@@ -1640,7 +1640,7 @@
         <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4">
         <v>39250000</v>
@@ -1651,7 +1651,7 @@
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4">
         <v>270000000</v>
@@ -1662,7 +1662,7 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C58" s="4">
         <v>86036014</v>
@@ -1673,7 +1673,7 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C59" s="4">
         <v>250278000</v>
@@ -1684,7 +1684,7 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="C60" s="4">
         <v>278000</v>
@@ -1695,7 +1695,7 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="C61" s="4">
         <v>250000000</v>
@@ -1706,7 +1706,7 @@
         <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C62" s="4">
         <v>8030774463</v>
@@ -1717,7 +1717,7 @@
         <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C63" s="4">
         <v>4117832424</v>
@@ -1728,7 +1728,7 @@
         <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C64" s="4">
         <v>3912942039</v>
@@ -1739,7 +1739,7 @@
         <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4">
         <v>7914544871</v>
@@ -1754,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B44BE7C-5B22-4514-95C7-E57F7DD5CD66}">
   <dimension ref="A1:C202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
@@ -1786,7 +1786,7 @@
         <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4">
         <v>7704289861</v>
@@ -1797,7 +1797,7 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4">
         <v>277167630</v>
@@ -1808,7 +1808,7 @@
         <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4">
         <v>1878168231</v>
@@ -1819,7 +1819,7 @@
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4">
         <v>1157279000</v>
@@ -1830,7 +1830,7 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4">
         <v>893865000</v>
@@ -1841,7 +1841,7 @@
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C8" s="4">
         <v>2227121000</v>
@@ -1852,7 +1852,7 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4">
         <v>1270689000</v>
@@ -1863,7 +1863,7 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <v>7439824109</v>
@@ -1874,7 +1874,7 @@
         <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4">
         <v>5363538343</v>
@@ -1885,7 +1885,7 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4">
         <v>4353154945</v>
@@ -1896,7 +1896,7 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4">
         <v>801068498</v>
@@ -1907,7 +1907,7 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4">
         <v>171022800</v>
@@ -1918,7 +1918,7 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C15" s="4">
         <v>45765000</v>
@@ -1929,7 +1929,7 @@
         <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4">
         <v>2921279930</v>
@@ -1940,7 +1940,7 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4">
         <v>414018717</v>
@@ -1951,7 +1951,7 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4">
         <v>7290000</v>
@@ -1962,7 +1962,7 @@
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
         <v>1003093398</v>
@@ -1973,7 +1973,7 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4">
         <v>445083086</v>
@@ -1984,7 +1984,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4">
         <v>927108680</v>
@@ -1995,7 +1995,7 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4">
         <v>233671000</v>
@@ -2006,7 +2006,7 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4">
         <v>366866000</v>
@@ -2017,7 +2017,7 @@
         <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4">
         <v>103557000</v>
@@ -2028,7 +2028,7 @@
         <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4">
         <v>119429000</v>
@@ -2039,7 +2039,7 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="4">
         <v>30000000</v>
@@ -2050,7 +2050,7 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C27" s="4">
         <v>3200000</v>
@@ -2061,7 +2061,7 @@
         <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C28" s="4">
         <v>9000000</v>
@@ -2072,7 +2072,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C29" s="4">
         <v>18000000</v>
@@ -2083,7 +2083,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4">
         <v>2500000</v>
@@ -2094,7 +2094,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4">
         <v>6000000</v>
@@ -2105,7 +2105,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4">
         <v>25000000</v>
@@ -2116,7 +2116,7 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C33" s="4">
         <v>3000000</v>
@@ -2127,7 +2127,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4">
         <v>3000000</v>
@@ -2138,7 +2138,7 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4">
         <v>4000000</v>
@@ -2149,7 +2149,7 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4">
         <v>4500000</v>
@@ -2160,7 +2160,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4">
         <v>10000000</v>
@@ -2171,7 +2171,7 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C38" s="4">
         <v>1229000</v>
@@ -2182,7 +2182,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4">
         <v>4374934878</v>
@@ -2193,7 +2193,7 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C40" s="4">
         <v>990715951</v>
@@ -2204,7 +2204,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4">
         <v>37000000</v>
@@ -2215,7 +2215,7 @@
         <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C42" s="4">
         <v>946890950</v>
@@ -2226,7 +2226,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4">
         <v>6825001</v>
@@ -2237,7 +2237,7 @@
         <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C44" s="4">
         <v>126150000</v>
@@ -2248,7 +2248,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4">
         <v>2650000</v>
@@ -2259,7 +2259,7 @@
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C46" s="4">
         <v>50000000</v>
@@ -2270,7 +2270,7 @@
         <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4">
         <v>65000000</v>
@@ -2281,7 +2281,7 @@
         <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4">
         <v>8500000</v>
@@ -2292,7 +2292,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C49" s="4">
         <v>2117072473</v>
@@ -2303,7 +2303,7 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C50" s="4">
         <v>6514000</v>
@@ -2314,7 +2314,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4">
         <v>1000000</v>
@@ -2325,7 +2325,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4">
         <v>3896000</v>
@@ -2336,7 +2336,7 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4">
         <v>37743688</v>
@@ -2347,7 +2347,7 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4">
         <v>1346110300</v>
@@ -2358,7 +2358,7 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C55" s="4">
         <v>122142564</v>
@@ -2369,7 +2369,7 @@
         <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4">
         <v>599665921</v>
@@ -2380,7 +2380,7 @@
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C57" s="4">
         <v>200000000</v>
@@ -2391,7 +2391,7 @@
         <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C58" s="4">
         <v>940996454</v>
@@ -2402,7 +2402,7 @@
         <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4">
         <v>4239768354</v>
@@ -2413,7 +2413,7 @@
         <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4">
         <v>138127905</v>
@@ -2424,7 +2424,7 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C61" s="4">
         <v>61511285</v>
@@ -2435,7 +2435,7 @@
         <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C62" s="4">
         <v>54998620</v>
@@ -2446,7 +2446,7 @@
         <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C63" s="4">
         <v>10618000</v>
@@ -2457,7 +2457,7 @@
         <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C64" s="4">
         <v>4000000</v>
@@ -2468,7 +2468,7 @@
         <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C65" s="4">
         <v>7000000</v>
@@ -2479,7 +2479,7 @@
         <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C66" s="4">
         <v>992233000</v>
@@ -2490,7 +2490,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C67" s="4">
         <v>618482000</v>
@@ -2501,7 +2501,7 @@
         <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C68" s="4">
         <v>357751000</v>
@@ -2512,7 +2512,7 @@
         <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C69" s="4">
         <v>16000000</v>
@@ -2523,7 +2523,7 @@
         <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C70" s="4">
         <v>1745838302</v>
@@ -2534,7 +2534,7 @@
         <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C71" s="4">
         <v>514817652</v>
@@ -2545,7 +2545,7 @@
         <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4">
         <v>250000000</v>
@@ -2556,7 +2556,7 @@
         <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C73" s="4">
         <v>165540000</v>
@@ -2567,7 +2567,7 @@
         <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C74" s="4">
         <v>50000001</v>
@@ -2578,7 +2578,7 @@
         <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4">
         <v>35000001</v>
@@ -2589,7 +2589,7 @@
         <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C76" s="4">
         <v>14277650</v>
@@ -2600,7 +2600,7 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C77" s="4">
         <v>29784479</v>
@@ -2611,7 +2611,7 @@
         <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C78" s="4">
         <v>582511100</v>
@@ -2622,7 +2622,7 @@
         <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C79" s="4">
         <v>119773700</v>
@@ -2633,7 +2633,7 @@
         <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4">
         <v>787400</v>
@@ -2644,7 +2644,7 @@
         <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C81" s="4">
         <v>341633834</v>
@@ -2655,7 +2655,7 @@
         <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4">
         <v>24613830</v>
@@ -2666,7 +2666,7 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4">
         <v>82277166</v>
@@ -2677,7 +2677,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4">
         <v>13425170</v>
@@ -2688,7 +2688,7 @@
         <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C85" s="4">
         <v>118535916</v>
@@ -2699,7 +2699,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4">
         <v>1800000</v>
@@ -2710,7 +2710,7 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C87" s="4">
         <v>38000000</v>
@@ -2721,7 +2721,7 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4">
         <v>25000000</v>
@@ -2732,7 +2732,7 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C89" s="4">
         <v>12700000</v>
@@ -2743,7 +2743,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C90" s="4">
         <v>200000</v>
@@ -2754,7 +2754,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C91" s="4">
         <v>17490343</v>
@@ -2765,7 +2765,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4">
         <v>5500000</v>
@@ -2776,7 +2776,7 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C93" s="4">
         <v>2500000</v>
@@ -2787,7 +2787,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C94" s="4">
         <v>1077000</v>
@@ -2798,7 +2798,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C95" s="4">
         <v>13268573</v>
@@ -2809,7 +2809,7 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C96" s="4">
         <v>1000000</v>
@@ -2820,7 +2820,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C97" s="4">
         <v>117920000</v>
@@ -2831,7 +2831,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C98" s="4">
         <v>1170756762</v>
@@ -2842,7 +2842,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C99" s="4">
         <v>93042701</v>
@@ -2853,7 +2853,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C100" s="4">
         <v>15000000</v>
@@ -2864,7 +2864,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C101" s="4">
         <v>19542701</v>
@@ -2875,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C102" s="4">
         <v>58500000</v>
@@ -2886,7 +2886,7 @@
         <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C103" s="4">
         <v>435269090</v>
@@ -2897,7 +2897,7 @@
         <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C104" s="4">
         <v>82000000</v>
@@ -2908,7 +2908,7 @@
         <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C105" s="4">
         <v>233000000</v>
@@ -2919,7 +2919,7 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C106" s="4">
         <v>259628210</v>
@@ -2930,7 +2930,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C107" s="4">
         <v>101003101</v>
@@ -2941,7 +2941,7 @@
         <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C108" s="4">
         <v>8084596</v>
@@ -2952,7 +2952,7 @@
         <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C109" s="4">
         <v>27546300</v>
@@ -2963,7 +2963,7 @@
         <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C110" s="4">
         <v>73166702</v>
@@ -2974,7 +2974,7 @@
         <v>99</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C111" s="4">
         <v>22117660</v>
@@ -2985,7 +2985,7 @@
         <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C112" s="4">
         <v>27709851</v>
@@ -2996,7 +2996,7 @@
         <v>99</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C113" s="4">
         <v>67816761</v>
@@ -3007,7 +3007,7 @@
         <v>99</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C114" s="4">
         <v>14000000</v>
@@ -3018,7 +3018,7 @@
         <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C115" s="4">
         <v>7620000</v>
@@ -3029,7 +3029,7 @@
         <v>99</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C116" s="4">
         <v>15963900</v>
@@ -3040,7 +3040,7 @@
         <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C117" s="4">
         <v>19831561</v>
@@ -3051,7 +3051,7 @@
         <v>99</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C118" s="4">
         <v>10401300</v>
@@ -3062,7 +3062,7 @@
         <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C119" s="4">
         <v>2974235985</v>
@@ -3073,7 +3073,7 @@
         <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C120" s="4">
         <v>6193993</v>
@@ -3084,7 +3084,7 @@
         <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C121" s="4">
         <v>906004642</v>
@@ -3095,7 +3095,7 @@
         <v>99</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C122" s="4">
         <v>316927183</v>
@@ -3106,7 +3106,7 @@
         <v>99</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C123" s="4">
         <v>23177779</v>
@@ -3117,7 +3117,7 @@
         <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C124" s="4">
         <v>37205000</v>
@@ -3128,7 +3128,7 @@
         <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C125" s="4">
         <v>80000000</v>
@@ -3139,7 +3139,7 @@
         <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C126" s="4">
         <v>10000000</v>
@@ -3150,7 +3150,7 @@
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C127" s="4">
         <v>43428353</v>
@@ -3161,7 +3161,7 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C128" s="4">
         <v>53724050</v>
@@ -3172,7 +3172,7 @@
         <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C129" s="4">
         <v>300000000</v>
@@ -3183,7 +3183,7 @@
         <v>99</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C130" s="4">
         <v>41542277</v>
@@ -3194,7 +3194,7 @@
         <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C131" s="4">
         <v>215151350</v>
@@ -3205,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C132" s="4">
         <v>1846886000</v>
@@ -3216,7 +3216,7 @@
         <v>99</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C133" s="4">
         <v>648747000</v>
@@ -3227,7 +3227,7 @@
         <v>99</v>
       </c>
       <c r="B134" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C134" s="4">
         <v>19684000</v>
@@ -3238,7 +3238,7 @@
         <v>99</v>
       </c>
       <c r="B135" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C135" s="4">
         <v>200000000</v>
@@ -3249,7 +3249,7 @@
         <v>99</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C136" s="4">
         <v>300000000</v>
@@ -3260,7 +3260,7 @@
         <v>99</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C137" s="4">
         <v>160000000</v>
@@ -3271,7 +3271,7 @@
         <v>99</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C138" s="4">
         <v>15000000</v>
@@ -3282,7 +3282,7 @@
         <v>99</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C139" s="4">
         <v>485000000</v>
@@ -3293,7 +3293,7 @@
         <v>99</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C140" s="4">
         <v>18455000</v>
@@ -3304,7 +3304,7 @@
         <v>99</v>
       </c>
       <c r="B141" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C141" s="4">
         <v>116229592</v>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -1,40 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4784027176d9b30c/_KMONITOR/_KÖKÖ/JÓZSEFVÁROS_KÖKÖ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrnym\OneDrive\Asztali gép\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{E6C61E6A-64E9-4903-9915-7A6217DEA31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43946407-363D-4FB7-A67E-5F1F3D217528}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F72839B-6271-47FD-A125-1CD9981A6210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5FFBDF2-3FC8-479A-A77C-B32FE37E1D3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A5FFBDF2-3FC8-479A-A77C-B32FE37E1D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 BEVÉTEL" sheetId="1" r:id="rId1"/>
     <sheet name="2021 KIADÁS" sheetId="2" r:id="rId2"/>
+    <sheet name="2021 MÓD. BEVÉTEL" sheetId="3" r:id="rId3"/>
+    <sheet name="2021 MÓD. KIADÁS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="281">
   <si>
     <t>2021 BEVÉTEL</t>
   </si>
@@ -655,6 +649,228 @@
   </si>
   <si>
     <t>Társasházak visszatérítendő kölcsönbevétele (B4302)</t>
+  </si>
+  <si>
+    <t>Önkormányzati vagyonhoz (lakás, helyiség) kapcsolódó továbbszámlázott kiadások (K210105)</t>
+  </si>
+  <si>
+    <t>Előző évi kompenzáció utáni, valamint tárgyévi áfabefizetés (K210106)</t>
+  </si>
+  <si>
+    <t>Kerületi közlekedés fejlesztési projektekhez kapcsolódó kiadások (K210107)</t>
+  </si>
+  <si>
+    <t>RÉV8  (K2102)</t>
+  </si>
+  <si>
+    <t>Intézmények befizetési kötelezettségei (K4104)</t>
+  </si>
+  <si>
+    <t>Bárka Színház - visszafizetési kötelezettség (K4205)</t>
+  </si>
+  <si>
+    <t>Roma Nemzetiségi Önkormányzat támogatása (K4206)</t>
+  </si>
+  <si>
+    <t>Nemzetiségi önkormányzatok feladatalapú támogatása (K4207)</t>
+  </si>
+  <si>
+    <t>Népszámláláshoz kapcsolódó visszafizetési kötelezettség (K4208)</t>
+  </si>
+  <si>
+    <t>JGK Zrt. városüzemeltetéis és intézményműködtetési közszolgáltatási szerződéséhez kapcsolódó támogatás (K4305)</t>
+  </si>
+  <si>
+    <t>RÉV8 közszolgáltatási szerződéséhez kapcsolódó támogatás (K4306)</t>
+  </si>
+  <si>
+    <t>JKN Nonprofit Kft. közszolgáltatási szerződéséhez kapcsolódó támogatás (K4307)</t>
+  </si>
+  <si>
+    <t>Turay Ida Színház támogatása  (K4308)</t>
+  </si>
+  <si>
+    <t>Pozitív Élet Alapítvány támogatása  (K4309)</t>
+  </si>
+  <si>
+    <t>Vörösmarty Alapítvány támogatása  (K4310)</t>
+  </si>
+  <si>
+    <t>Eörsi László támogatása - tudományos kötet megjelenésének támogatása (K4311)</t>
+  </si>
+  <si>
+    <t>"Tedd le a kocsit" pályázathoz kapcsolódó támogatások (K4312)</t>
+  </si>
+  <si>
+    <t>Muzsikus cigányok parkjában emléktábla elhelyezése (koronavírus áldozatainak emlékére) (K5712)</t>
+  </si>
+  <si>
+    <t>Kerékpártárolók léteítése  (K5713)</t>
+  </si>
+  <si>
+    <t>Nemzetiségi Önkormányzatok új telephelyének kialakítása (K5714)</t>
+  </si>
+  <si>
+    <t>Köztér teremtés - tervezés és kivitelezés (Népszínház u.csomópontok, Békési u., Bacsó B.u.) (K5715)</t>
+  </si>
+  <si>
+    <t>Köztér teremtés - tervezés és kivitelezés (Losonci parkoló.) (K5716)</t>
+  </si>
+  <si>
+    <t>Mikszáth téri szökőkút kialakítása (K5717)</t>
+  </si>
+  <si>
+    <t>II János Pál Pápa téren akadálymentes , öntisztító, 3 fülkés nyilvános illemhely kialakítása (K5718)</t>
+  </si>
+  <si>
+    <t>Forgalomtechnikai felülvizsgálatok - közlekedésbiztonság (mellékutcai forgalomcsillapítás, sebességcsökkentés, kerékpározás elősegítése) (K5719)</t>
+  </si>
+  <si>
+    <t>Gyalogosátkelőhelyek létesítése - Orczy út (K5720)</t>
+  </si>
+  <si>
+    <t>Szeszgyár köz megnyitása zöld sétánnyá (Visy u. - Kőris u.között) (K5721)</t>
+  </si>
+  <si>
+    <t>Köztér teremtés - tervezés és kivitelezés (Kiscsibesz tér - Horváth Mihály tér és csatlakozó helyszínek) (K5722)</t>
+  </si>
+  <si>
+    <t>Zöldfelület kialakítás tervezése (K5723)</t>
+  </si>
+  <si>
+    <t>Hungária körút 30/A orvosi rendelőbe bútor beszerzés (K5724)</t>
+  </si>
+  <si>
+    <t>Tömő utca 38. sz. alatti Csodasziget Tagóvoda belsőudvari terület beépítése tervezése (K5725)</t>
+  </si>
+  <si>
+    <t>Gutemberg tér 3.szám alatti orvosi rendelő kivitelezéséhez kapcsolódó pótmunkák kiadása (K5726)</t>
+  </si>
+  <si>
+    <t>Bláthy Ottó utca - új közpark kialakítása - ELMŰ felhasználási hely csatlakozási díj (K5727)</t>
+  </si>
+  <si>
+    <t>Mobiltelefonok beszerzése (K5728)</t>
+  </si>
+  <si>
+    <t>Önkormányzati lakóházak, bérlakások felújítása (K62)</t>
+  </si>
+  <si>
+    <t>100%-os önkormányzati tulajdonú lakóházak felújítása (K6201)</t>
+  </si>
+  <si>
+    <t>Önkormányzat lakások felújítása (K6202)</t>
+  </si>
+  <si>
+    <t>Önkormányzat lakások felújítása - előző évről áthúzódó felújítás költsége (K6203)</t>
+  </si>
+  <si>
+    <t>Önkormányzat lakóházak kiürítésének költségei, cserelakás felújítás (K63)</t>
+  </si>
+  <si>
+    <t>Tömő u. 23/a. és 23/b. épület kiürítés költségei (K6301)</t>
+  </si>
+  <si>
+    <t>Bérkocsis u. 30. szám alatti épület kiürítéséhez kapcsolódó kiadások (K6302)</t>
+  </si>
+  <si>
+    <t>Tolnai L. u. 37.szám alatti épület kiürítéséhez kapcsolódó kiadások (K6303)</t>
+  </si>
+  <si>
+    <t>Kálvária tér 13. felújítása - Magdolna-Orczy projekt részeként (K6507)</t>
+  </si>
+  <si>
+    <t>Dobozi utca felújításának újratervezése (K6606)</t>
+  </si>
+  <si>
+    <t>Útfelújítások tervezetése - Szeszgyár u. (Baross - Visy , Bródy, Krúdy) (K6607)</t>
+  </si>
+  <si>
+    <t>Horváth Mihály tér részleges felújítása (Németh u.-Horváth M.tér 16.között ) (K6608)</t>
+  </si>
+  <si>
+    <t>Lakások esetén bérbeszámítás (értéknövelő munkálatok esetén) (K6609)</t>
+  </si>
+  <si>
+    <t>Tolnai Lajos utca felújítása (K6610)</t>
+  </si>
+  <si>
+    <t>Losonci téri Általános Iskola 1083 Budapest Losonci tér 1. tornaterem felújítás (K6611)</t>
+  </si>
+  <si>
+    <t>Önkormányzati tualjdonú útpályák, járdaszakaszok és hozzátartozó útszegélyek felújítása (K6612)</t>
+  </si>
+  <si>
+    <t>Illés utca (Baross utca és Korányi Sándor utca közötti szakasz) útfelújítás tervezése (K6613)</t>
+  </si>
+  <si>
+    <t>Losonci téri Általános Iskola sportudvar felújítása (K6614)</t>
+  </si>
+  <si>
+    <t>Molnár Ferenc Magyar-Angol Két Tanítási Nyelvű Általános Iskola tornatermének felújítása TAO pályázat (K6615)</t>
+  </si>
+  <si>
+    <t>Józsefvárosi Egységes Gyógypedagógiai Módszertani Intézmény és Általános Iskola sportudvarának felújítása (Tolnai u.11.)  (K6616)</t>
+  </si>
+  <si>
+    <t>Bláthy Park kialakítása (K6618)</t>
+  </si>
+  <si>
+    <t>Fővárosi Önkormányzatnak részletfizetés szerződés alapján (K7101)</t>
+  </si>
+  <si>
+    <t>Káptalanfüredi projekt elszámolásához kapcsolódó visszafizetési kötelezettség (K7102)</t>
+  </si>
+  <si>
+    <t>Magdolna-Orczy projekthez kapcsolódó visszafizetési kötelezettség fel nem használt kiadások miatt (K7103)</t>
+  </si>
+  <si>
+    <t>Józsefvárosi Gazdálkodási Központ Zrt. közszolgáltatási szerződéshez kapcsolódó felhalmozási támogatás (K7203)</t>
+  </si>
+  <si>
+    <t>"Tedd le a kocsit" pályázathoz kapcsolódó támogatások (K7204)</t>
+  </si>
+  <si>
+    <t>Társasházi közös költség és felújítási alap (K7205)</t>
+  </si>
+  <si>
+    <t>Lakásbérleti jogviszony megváltása (K7206)</t>
+  </si>
+  <si>
+    <t>Otthon-felújítási támogatás  (K7207)</t>
+  </si>
+  <si>
+    <t>Társasházi támogatások - Csarnok negyed főutcája - DériM Projekt (K7208)</t>
+  </si>
+  <si>
+    <t>Corvin Áruház Ingatlanhasznosító Korlátolt Felelősségű Társaság (K7209)</t>
+  </si>
+  <si>
+    <t>Európa Belvárosa Projekt III. - társasházi felújítások, előkészítések (K7210)</t>
+  </si>
+  <si>
+    <t>Budapest Külső-Józsefvárosi Református Egyházközösség támogatása - templom felújítás (K7211)</t>
+  </si>
+  <si>
+    <t>Társasházi támogatások céltartalék (K7409)</t>
+  </si>
+  <si>
+    <t>Előző évek után járó pótlólagos állami támogatás (B1105)</t>
+  </si>
+  <si>
+    <t>Szociális ágazati összevont pótlék (B1106)</t>
+  </si>
+  <si>
+    <t>Elvonások és befizetések bevételei (B14)</t>
+  </si>
+  <si>
+    <t>JKN és JGK  - előző évi kompenzáció visszafizetés (B3202)</t>
+  </si>
+  <si>
+    <t>Egyéb felhalmozási célú átvett pénzeszköz (B44)</t>
+  </si>
+  <si>
+    <t>Központi finanszírozási előleg (B53)</t>
   </si>
 </sst>
 </file>
@@ -1026,22 +1242,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CA9AEA-E1B4-4D04-A721-BE3256AB9353}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="68.7265625" customWidth="1"/>
     <col min="3" max="3" width="34" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>99</v>
       </c>
@@ -1063,7 +1279,7 @@
         <v>5355746549</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>99</v>
       </c>
@@ -1074,7 +1290,7 @@
         <v>2905739806</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>99</v>
       </c>
@@ -1085,7 +1301,7 @@
         <v>883436291</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>99</v>
       </c>
@@ -1096,7 +1312,7 @@
         <v>652236750</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>99</v>
       </c>
@@ -1107,7 +1323,7 @@
         <v>231199541</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>99</v>
       </c>
@@ -1118,7 +1334,7 @@
         <v>840353150</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -1129,7 +1345,7 @@
         <v>732920950</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>99</v>
       </c>
@@ -1140,7 +1356,7 @@
         <v>107432200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>99</v>
       </c>
@@ -1151,7 +1367,7 @@
         <v>1142297325</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>99</v>
       </c>
@@ -1162,7 +1378,7 @@
         <v>186027960</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>99</v>
       </c>
@@ -1173,7 +1389,7 @@
         <v>459104000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>99</v>
       </c>
@@ -1184,7 +1400,7 @@
         <v>34843059</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>99</v>
       </c>
@@ -1195,7 +1411,7 @@
         <v>91329520</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>99</v>
       </c>
@@ -1206,7 +1422,7 @@
         <v>370268316</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>99</v>
       </c>
@@ -1217,7 +1433,7 @@
         <v>724470</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>99</v>
       </c>
@@ -1228,7 +1444,7 @@
         <v>39653040</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>99</v>
       </c>
@@ -1239,7 +1455,7 @@
         <v>2407575000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>99</v>
       </c>
@@ -1250,7 +1466,7 @@
         <v>42431743</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>99</v>
       </c>
@@ -1261,7 +1477,7 @@
         <v>7757289000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>99</v>
       </c>
@@ -1272,7 +1488,7 @@
         <v>7454147000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>99</v>
       </c>
@@ -1283,7 +1499,7 @@
         <v>59682000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>99</v>
       </c>
@@ -1294,7 +1510,7 @@
         <v>2579917000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>99</v>
       </c>
@@ -1305,7 +1521,7 @@
         <v>4522392000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>99</v>
       </c>
@@ -1316,7 +1532,7 @@
         <v>105732000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>99</v>
       </c>
@@ -1327,7 +1543,7 @@
         <v>173000000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>99</v>
       </c>
@@ -1338,7 +1554,7 @@
         <v>13424000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>99</v>
       </c>
@@ -1349,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>99</v>
       </c>
@@ -1360,7 +1576,7 @@
         <v>303142000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>99</v>
       </c>
@@ -1371,7 +1587,7 @@
         <v>4357415508</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>99</v>
       </c>
@@ -1382,7 +1598,7 @@
         <v>4111741350</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>99</v>
       </c>
@@ -1393,7 +1609,7 @@
         <v>2872511361</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>99</v>
       </c>
@@ -1404,7 +1620,7 @@
         <v>1172102079</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>99</v>
       </c>
@@ -1415,7 +1631,7 @@
         <v>592913000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>99</v>
       </c>
@@ -1426,7 +1642,7 @@
         <v>686400000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>99</v>
       </c>
@@ -1437,7 +1653,7 @@
         <v>80228181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>99</v>
       </c>
@@ -1448,7 +1664,7 @@
         <v>56722503</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>99</v>
       </c>
@@ -1459,7 +1675,7 @@
         <v>284145598</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>99</v>
       </c>
@@ -1470,7 +1686,7 @@
         <v>134038000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>99</v>
       </c>
@@ -1481,7 +1697,7 @@
         <v>690708894</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>99</v>
       </c>
@@ -1492,7 +1708,7 @@
         <v>76081000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>99</v>
       </c>
@@ -1503,7 +1719,7 @@
         <v>172669000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>99</v>
       </c>
@@ -1514,7 +1730,7 @@
         <v>165733095</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>99</v>
       </c>
@@ -1525,7 +1741,7 @@
         <v>245674158</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>99</v>
       </c>
@@ -1536,7 +1752,7 @@
         <v>14886000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>99</v>
       </c>
@@ -1547,7 +1763,7 @@
         <v>134928814</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>99</v>
       </c>
@@ -1558,7 +1774,7 @@
         <v>95859344</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>99</v>
       </c>
@@ -1569,7 +1785,7 @@
         <v>2638243021</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>99</v>
       </c>
@@ -1580,7 +1796,7 @@
         <v>1992679007</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>99</v>
       </c>
@@ -1591,7 +1807,7 @@
         <v>428000000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>99</v>
       </c>
@@ -1602,7 +1818,7 @@
         <v>160000000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>99</v>
       </c>
@@ -1613,7 +1829,7 @@
         <v>253937007</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>99</v>
       </c>
@@ -1624,7 +1840,7 @@
         <v>1150742000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>99</v>
       </c>
@@ -1635,7 +1851,7 @@
         <v>395286014</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>99</v>
       </c>
@@ -1646,7 +1862,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>99</v>
       </c>
@@ -1657,7 +1873,7 @@
         <v>270000000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>99</v>
       </c>
@@ -1668,7 +1884,7 @@
         <v>86036014</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>99</v>
       </c>
@@ -1679,7 +1895,7 @@
         <v>250278000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>99</v>
       </c>
@@ -1690,7 +1906,7 @@
         <v>278000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>99</v>
       </c>
@@ -1701,7 +1917,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>99</v>
       </c>
@@ -1712,7 +1928,7 @@
         <v>8030774463</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>99</v>
       </c>
@@ -1723,7 +1939,7 @@
         <v>4117832424</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>99</v>
       </c>
@@ -1734,7 +1950,7 @@
         <v>3912942039</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>99</v>
       </c>
@@ -1758,19 +1974,19 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.1796875" customWidth="1"/>
     <col min="3" max="3" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>99</v>
       </c>
@@ -1792,7 +2008,7 @@
         <v>7704289861</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>99</v>
       </c>
@@ -1803,7 +2019,7 @@
         <v>277167630</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>99</v>
       </c>
@@ -1814,7 +2030,7 @@
         <v>1878168231</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>99</v>
       </c>
@@ -1825,7 +2041,7 @@
         <v>1157279000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>99</v>
       </c>
@@ -1836,7 +2052,7 @@
         <v>893865000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>99</v>
       </c>
@@ -1847,7 +2063,7 @@
         <v>2227121000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>99</v>
       </c>
@@ -1858,7 +2074,7 @@
         <v>1270689000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>99</v>
       </c>
@@ -1869,7 +2085,7 @@
         <v>7439824109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>99</v>
       </c>
@@ -1880,7 +2096,7 @@
         <v>5363538343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>99</v>
       </c>
@@ -1891,7 +2107,7 @@
         <v>4353154945</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>99</v>
       </c>
@@ -1902,7 +2118,7 @@
         <v>801068498</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>99</v>
       </c>
@@ -1913,7 +2129,7 @@
         <v>171022800</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>99</v>
       </c>
@@ -1924,7 +2140,7 @@
         <v>45765000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>99</v>
       </c>
@@ -1935,7 +2151,7 @@
         <v>2921279930</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>99</v>
       </c>
@@ -1946,7 +2162,7 @@
         <v>414018717</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>99</v>
       </c>
@@ -1957,7 +2173,7 @@
         <v>7290000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>99</v>
       </c>
@@ -1968,7 +2184,7 @@
         <v>1003093398</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>99</v>
       </c>
@@ -1979,7 +2195,7 @@
         <v>445083086</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>99</v>
       </c>
@@ -1990,7 +2206,7 @@
         <v>927108680</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>99</v>
       </c>
@@ -2001,7 +2217,7 @@
         <v>233671000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>99</v>
       </c>
@@ -2012,7 +2228,7 @@
         <v>366866000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>99</v>
       </c>
@@ -2023,7 +2239,7 @@
         <v>103557000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>99</v>
       </c>
@@ -2034,7 +2250,7 @@
         <v>119429000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>99</v>
       </c>
@@ -2045,7 +2261,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>99</v>
       </c>
@@ -2056,7 +2272,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>99</v>
       </c>
@@ -2067,7 +2283,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>99</v>
       </c>
@@ -2078,7 +2294,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>99</v>
       </c>
@@ -2089,7 +2305,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>99</v>
       </c>
@@ -2100,7 +2316,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>99</v>
       </c>
@@ -2111,7 +2327,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>99</v>
       </c>
@@ -2122,7 +2338,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>99</v>
       </c>
@@ -2133,7 +2349,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>99</v>
       </c>
@@ -2144,7 +2360,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>99</v>
       </c>
@@ -2155,7 +2371,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>99</v>
       </c>
@@ -2166,7 +2382,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>99</v>
       </c>
@@ -2177,7 +2393,7 @@
         <v>1229000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>99</v>
       </c>
@@ -2188,7 +2404,7 @@
         <v>4374934878</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>99</v>
       </c>
@@ -2199,7 +2415,7 @@
         <v>990715951</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>99</v>
       </c>
@@ -2210,7 +2426,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>99</v>
       </c>
@@ -2221,7 +2437,7 @@
         <v>946890950</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>99</v>
       </c>
@@ -2232,7 +2448,7 @@
         <v>6825001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>99</v>
       </c>
@@ -2243,7 +2459,7 @@
         <v>126150000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>99</v>
       </c>
@@ -2254,7 +2470,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>99</v>
       </c>
@@ -2265,7 +2481,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>99</v>
       </c>
@@ -2276,7 +2492,7 @@
         <v>65000000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>99</v>
       </c>
@@ -2287,7 +2503,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>99</v>
       </c>
@@ -2298,7 +2514,7 @@
         <v>2117072473</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>99</v>
       </c>
@@ -2309,7 +2525,7 @@
         <v>6514000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>99</v>
       </c>
@@ -2320,7 +2536,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>99</v>
       </c>
@@ -2331,7 +2547,7 @@
         <v>3896000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>99</v>
       </c>
@@ -2342,7 +2558,7 @@
         <v>37743688</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>99</v>
       </c>
@@ -2353,7 +2569,7 @@
         <v>1346110300</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>99</v>
       </c>
@@ -2364,7 +2580,7 @@
         <v>122142564</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>99</v>
       </c>
@@ -2375,7 +2591,7 @@
         <v>599665921</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>99</v>
       </c>
@@ -2386,7 +2602,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>99</v>
       </c>
@@ -2397,7 +2613,7 @@
         <v>940996454</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>99</v>
       </c>
@@ -2408,7 +2624,7 @@
         <v>4239768354</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>99</v>
       </c>
@@ -2419,7 +2635,7 @@
         <v>138127905</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>99</v>
       </c>
@@ -2430,7 +2646,7 @@
         <v>61511285</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>99</v>
       </c>
@@ -2441,7 +2657,7 @@
         <v>54998620</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>99</v>
       </c>
@@ -2452,7 +2668,7 @@
         <v>10618000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>99</v>
       </c>
@@ -2463,7 +2679,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>99</v>
       </c>
@@ -2474,7 +2690,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>99</v>
       </c>
@@ -2485,7 +2701,7 @@
         <v>992233000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>99</v>
       </c>
@@ -2496,7 +2712,7 @@
         <v>618482000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>99</v>
       </c>
@@ -2507,7 +2723,7 @@
         <v>357751000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>99</v>
       </c>
@@ -2518,7 +2734,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>99</v>
       </c>
@@ -2529,7 +2745,7 @@
         <v>1745838302</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>99</v>
       </c>
@@ -2540,7 +2756,7 @@
         <v>514817652</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>99</v>
       </c>
@@ -2551,7 +2767,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>99</v>
       </c>
@@ -2562,7 +2778,7 @@
         <v>165540000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>99</v>
       </c>
@@ -2573,7 +2789,7 @@
         <v>50000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>99</v>
       </c>
@@ -2584,7 +2800,7 @@
         <v>35000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>99</v>
       </c>
@@ -2595,7 +2811,7 @@
         <v>14277650</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>99</v>
       </c>
@@ -2606,7 +2822,7 @@
         <v>29784479</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>99</v>
       </c>
@@ -2617,7 +2833,7 @@
         <v>582511100</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>99</v>
       </c>
@@ -2628,7 +2844,7 @@
         <v>119773700</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>99</v>
       </c>
@@ -2639,7 +2855,7 @@
         <v>787400</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>99</v>
       </c>
@@ -2650,7 +2866,7 @@
         <v>341633834</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>99</v>
       </c>
@@ -2661,7 +2877,7 @@
         <v>24613830</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>99</v>
       </c>
@@ -2672,7 +2888,7 @@
         <v>82277166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>99</v>
       </c>
@@ -2683,7 +2899,7 @@
         <v>13425170</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>99</v>
       </c>
@@ -2694,7 +2910,7 @@
         <v>118535916</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>99</v>
       </c>
@@ -2705,7 +2921,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>99</v>
       </c>
@@ -2716,7 +2932,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>99</v>
       </c>
@@ -2727,7 +2943,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>99</v>
       </c>
@@ -2738,7 +2954,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>99</v>
       </c>
@@ -2749,7 +2965,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>99</v>
       </c>
@@ -2760,7 +2976,7 @@
         <v>17490343</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>99</v>
       </c>
@@ -2771,7 +2987,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>99</v>
       </c>
@@ -2782,7 +2998,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>99</v>
       </c>
@@ -2793,7 +3009,7 @@
         <v>1077000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>99</v>
       </c>
@@ -2804,7 +3020,7 @@
         <v>13268573</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>99</v>
       </c>
@@ -2815,7 +3031,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>99</v>
       </c>
@@ -2826,7 +3042,7 @@
         <v>117920000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>99</v>
       </c>
@@ -2837,7 +3053,7 @@
         <v>1170756762</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>99</v>
       </c>
@@ -2848,7 +3064,7 @@
         <v>93042701</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2859,7 +3075,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -2870,7 +3086,7 @@
         <v>19542701</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>99</v>
       </c>
@@ -2881,7 +3097,7 @@
         <v>58500000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>99</v>
       </c>
@@ -2892,7 +3108,7 @@
         <v>435269090</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>99</v>
       </c>
@@ -2903,7 +3119,7 @@
         <v>82000000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>99</v>
       </c>
@@ -2914,7 +3130,7 @@
         <v>233000000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>99</v>
       </c>
@@ -2925,7 +3141,7 @@
         <v>259628210</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>99</v>
       </c>
@@ -2936,7 +3152,7 @@
         <v>101003101</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>99</v>
       </c>
@@ -2947,7 +3163,7 @@
         <v>8084596</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>99</v>
       </c>
@@ -2958,7 +3174,7 @@
         <v>27546300</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>99</v>
       </c>
@@ -2969,7 +3185,7 @@
         <v>73166702</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>99</v>
       </c>
@@ -2980,7 +3196,7 @@
         <v>22117660</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>99</v>
       </c>
@@ -2991,7 +3207,7 @@
         <v>27709851</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>99</v>
       </c>
@@ -3002,7 +3218,7 @@
         <v>67816761</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>99</v>
       </c>
@@ -3013,7 +3229,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>99</v>
       </c>
@@ -3024,7 +3240,7 @@
         <v>7620000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>99</v>
       </c>
@@ -3035,7 +3251,7 @@
         <v>15963900</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>99</v>
       </c>
@@ -3046,7 +3262,7 @@
         <v>19831561</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>99</v>
       </c>
@@ -3057,7 +3273,7 @@
         <v>10401300</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>99</v>
       </c>
@@ -3068,7 +3284,7 @@
         <v>2974235985</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>99</v>
       </c>
@@ -3079,7 +3295,7 @@
         <v>6193993</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>99</v>
       </c>
@@ -3090,7 +3306,7 @@
         <v>906004642</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>99</v>
       </c>
@@ -3101,7 +3317,7 @@
         <v>316927183</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>99</v>
       </c>
@@ -3112,7 +3328,7 @@
         <v>23177779</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>99</v>
       </c>
@@ -3123,7 +3339,7 @@
         <v>37205000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>99</v>
       </c>
@@ -3134,7 +3350,7 @@
         <v>80000000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>99</v>
       </c>
@@ -3145,7 +3361,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>99</v>
       </c>
@@ -3156,7 +3372,7 @@
         <v>43428353</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>99</v>
       </c>
@@ -3167,7 +3383,7 @@
         <v>53724050</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>99</v>
       </c>
@@ -3178,7 +3394,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>99</v>
       </c>
@@ -3189,7 +3405,7 @@
         <v>41542277</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>99</v>
       </c>
@@ -3200,7 +3416,7 @@
         <v>215151350</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>99</v>
       </c>
@@ -3211,7 +3427,7 @@
         <v>1846886000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>99</v>
       </c>
@@ -3222,7 +3438,7 @@
         <v>648747000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>99</v>
       </c>
@@ -3233,7 +3449,7 @@
         <v>19684000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>99</v>
       </c>
@@ -3244,7 +3460,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>99</v>
       </c>
@@ -3255,7 +3471,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>99</v>
       </c>
@@ -3266,7 +3482,7 @@
         <v>160000000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>99</v>
       </c>
@@ -3277,7 +3493,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>99</v>
       </c>
@@ -3288,7 +3504,7 @@
         <v>485000000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>99</v>
       </c>
@@ -3299,7 +3515,7 @@
         <v>18455000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>99</v>
       </c>
@@ -3310,188 +3526,3121 @@
         <v>116229592</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1ACC06-EE58-465F-9F47-13273DBCBC73}">
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="79.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5686045174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3098356915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>883436291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>652236750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>231199541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>840353150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>732920950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>107432200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1142297325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>186027960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>459104000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34843059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>91329520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>370268316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>724470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>39653040</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="4">
+        <v>93212592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="4">
+        <v>99404517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2407575000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30168651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="4">
+        <v>149944608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7757289000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7454147000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>59682000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2579917000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4522392000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>105732000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>173000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13424000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>303142000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4644155748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4399288071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2887233245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1172102079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="4">
+        <v>592913000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="4">
+        <v>686400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="4">
+        <v>93130865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" s="4">
+        <v>56722503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="4">
+        <v>285964798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4">
+        <v>134038000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4">
+        <v>742594304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="4">
+        <v>76081000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="4">
+        <v>290701283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4">
+        <v>268640239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="4">
+        <v>244867677</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="4">
+        <v>14886000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="4">
+        <v>134062333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="4">
+        <v>95859344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2641243021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1992679007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="4">
+        <v>428000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4">
+        <v>160000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="4">
+        <v>253937007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1150742000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="4">
+        <v>395286014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="4">
+        <v>39250000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="4">
+        <v>270000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="4">
+        <v>86036014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="4">
+        <v>250278000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="4">
+        <v>278000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="4">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="4">
+        <v>10957939052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="4">
+        <v>5993840000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="4">
+        <v>4929765280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="4">
+        <v>34333772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="4">
+        <v>10807375688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FAE5AF-FF11-4980-8695-E2EE00A45071}">
+  <dimension ref="A1:C194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="85.7265625" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7912677057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4">
+        <v>296347025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1880663504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1246956781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4">
+        <v>910699410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2306213000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1271797337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8455241982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6300030075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5169818105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1100972756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4">
+        <v>181685830</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4">
+        <v>49970611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1240572786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2072233026</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="4">
+        <v>450383096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="4">
+        <v>74000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="4">
+        <v>51231859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1078980111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4">
+        <v>447175916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4">
+        <v>969133932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4">
+        <v>223912624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4">
+        <v>409012704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4">
+        <v>105976731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4">
+        <v>129429000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4">
+        <v>29000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="4">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="4">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="4">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1229000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6135999506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1188280517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="4">
+        <v>86300000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="4">
+        <v>946890950</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="4">
+        <v>6825001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="4">
+        <v>148264566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="4">
+        <v>297864302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2650000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4">
+        <v>59867818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="4">
+        <v>78979178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4">
+        <v>18500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4">
+        <v>57333191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="4">
+        <v>9188928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7606623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>99</v>
+      </c>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="4">
+        <v>63738564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2187826384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="4">
+        <v>6514000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="4">
+        <v>3896000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="4">
+        <v>37743688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1424398511</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>99</v>
+      </c>
+      <c r="B62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="4">
+        <v>122142564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="4">
+        <v>588717921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>99</v>
+      </c>
+      <c r="B64" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="4">
+        <v>651700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>99</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="4">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>99</v>
+      </c>
+      <c r="B68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="4">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="4">
+        <v>234000218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>99</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2228028085</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2721260976</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="4">
+        <v>233755102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="4">
+        <v>145321285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="4">
+        <v>55658720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>99</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="4">
+        <v>12389167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>99</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="4">
+        <v>8114000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="4">
+        <v>12271930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="4">
+        <v>992233000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="4">
+        <v>618482000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="4">
+        <v>357751000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="4">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="4">
+        <v>514817652</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="4">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>99</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="4">
+        <v>165540000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="4">
+        <v>50000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="4">
+        <v>35000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>99</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="4">
+        <v>14277650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="4">
+        <v>30392980</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="4">
+        <v>582511100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="4">
+        <v>119773700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="4">
+        <v>787400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="4">
+        <v>351206563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="4">
+        <v>15041101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="4">
+        <v>82277166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="4">
+        <v>13425170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="4">
+        <v>249631142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="4">
+        <v>38000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="4">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="4">
+        <v>12700000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="4">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="4">
+        <v>17490343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>149</v>
+      </c>
+      <c r="C104" s="4">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>99</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="4">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>99</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1077000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="4">
+        <v>13268573</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>99</v>
+      </c>
+      <c r="B109" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="4">
+        <v>241630</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>99</v>
+      </c>
+      <c r="B110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>99</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="4">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="4">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="4">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>99</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="4">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>99</v>
+      </c>
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="4">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>99</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="4">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>99</v>
+      </c>
+      <c r="B121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="4">
+        <v>2114272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>99</v>
+      </c>
+      <c r="B122" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" s="4">
+        <v>3810000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>99</v>
+      </c>
+      <c r="B123" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" s="4">
+        <v>2197929</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="4">
+        <v>950976</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>99</v>
+      </c>
+      <c r="B125" t="s">
+        <v>240</v>
+      </c>
+      <c r="C125" s="4">
+        <v>480419</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>99</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="4">
+        <v>117920000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>99</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="4">
+        <v>1517660705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>99</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="4">
+        <v>79670401</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>99</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="4">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>99</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="4">
+        <v>15775186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>99</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="4">
+        <v>48895215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>99</v>
+      </c>
+      <c r="B132" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" s="4">
+        <v>517269090</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>99</v>
+      </c>
+      <c r="B133" t="s">
+        <v>242</v>
+      </c>
+      <c r="C133" s="4">
+        <v>82000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>99</v>
+      </c>
+      <c r="B134" t="s">
+        <v>243</v>
+      </c>
+      <c r="C134" s="4">
+        <v>310000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>99</v>
+      </c>
+      <c r="B135" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="4">
+        <v>125269090</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>99</v>
+      </c>
+      <c r="B136" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="4">
+        <v>387864760</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>99</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="4">
+        <v>231714760</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>99</v>
+      </c>
+      <c r="B138" t="s">
+        <v>247</v>
+      </c>
+      <c r="C138" s="4">
+        <v>103750000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <v>99</v>
+      </c>
+      <c r="B139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" s="4">
+        <v>52400000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>99</v>
+      </c>
+      <c r="B140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="4">
+        <v>275409051</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <v>99</v>
+      </c>
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="4">
+        <v>101003101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>99</v>
+      </c>
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="4">
+        <v>8084596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <v>99</v>
+      </c>
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+      <c r="C143" s="4">
+        <v>36361116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <v>99</v>
+      </c>
+      <c r="B144" t="s">
+        <v>167</v>
+      </c>
+      <c r="C144" s="4">
+        <v>73166702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>99</v>
+      </c>
+      <c r="B145" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="4">
+        <v>22405746</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>99</v>
+      </c>
+      <c r="B146" t="s">
+        <v>169</v>
+      </c>
+      <c r="C146" s="4">
+        <v>27709851</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>99</v>
+      </c>
+      <c r="B147" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" s="4">
+        <v>6677939</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>99</v>
+      </c>
+      <c r="B148" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148" s="4">
+        <v>257447403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
+        <v>99</v>
+      </c>
+      <c r="B149" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="4">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="4">
+        <v>7620000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>99</v>
+      </c>
+      <c r="B151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="4">
+        <v>15963900</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <v>99</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" s="4">
+        <v>19831561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <v>99</v>
+      </c>
+      <c r="B153" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153" s="4">
+        <v>10401300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>99</v>
+      </c>
+      <c r="B154" t="s">
+        <v>250</v>
+      </c>
+      <c r="C154" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <v>99</v>
+      </c>
+      <c r="B155" t="s">
+        <v>251</v>
+      </c>
+      <c r="C155" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>99</v>
+      </c>
+      <c r="B156" t="s">
+        <v>252</v>
+      </c>
+      <c r="C156" s="4">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <v>99</v>
+      </c>
+      <c r="B157" t="s">
+        <v>253</v>
+      </c>
+      <c r="C157" s="4">
+        <v>5664200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>99</v>
+      </c>
+      <c r="B158" t="s">
+        <v>254</v>
+      </c>
+      <c r="C158" s="4">
+        <v>4764349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
+        <v>99</v>
+      </c>
+      <c r="B159" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" s="4">
+        <v>11256835</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
+        <v>99</v>
+      </c>
+      <c r="B160" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="4">
+        <v>8345857</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
+        <v>99</v>
+      </c>
+      <c r="B161" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" s="4">
+        <v>1720850</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>99</v>
+      </c>
+      <c r="B162" t="s">
+        <v>258</v>
+      </c>
+      <c r="C162" s="4">
+        <v>14437105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>99</v>
+      </c>
+      <c r="B163" t="s">
+        <v>259</v>
+      </c>
+      <c r="C163" s="4">
+        <v>23409154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>99</v>
+      </c>
+      <c r="B164" t="s">
+        <v>260</v>
+      </c>
+      <c r="C164" s="4">
+        <v>11010900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>99</v>
+      </c>
+      <c r="B165" t="s">
+        <v>261</v>
+      </c>
+      <c r="C165" s="4">
+        <v>19021392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
+        <v>99</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" s="4">
+        <v>4663839405</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
+        <v>99</v>
+      </c>
+      <c r="B167" t="s">
+        <v>177</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2130387693</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
+        <v>99</v>
+      </c>
+      <c r="B168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" s="4">
+        <v>470783</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
+        <v>99</v>
+      </c>
+      <c r="B169" t="s">
+        <v>263</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2124193700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>99</v>
+      </c>
+      <c r="B170" t="s">
+        <v>264</v>
+      </c>
+      <c r="C170" s="4">
+        <v>5723210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>99</v>
+      </c>
+      <c r="B171" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" s="4">
+        <v>963374444</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>99</v>
+      </c>
+      <c r="B172" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" s="4">
+        <v>315334363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>99</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="4">
+        <v>23177779</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
+        <v>99</v>
+      </c>
+      <c r="B174" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" s="4">
+        <v>88256900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>99</v>
+      </c>
+      <c r="B175" t="s">
+        <v>266</v>
+      </c>
+      <c r="C175" s="4">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>99</v>
+      </c>
+      <c r="B176" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" s="4">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>99</v>
+      </c>
+      <c r="B177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C177" s="4">
+        <v>11402993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>99</v>
+      </c>
+      <c r="B178" t="s">
+        <v>269</v>
+      </c>
+      <c r="C178" s="4">
+        <v>43428353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>99</v>
+      </c>
+      <c r="B179" t="s">
+        <v>270</v>
+      </c>
+      <c r="C179" s="4">
+        <v>53724050</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>99</v>
+      </c>
+      <c r="B180" t="s">
+        <v>271</v>
+      </c>
+      <c r="C180" s="4">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>99</v>
+      </c>
+      <c r="B181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C181" s="4">
+        <v>44900006</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>99</v>
+      </c>
+      <c r="B182" t="s">
+        <v>273</v>
+      </c>
+      <c r="C182" s="4">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>99</v>
+      </c>
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="4">
+        <v>216744170</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>99</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="4">
+        <v>1353333098</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>99</v>
+      </c>
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="4">
+        <v>648747000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>99</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" s="4">
+        <v>10581098</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>99</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187" s="4">
+        <v>43850000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>99</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>99</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="4">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>99</v>
+      </c>
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>99</v>
+      </c>
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="4">
+        <v>241700000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>99</v>
+      </c>
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" s="4">
+        <v>18455000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>99</v>
+      </c>
+      <c r="B193" t="s">
+        <v>274</v>
+      </c>
+      <c r="C193" s="4">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>99</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194" s="4">
+        <v>150563364</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="544">
   <si>
     <t xml:space="preserve">2020 BEVÉTEL</t>
   </si>
@@ -1814,7 +1814,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1931,6 +1931,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1949,13 +1953,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W240"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.11"/>
@@ -7169,13 +7173,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W358"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.67"/>
@@ -13392,13 +13396,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C255"/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96"/>
@@ -15555,13 +15559,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BG403"/>
+  <dimension ref="A1:BG1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.11"/>
@@ -19577,11 +19581,11 @@
   </sheetPr>
   <dimension ref="A1:E1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.66"/>
@@ -23384,19 +23388,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BD1076"/>
+  <dimension ref="A1:BC1076"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="bottomLeft" activeCell="AM281" activeCellId="0" sqref="AM281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23524,54 +23529,51 @@
         <v>275</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>271</v>
+        <v>417</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>419</v>
+        <v>228</v>
       </c>
       <c r="BA2" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="BB2" s="0" t="s">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="BC2" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="BD2" s="0" t="s">
         <v>421</v>
       </c>
     </row>
@@ -26749,58 +26751,55 @@
       <c r="AL281" s="28" t="n">
         <v>16829217</v>
       </c>
-      <c r="AM281" s="28" t="n">
-        <v>148956631</v>
+      <c r="AM281" s="29" t="n">
+        <v>637266631</v>
       </c>
       <c r="AN281" s="28" t="n">
-        <v>488310000</v>
+        <v>346130086</v>
       </c>
       <c r="AO281" s="28" t="n">
-        <v>346130086</v>
+        <v>68476917</v>
       </c>
       <c r="AP281" s="28" t="n">
-        <v>68476917</v>
+        <v>33477058</v>
       </c>
       <c r="AQ281" s="28" t="n">
-        <v>33477058</v>
+        <v>66977739</v>
       </c>
       <c r="AR281" s="28" t="n">
-        <v>66977739</v>
+        <v>44450000</v>
       </c>
       <c r="AS281" s="28" t="n">
-        <v>44450000</v>
+        <v>380969777</v>
       </c>
       <c r="AT281" s="28" t="n">
-        <v>380969777</v>
+        <v>43042412</v>
       </c>
       <c r="AU281" s="28" t="n">
-        <v>43042412</v>
+        <v>26574994</v>
       </c>
       <c r="AV281" s="28" t="n">
-        <v>26574994</v>
+        <v>76200</v>
       </c>
       <c r="AW281" s="28" t="n">
-        <v>76200</v>
+        <v>84549584</v>
       </c>
       <c r="AX281" s="28" t="n">
-        <v>84549584</v>
+        <v>156611793</v>
       </c>
       <c r="AY281" s="28" t="n">
-        <v>156611793</v>
+        <v>99886523</v>
       </c>
       <c r="AZ281" s="28" t="n">
-        <v>99886523</v>
+        <v>185108825</v>
       </c>
       <c r="BA281" s="28" t="n">
-        <v>185108825</v>
+        <v>11430000</v>
       </c>
       <c r="BB281" s="28" t="n">
-        <v>11430000</v>
+        <v>121920000</v>
       </c>
       <c r="BC281" s="28" t="n">
-        <v>121920000</v>
-      </c>
-      <c r="BD281" s="28" t="n">
         <v>355470000</v>
       </c>
     </row>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrnym\OneDrive\Asztali gép\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E73CE-9313-4B67-A87E-22C5F5CEC3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CE6B41-0305-4AA5-838D-571F6BE4872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022 BEVÉTEL" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="1906">
   <si>
     <t>2022 BEVÉTEL</t>
   </si>
@@ -5770,6 +5770,9 @@
   </si>
   <si>
     <t>Kiadások összesen (K1-K9)</t>
+  </si>
+  <si>
+    <t>Bevételek összesen (K1-K9)</t>
   </si>
 </sst>
 </file>
@@ -32131,7 +32134,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="70">
         <v>99</v>
       </c>
@@ -40563,7 +40566,7 @@
   </sheetPr>
   <dimension ref="A1:E1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -40587,6 +40590,9 @@
       <c r="C2" s="117" t="s">
         <v>1716</v>
       </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -43347,7 +43353,7 @@
         <v>41100000000</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>99</v>
       </c>
@@ -43358,7 +43364,7 @@
         <v>10977300000</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>99</v>
       </c>
@@ -43369,8 +43375,8 @@
         <v>208599700000</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>99</v>
       </c>
@@ -43381,18 +43387,31 @@
         <v>3400234800000</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>306</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C277" s="120">
+        <v>39758587500000</v>
+      </c>
+      <c r="D277" s="120">
+        <v>39758587500000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -44128,9 +44147,9 @@
   </sheetPr>
   <dimension ref="A1:AV799"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B804" sqref="B804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrnym\OneDrive\Asztali gép\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B85F7F-A664-481A-81B4-A39D67C13FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F54EB-3F10-4EFA-B948-C5AD0141B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 BEVÉTEL" sheetId="1" r:id="rId1"/>
@@ -1949,15 +1949,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="73.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -1987,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>11639211000</v>
+        <v>116392110000</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -19560,7 +19560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90D5DA-1D2C-4285-B399-21AE5B96ADEA}">
   <dimension ref="A1:GV1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrnym\OneDrive\Asztali gép\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F54EB-3F10-4EFA-B948-C5AD0141B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4947251-221D-4530-BE43-CB4FD1E41832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021 BEVÉTEL" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,20 @@
     <sheet name="2022 KIADÁS" sheetId="4" r:id="rId4"/>
     <sheet name="2023 BEVÉTEL" sheetId="5" r:id="rId5"/>
     <sheet name="2023 KIADÁS" sheetId="6" r:id="rId6"/>
+    <sheet name="2024 BEVÉTEL" sheetId="7" r:id="rId7"/>
+    <sheet name="2024 KIADÁS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miHv3FhKwvkayZGR0A+OvTxfsIxHg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7miHv3FhKwvkayZGR0A+OvTxfsIxHg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="571">
   <si>
     <t>2021 BEVÉTELEK</t>
   </si>
@@ -1563,17 +1565,199 @@
   </si>
   <si>
     <t>905 Egyéb intézmények</t>
+  </si>
+  <si>
+    <t>20506 Homokbányai fejlesztések</t>
+  </si>
+  <si>
+    <t>40109 Nyíri út folyt.Széles köz-445.főút köz.felújítása</t>
+  </si>
+  <si>
+    <t>40209 Fenntartható Városfejl.Str.és Városfejl.Programterv.</t>
+  </si>
+  <si>
+    <t>60609 Városi turisztikai, közművelődési szolgáltatások</t>
+  </si>
+  <si>
+    <t>716 Postai közreműködői tevékenység támogatása Kecskeméten</t>
+  </si>
+  <si>
+    <t>Polgármesteri Hivatal személyi juttatásai és járulékai (K102)</t>
+  </si>
+  <si>
+    <t>Kreatív Tudásközpont Közalapítvány támogatása (K4209)</t>
+  </si>
+  <si>
+    <t>Szociális jellegű feladatok támogatása (K4210)</t>
+  </si>
+  <si>
+    <t>Bozsó Gyűjtemény Alapítvány támogatása (K4211)</t>
+  </si>
+  <si>
+    <t>További kisebb összegű működési támogatások összesen (K4212)</t>
+  </si>
+  <si>
+    <t>Új két csoportos bölcsőde Kadafalván /RRF/ (K4313)</t>
+  </si>
+  <si>
+    <t>Kecskeméti Városrendészet hozzájárulása  (K44)</t>
+  </si>
+  <si>
+    <t>Modern Városok Program támogatása-Városháza felújítása (K503)</t>
+  </si>
+  <si>
+    <t>Új két csoportos bölcsőde Kadafalván /RRF/ (K504)</t>
+  </si>
+  <si>
+    <t>Déli Ipari Park közúti közl.fejlesztés előkészítése (K505)</t>
+  </si>
+  <si>
+    <t>Déli Ipariterület bőv.kapcs.víziközmű-fejlesztések (K506)</t>
+  </si>
+  <si>
+    <t>Fenntartható Városfejl.Str.és Városfejl.Programterv (K507)</t>
+  </si>
+  <si>
+    <t>Útfejlesztés folytatása Kecskeméten (K508)</t>
+  </si>
+  <si>
+    <t>Homokbányai fejlesztések (K509)</t>
+  </si>
+  <si>
+    <t>Közterületek fejlesztése (K510)</t>
+  </si>
+  <si>
+    <t>Lakossági önerős ber.,víziközmű, szennyv., közműf. tám. (K511)</t>
+  </si>
+  <si>
+    <t>Víziközmű vagyon üzemeltetése /Bácsvíz Zrt./ (K512)</t>
+  </si>
+  <si>
+    <t>Közvilágítás üzemeltetés és fejlesztés (K513)</t>
+  </si>
+  <si>
+    <t>Köztéri környezetrendezés (K514)</t>
+  </si>
+  <si>
+    <t>ISPA Közműfejlesztési tartalék beruházásai (K515)</t>
+  </si>
+  <si>
+    <t>Vagyongazdálkodás, területvásárlás, kisajátítás kiadásai  (K516)</t>
+  </si>
+  <si>
+    <t>Nyíri út folyt. Széles köz-445.főút köz.felújít/VP (K601)</t>
+  </si>
+  <si>
+    <t>Katona József Nemzeti Színház komplex felújítása (K602)</t>
+  </si>
+  <si>
+    <t>ISPA Közműfejlesztési tartalék /Konzorcium/ - felújítás (K603)</t>
+  </si>
+  <si>
+    <t>Víziközmű vagyon üzemeltetése /Bácsvíz Zrt./ (K604)</t>
+  </si>
+  <si>
+    <t>KIK-FOR Kft. lakás- és vagyonkezelői tevékenysége (K605)</t>
+  </si>
+  <si>
+    <t>Út, járda, kerékpárút fenntartása, üzemeltetése (K606)</t>
+  </si>
+  <si>
+    <t>Városüzemeltetési, kommunális feladatok (K607)</t>
+  </si>
+  <si>
+    <t>Köztéri környezetrendezés fejlesztései (K608)</t>
+  </si>
+  <si>
+    <t>Egyéb felújítások összesen (K609)</t>
+  </si>
+  <si>
+    <t>Közterületek fejlesztése (K701)</t>
+  </si>
+  <si>
+    <t>Sportszervezetek támogatása (K702)</t>
+  </si>
+  <si>
+    <t>Egyházak támogatása (K703)</t>
+  </si>
+  <si>
+    <t>Helyi önkormányzatok működésének általános támogatása (B110101)</t>
+  </si>
+  <si>
+    <t>Energia áremelkedés miatti állami támogatás (B110102)</t>
+  </si>
+  <si>
+    <t>Szociális és gyermekjóléti feladatainak támogatása (B110301)</t>
+  </si>
+  <si>
+    <t>Gyermekétkeztetési feladatok támogatása (B110302)</t>
+  </si>
+  <si>
+    <t>Egyéb bevételek (B1202)</t>
+  </si>
+  <si>
+    <t>Egészségügyi kiegészítő pótlék (B1203)</t>
+  </si>
+  <si>
+    <t>Ágazati pótlék kifizetéséhez kapcsolódó támogatás (B1204)</t>
+  </si>
+  <si>
+    <t>Kulturális feladatok egyéb támogatása (B1205)</t>
+  </si>
+  <si>
+    <t>Gyermekjóléti és szociális szolgáltatás /Városföld/ (B1206)</t>
+  </si>
+  <si>
+    <t>Európai Mobilitási Hét és Autómentes Nap (B1207)</t>
+  </si>
+  <si>
+    <t>Új kétcsoportos bölcsőde Kadafalván /RRF/ (B1208)</t>
+  </si>
+  <si>
+    <t>Nyíri út.folyt.Széles köz-445 főút köz.felújítása /VP/ (B1209)</t>
+  </si>
+  <si>
+    <t>Egészségügyi és Szociális Intézmények Igazgatósága (NEAK támogatás) (B1301)</t>
+  </si>
+  <si>
+    <t>Polgármesteri Hivatal (B1306)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Új kétcsoportos bölcsőde Kadafalván /RRF/ (B40201)</t>
+  </si>
+  <si>
+    <t>Bölcsődei ellátás fejlesztése Kecskeméten /TOP/ (B40202)</t>
+  </si>
+  <si>
+    <t>Új család és gyermekjóléti központ létrehozása Kecskeméten/TOP/ (B40203)</t>
+  </si>
+  <si>
+    <t>Nyíri út.folyt.Széles köz-445 főút köz.felújítása (B40204)</t>
+  </si>
+  <si>
+    <t>Homokbányai fejlesztések (B40409)</t>
+  </si>
+  <si>
+    <t>Kiadások összesen:</t>
+  </si>
+  <si>
+    <t>Egyéb beruházások összesen (K517)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,8 +1820,36 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1668,6 +1880,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1682,7 +1912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1731,6 +1961,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1947,10 +2209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1962,13 +2224,13 @@
     <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +2241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>99</v>
       </c>
@@ -1987,10 +2249,11 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>116392110000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+        <v>11639211000</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>99</v>
       </c>
@@ -2001,7 +2264,7 @@
         <v>7529228000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>99</v>
       </c>
@@ -2012,7 +2275,7 @@
         <v>2268553000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>99</v>
       </c>
@@ -2023,7 +2286,7 @@
         <v>1968213000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>99</v>
       </c>
@@ -2034,7 +2297,7 @@
         <v>2652552000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>99</v>
       </c>
@@ -2045,7 +2308,7 @@
         <v>185957000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>99</v>
       </c>
@@ -2056,7 +2319,7 @@
         <v>453953000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>99</v>
       </c>
@@ -2067,7 +2330,7 @@
         <v>4109983000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>99</v>
       </c>
@@ -2078,7 +2341,7 @@
         <v>12668900000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>99</v>
       </c>
@@ -2089,7 +2352,7 @@
         <v>67900000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>99</v>
       </c>
@@ -2100,7 +2363,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>99</v>
       </c>
@@ -2111,7 +2374,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>99</v>
       </c>
@@ -2122,7 +2385,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>99</v>
       </c>
@@ -19560,8 +19823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90D5DA-1D2C-4285-B399-21AE5B96ADEA}">
   <dimension ref="A1:GV1079"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22766,4 +23029,5958 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4DD01D-8442-4495-A57F-19C774528EB0}">
+  <dimension ref="A1:D114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="55">
+        <v>99</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="56">
+        <v>12884188173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="55">
+        <v>99</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="57">
+        <v>11033249153</v>
+      </c>
+      <c r="D4" s="64"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="55">
+        <v>99</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="58">
+        <v>3595458385</v>
+      </c>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="59">
+        <v>99</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="58">
+        <v>2512695070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="58">
+        <v>1082763315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="53">
+        <v>99</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="58">
+        <v>2440552849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>99</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="56">
+        <v>3856569082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="53">
+        <v>99</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="58">
+        <v>2709465627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" s="58">
+        <v>1147103455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="53">
+        <v>99</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="58">
+        <v>940668837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="53">
+        <v>99</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="58">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="55">
+        <v>99</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="57">
+        <v>1550074646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
+        <v>99</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="58">
+        <v>370192772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="53">
+        <v>99</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" s="58">
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="53">
+        <v>99</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="C17" s="58">
+        <v>59364897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="53">
+        <v>99</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="58">
+        <v>386968636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
+        <v>99</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="C19" s="58">
+        <v>616262000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="53">
+        <v>99</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="58">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="53">
+        <v>99</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="C21" s="58">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="53">
+        <v>99</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22" s="58">
+        <v>100304381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="53">
+        <v>99</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="58">
+        <v>1181960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
+        <v>99</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="57">
+        <v>300864374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="53">
+        <v>99</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="C25" s="58">
+        <v>235425000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="53">
+        <v>99</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="58"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="53">
+        <v>99</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" s="58">
+        <v>26547440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="53">
+        <v>99</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="53">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C29" s="58"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="53">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="58">
+        <v>38891934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="55">
+        <v>99</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="57">
+        <v>23115525000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="55">
+        <v>99</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="57">
+        <v>83200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="53">
+        <v>99</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="58">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="53">
+        <v>99</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="58">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="53">
+        <v>99</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="58">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="53">
+        <v>99</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="58">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="53">
+        <v>99</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="58">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="53">
+        <v>99</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="58">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="53">
+        <v>99</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="58">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="53">
+        <v>99</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="58">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="53">
+        <v>99</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="58">
+        <v>2520000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="53">
+        <v>99</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="58">
+        <v>75000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="53">
+        <v>99</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="58">
+        <v>20400000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="53">
+        <v>99</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="58">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="53">
+        <v>99</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C45" s="58">
+        <v>7325000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="55">
+        <v>99</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="57">
+        <v>6651232240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="55">
+        <v>99</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="57">
+        <v>618310883</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="55">
+        <v>99</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="57">
+        <v>290005001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="53">
+        <v>99</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="58">
+        <v>75937288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="53">
+        <v>99</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="58">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="53">
+        <v>99</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="58">
+        <v>50148145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="53">
+        <v>99</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="58">
+        <v>83188608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="53">
+        <v>99</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="58">
+        <v>67230960</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="53">
+        <v>99</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="53">
+        <v>99</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="58">
+        <v>176480019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="53">
+        <v>99</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="58">
+        <v>151825863</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="55">
+        <v>99</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="57">
+        <v>677753031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="53">
+        <v>99</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="62">
+        <v>1353031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="53">
+        <v>99</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="58">
+        <v>75000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="53">
+        <v>99</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="58"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="53">
+        <v>99</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="58">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="53">
+        <v>99</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="58">
+        <v>600000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="53">
+        <v>99</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="58">
+        <v>282506247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="53">
+        <v>99</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" s="58">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="55">
+        <v>99</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="56"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="53">
+        <v>99</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" s="58"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="53">
+        <v>99</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68" s="58"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="53">
+        <v>99</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C69" s="58"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="53">
+        <v>99</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="58"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="53">
+        <v>99</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C71" s="58"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="53"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="54"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="55">
+        <v>99</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" s="57">
+        <v>4822662079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="53">
+        <v>99</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="58">
+        <v>5312939</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="53">
+        <v>99</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" s="58">
+        <v>22638000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="53">
+        <v>99</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="C76" s="58">
+        <v>713593000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="53">
+        <v>99</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="58">
+        <v>965787281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="55">
+        <v>99</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" s="56">
+        <v>1348028379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="53">
+        <v>99</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" s="58">
+        <v>11938000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="53">
+        <v>99</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="58">
+        <v>65296410</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="53">
+        <v>99</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="58">
+        <v>401643000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="53">
+        <v>99</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C82" s="58">
+        <v>54629409</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="53">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" s="58">
+        <v>814521560</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="53">
+        <v>99</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" s="58">
+        <v>536303595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="53">
+        <v>99</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85" s="58">
+        <v>1230998885</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="53"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="54"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="55">
+        <v>99</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="57">
+        <v>1261110629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="55">
+        <v>99</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" s="63"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="55">
+        <v>99</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>381</v>
+      </c>
+      <c r="C89" s="57">
+        <v>475923027</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="53">
+        <v>99</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="C90" s="58">
+        <v>294458118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="53">
+        <v>99</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C91" s="58">
+        <v>31512421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="53">
+        <v>99</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C92" s="58">
+        <v>66878879</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="53">
+        <v>99</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="C93" s="58">
+        <v>83073609</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="53">
+        <v>99</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C94" s="57">
+        <v>726687202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="53">
+        <v>99</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="C95" s="58">
+        <v>426758602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="53">
+        <v>99</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" s="58">
+        <v>272546000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="53">
+        <v>99</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C97" s="58">
+        <v>1650600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="53">
+        <v>99</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C98" s="58">
+        <v>25732000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="53">
+        <v>99</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="58"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="53"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="54"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="55">
+        <v>99</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C101" s="57">
+        <v>58500400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="53">
+        <v>99</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="C102" s="58"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="53">
+        <v>99</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C103" s="58"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="53">
+        <v>99</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="58">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="53">
+        <v>99</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C105" s="58">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="53">
+        <v>99</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" s="58">
+        <v>3200400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="53">
+        <v>99</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C107" s="58"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="53">
+        <v>99</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C108" s="58"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="53">
+        <v>99</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C109" s="58"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="53">
+        <v>99</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="C110" s="58">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="55">
+        <v>99</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C111" s="57">
+        <v>6017313387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="53">
+        <v>99</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" s="62">
+        <v>5473478933</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="53">
+        <v>99</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C113" s="58">
+        <v>543834454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="55">
+        <v>99</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C114" s="57">
+        <v>4324717450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784606D4-01CB-4C2F-9394-83E9C2E6A7C1}">
+  <dimension ref="A1:EI1015"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="EI1" workbookViewId="0">
+      <selection activeCell="EJ3" sqref="EJ3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" t="s">
+        <v>477</v>
+      </c>
+      <c r="W2" t="s">
+        <v>511</v>
+      </c>
+      <c r="X2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>482</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>487</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>489</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>493</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>495</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>496</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>497</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>498</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>194</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>196</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>205</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>206</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>207</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>514</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>500</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>213</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>216</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>218</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>219</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>220</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>221</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>222</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>223</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>502</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>319</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>515</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>227</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>228</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>229</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>232</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>234</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>236</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>239</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>241</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>505</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>506</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>507</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>246</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>508</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>509</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>249</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>510</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
+        <v>99</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="43">
+        <f>C4+C5+C6+C7+C8+C12+C18+C19</f>
+        <v>14616627550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A4" s="40">
+        <v>99</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" s="44">
+        <f>360543752+55813650</f>
+        <v>416357402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>99</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="44">
+        <f>2376331917+358739230</f>
+        <v>2735071147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A6" s="40">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="44">
+        <f>3984443000+604487000</f>
+        <v>4588930000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>99</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" s="44">
+        <f>71052000+9458000</f>
+        <v>80510000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A8" s="42">
+        <v>99</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="43">
+        <f>C9+C10+C11</f>
+        <v>3148637059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="44">
+        <f>1098953259+155272250</f>
+        <v>1254225509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A10" s="40">
+        <v>99</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="44">
+        <f>737154873+101435839</f>
+        <v>838590712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="44">
+        <f>928864450+126956388</f>
+        <v>1055820838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A12" s="42">
+        <v>99</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="43">
+        <f>C13+C14+C15+C16+C17</f>
+        <v>2859667357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="44">
+        <f>15180481+2053411</f>
+        <v>17233892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A14" s="40">
+        <v>99</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="44">
+        <f>634538374+88230448</f>
+        <v>722768822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="44">
+        <f>1174990057+168109022</f>
+        <v>1343099079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:139" x14ac:dyDescent="0.3">
+      <c r="A16" s="40">
+        <v>99</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="44">
+        <f>196141312+28823019</f>
+        <v>224964331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="44">
+        <f>480952668+70648565</f>
+        <v>551601233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="40">
+        <v>99</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="44">
+        <f>267718406+43703811</f>
+        <v>311422217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>99</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="44">
+        <f>414643337+61389031</f>
+        <v>476032368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>99</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="43">
+        <f>C22+C23+C24+C25+C29+C35+C36+C37</f>
+        <v>14316827589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>99</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="44">
+        <v>851389720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="44">
+        <v>2033606000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="40">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C24" s="44">
+        <v>61112000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42">
+        <v>99</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="43">
+        <f>C26+C27+C28</f>
+        <v>3052947546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40">
+        <v>99</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="44">
+        <v>1087144418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="44">
+        <v>878005933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40">
+        <v>99</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" s="44">
+        <v>1087797195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>99</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="43">
+        <f>C30+C31+C32+C33+C34</f>
+        <v>1333298869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40">
+        <v>99</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="44">
+        <v>8089257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="44">
+        <v>267542343</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C32" s="44">
+        <v>440282191</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" s="44">
+        <v>60463223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C34" s="44">
+        <v>556921855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40">
+        <v>99</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="44">
+        <v>323290709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40">
+        <v>99</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="44">
+        <v>397247745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40">
+        <v>99</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="44">
+        <v>6263935000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40">
+        <v>99</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="44">
+        <v>145320000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42">
+        <v>99</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="43">
+        <f>C42+C43+C56+C70</f>
+        <v>15310122273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40">
+        <v>99</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="44">
+        <v>6492070576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40">
+        <v>99</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="44">
+        <v>6813007495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="44">
+        <v>2515000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="44">
+        <v>1778988000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="40">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="44">
+        <v>1048232000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" s="44">
+        <v>297500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="40">
+        <v>99</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="44">
+        <v>115000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="40">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="44">
+        <v>86000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" s="44">
+        <v>85000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40">
+        <v>99</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" s="44">
+        <v>137849920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40">
+        <v>99</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C52" s="44">
+        <v>131400000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40">
+        <v>99</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" s="44">
+        <v>124300000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40">
+        <v>99</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C54" s="44">
+        <v>72000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="42">
+        <v>99</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C55" s="48">
+        <f>C43-(SUM(C44:C54))</f>
+        <v>421737575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42">
+        <v>99</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="49">
+        <f>C57+C58+C59+C60+C61+C62+C63+C64+C65+C66+C67+C68+C69</f>
+        <v>1634851430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="40">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" s="44">
+        <v>1003648340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40">
+        <v>99</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" s="44">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40">
+        <v>99</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C59" s="44">
+        <v>209345388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="40">
+        <v>99</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="44"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="40">
+        <v>99</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" s="44">
+        <v>32212445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="40">
+        <v>99</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="C62" s="44"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="40">
+        <v>99</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="C63" s="44">
+        <v>176808000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>99</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="44">
+        <v>135531948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="40">
+        <v>99</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65" s="44"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="40">
+        <v>99</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="44">
+        <v>26769009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="40">
+        <v>99</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C67" s="44"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40">
+        <v>99</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="40">
+        <v>99</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69" s="44">
+        <v>536300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="42">
+        <v>99</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="C70" s="48">
+        <v>370192772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="47">
+        <v>99</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="48">
+        <v>2001913450</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <v>99</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C73" s="44">
+        <v>1822126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>99</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C74" s="44">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>99</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C75" s="44">
+        <v>6051815</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>99</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C76" s="44">
+        <v>301264918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>99</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C77" s="44">
+        <v>27956510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>99</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C78" s="44">
+        <v>2066925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>99</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C79" s="44">
+        <v>74766355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>99</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C80" s="44">
+        <v>108337064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>99</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C81" s="44">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>99</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C82" s="44">
+        <v>152700000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>99</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C83" s="44">
+        <v>149000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>99</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C84" s="44">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>99</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C85" s="44">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>99</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C86" s="44">
+        <v>164166500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>99</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C87" s="44">
+        <v>139258147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>99</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C88" s="44">
+        <v>182715144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="42">
+        <v>99</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C89" s="43">
+        <f>C72-(SUM(C73:C88))</f>
+        <v>490537946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="40"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>99</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="44">
+        <v>1114742630</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>99</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C92" s="44">
+        <v>96260187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>99</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C93" s="44">
+        <v>140601700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>99</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C94" s="44">
+        <v>251825865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>99</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C95" s="44">
+        <v>160197086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>99</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C96" s="44">
+        <v>203200000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>99</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C97" s="44">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>99</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C98" s="44">
+        <v>56500000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>99</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="C99" s="44">
+        <v>135000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="42">
+        <v>99</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C100" s="49">
+        <f>C91-(SUM(C92:C99))</f>
+        <v>53157792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="102" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>99</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C102" s="44">
+        <v>731220000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>99</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C103" s="44">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>99</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C104" s="44">
+        <v>336600000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>99</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C105" s="44">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="42">
+        <v>99</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="C106" s="43">
+        <f>C102-(SUM(C103:C105))</f>
+        <v>74620000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="42">
+        <v>99</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="43">
+        <f>C109+C110</f>
+        <v>1692595937</v>
+      </c>
+    </row>
+    <row r="109" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>99</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C109" s="44">
+        <v>788954340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>99</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="44">
+        <v>903641597</v>
+      </c>
+    </row>
+    <row r="111" spans="1:139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="1:139" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>569</v>
+      </c>
+      <c r="C112" s="41"/>
+      <c r="D112">
+        <v>8235259078</v>
+      </c>
+      <c r="E112">
+        <v>1879371000</v>
+      </c>
+      <c r="F112">
+        <v>2336017796</v>
+      </c>
+      <c r="G112">
+        <v>205197086</v>
+      </c>
+      <c r="H112">
+        <v>795427836</v>
+      </c>
+      <c r="I112">
+        <v>252270000</v>
+      </c>
+      <c r="J112">
+        <v>86000000</v>
+      </c>
+      <c r="K112">
+        <v>975360</v>
+      </c>
+      <c r="L112">
+        <v>85000000</v>
+      </c>
+      <c r="M112">
+        <v>2515000000</v>
+      </c>
+      <c r="N112">
+        <v>80000000</v>
+      </c>
+      <c r="O112">
+        <v>1927230916</v>
+      </c>
+      <c r="P112">
+        <v>15105860</v>
+      </c>
+      <c r="Q112">
+        <v>65000000</v>
+      </c>
+      <c r="R112">
+        <v>38198500</v>
+      </c>
+      <c r="S112">
+        <v>304166500</v>
+      </c>
+      <c r="T112">
+        <v>668404479</v>
+      </c>
+      <c r="U112">
+        <v>502937000</v>
+      </c>
+      <c r="V112">
+        <v>115467479</v>
+      </c>
+      <c r="W112">
+        <v>50000000</v>
+      </c>
+      <c r="X112">
+        <v>591076457</v>
+      </c>
+      <c r="Y112">
+        <v>500000</v>
+      </c>
+      <c r="Z112">
+        <v>154000000</v>
+      </c>
+      <c r="AA112">
+        <v>10000000</v>
+      </c>
+      <c r="AB112">
+        <v>426576457</v>
+      </c>
+      <c r="AC112">
+        <v>175379120</v>
+      </c>
+      <c r="AD112">
+        <v>8000000</v>
+      </c>
+      <c r="AE112">
+        <v>115000000</v>
+      </c>
+      <c r="AF112">
+        <v>43003000</v>
+      </c>
+      <c r="AG112">
+        <v>9376120</v>
+      </c>
+      <c r="AH112">
+        <v>69900000</v>
+      </c>
+      <c r="AI112">
+        <v>40000000</v>
+      </c>
+      <c r="AJ112">
+        <v>26000000</v>
+      </c>
+      <c r="AK112">
+        <v>3900000</v>
+      </c>
+      <c r="AL112">
+        <v>842136619</v>
+      </c>
+      <c r="AM112">
+        <v>410709649</v>
+      </c>
+      <c r="AN112">
+        <v>75000000</v>
+      </c>
+      <c r="AO112">
+        <v>264103654</v>
+      </c>
+      <c r="AP112">
+        <v>91823316</v>
+      </c>
+      <c r="AQ112">
+        <v>500000</v>
+      </c>
+      <c r="AR112">
+        <v>940472207</v>
+      </c>
+      <c r="AS112">
+        <v>217149824</v>
+      </c>
+      <c r="AT112">
+        <v>114156087</v>
+      </c>
+      <c r="AU112">
+        <v>5000000</v>
+      </c>
+      <c r="AV112">
+        <v>97993737</v>
+      </c>
+      <c r="AW112">
+        <v>89116925</v>
+      </c>
+      <c r="AX112">
+        <v>9116925</v>
+      </c>
+      <c r="AY112">
+        <v>80000000</v>
+      </c>
+      <c r="AZ112">
+        <v>27956510</v>
+      </c>
+      <c r="BA112">
+        <v>27956510</v>
+      </c>
+      <c r="BB112">
+        <v>140601700</v>
+      </c>
+      <c r="BC112">
+        <v>140601700</v>
+      </c>
+      <c r="BD112">
+        <v>411970433</v>
+      </c>
+      <c r="BE112">
+        <v>10401134</v>
+      </c>
+      <c r="BF112">
+        <v>401569299</v>
+      </c>
+      <c r="BG112">
+        <v>34626815</v>
+      </c>
+      <c r="BH112">
+        <v>34626815</v>
+      </c>
+      <c r="BI112">
+        <v>19050000</v>
+      </c>
+      <c r="BJ112">
+        <v>19050000</v>
+      </c>
+      <c r="BK112">
+        <v>222696677</v>
+      </c>
+      <c r="BL112">
+        <v>8000000</v>
+      </c>
+      <c r="BM112">
+        <v>835000</v>
+      </c>
+      <c r="BN112">
+        <v>213861677</v>
+      </c>
+      <c r="BO112">
+        <v>4475225160</v>
+      </c>
+      <c r="BP112">
+        <v>208744160</v>
+      </c>
+      <c r="BQ112">
+        <v>77344160</v>
+      </c>
+      <c r="BR112">
+        <v>131400000</v>
+      </c>
+      <c r="BS112">
+        <v>506335000</v>
+      </c>
+      <c r="BT112">
+        <v>149163000</v>
+      </c>
+      <c r="BU112">
+        <v>163472000</v>
+      </c>
+      <c r="BV112">
+        <v>10000000</v>
+      </c>
+      <c r="BW112">
+        <v>44000000</v>
+      </c>
+      <c r="BX112">
+        <v>30000000</v>
+      </c>
+      <c r="BY112">
+        <v>25000000</v>
+      </c>
+      <c r="BZ112">
+        <v>37000000</v>
+      </c>
+      <c r="CA112">
+        <v>4000000</v>
+      </c>
+      <c r="CB112">
+        <v>5000000</v>
+      </c>
+      <c r="CC112">
+        <v>7700000</v>
+      </c>
+      <c r="CD112">
+        <v>31000000</v>
+      </c>
+      <c r="CE112">
+        <v>15100000</v>
+      </c>
+      <c r="CF112">
+        <v>100000</v>
+      </c>
+      <c r="CG112">
+        <v>3000000</v>
+      </c>
+      <c r="CH112">
+        <v>12000000</v>
+      </c>
+      <c r="CI112">
+        <v>2118588000</v>
+      </c>
+      <c r="CJ112">
+        <v>2118588000</v>
+      </c>
+      <c r="CK112">
+        <v>1621232000</v>
+      </c>
+      <c r="CL112">
+        <v>1060232000</v>
+      </c>
+      <c r="CM112">
+        <v>500000</v>
+      </c>
+      <c r="CN112">
+        <v>72000000</v>
+      </c>
+      <c r="CO112">
+        <v>22000000</v>
+      </c>
+      <c r="CP112">
+        <v>334500000</v>
+      </c>
+      <c r="CQ112">
+        <v>3000000</v>
+      </c>
+      <c r="CR112">
+        <v>98000000</v>
+      </c>
+      <c r="CS112">
+        <v>31000000</v>
+      </c>
+      <c r="CT112">
+        <v>5226000</v>
+      </c>
+      <c r="CU112">
+        <v>5226000</v>
+      </c>
+      <c r="CV112">
+        <v>0</v>
+      </c>
+      <c r="CW112">
+        <v>7274833318</v>
+      </c>
+      <c r="CX112">
+        <v>40992983</v>
+      </c>
+      <c r="CY112">
+        <v>273056247</v>
+      </c>
+      <c r="CZ112">
+        <v>93247216</v>
+      </c>
+      <c r="DA112">
+        <v>48972800</v>
+      </c>
+      <c r="DB112">
+        <v>102982601</v>
+      </c>
+      <c r="DC112">
+        <v>100000000</v>
+      </c>
+      <c r="DD112">
+        <v>6393070576</v>
+      </c>
+      <c r="DE112">
+        <v>47256000</v>
+      </c>
+      <c r="DF112">
+        <v>5967400</v>
+      </c>
+      <c r="DG112">
+        <v>11500000</v>
+      </c>
+      <c r="DH112">
+        <v>137849920</v>
+      </c>
+      <c r="DI112">
+        <v>1000000</v>
+      </c>
+      <c r="DJ112">
+        <v>18937575</v>
+      </c>
+      <c r="DK112">
+        <v>3209306567</v>
+      </c>
+      <c r="DL112">
+        <v>50000000</v>
+      </c>
+      <c r="DM112">
+        <v>209345388</v>
+      </c>
+      <c r="DN112">
+        <v>1003648340</v>
+      </c>
+      <c r="DO112">
+        <v>903641597</v>
+      </c>
+      <c r="DP112">
+        <v>942671242</v>
+      </c>
+      <c r="DQ112">
+        <v>30000000</v>
+      </c>
+      <c r="DR112">
+        <v>70000000</v>
+      </c>
+      <c r="DS112">
+        <v>17641357434</v>
+      </c>
+      <c r="DT112">
+        <v>3601207071</v>
+      </c>
+      <c r="DU112">
+        <v>5814417000</v>
+      </c>
+      <c r="DV112">
+        <v>5694433000</v>
+      </c>
+      <c r="DW112">
+        <v>119984000</v>
+      </c>
+      <c r="DX112">
+        <v>5238083324</v>
+      </c>
+      <c r="DY112">
+        <v>1999097533</v>
+      </c>
+      <c r="DZ112">
+        <v>1444974159</v>
+      </c>
+      <c r="EA112">
+        <v>1794011632</v>
+      </c>
+      <c r="EB112">
+        <v>2886738808</v>
+      </c>
+      <c r="EC112">
+        <v>13385149</v>
+      </c>
+      <c r="ED112">
+        <v>951352659</v>
+      </c>
+      <c r="EE112">
+        <v>1381738270</v>
+      </c>
+      <c r="EF112">
+        <v>233328344</v>
+      </c>
+      <c r="EG112">
+        <v>306934386</v>
+      </c>
+      <c r="EH112">
+        <v>100911231</v>
+      </c>
+      <c r="EI112">
+        <v>100911231</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="52"/>
+    </row>
+    <row r="114" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="52"/>
+    </row>
+    <row r="115" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="41"/>
+    </row>
+    <row r="116" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="41"/>
+    </row>
+    <row r="117" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+      <c r="C117" s="41"/>
+    </row>
+    <row r="118" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="5"/>
+      <c r="C118" s="41"/>
+    </row>
+    <row r="119" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="5"/>
+      <c r="C119" s="41"/>
+    </row>
+    <row r="120" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5"/>
+      <c r="C120" s="41"/>
+    </row>
+    <row r="121" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="41"/>
+    </row>
+    <row r="122" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="41"/>
+    </row>
+    <row r="123" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="41"/>
+    </row>
+    <row r="124" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="41"/>
+    </row>
+    <row r="125" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="41"/>
+    </row>
+    <row r="126" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="41"/>
+    </row>
+    <row r="127" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="41"/>
+    </row>
+    <row r="128" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="41"/>
+    </row>
+    <row r="129" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="41"/>
+    </row>
+    <row r="130" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="41"/>
+    </row>
+    <row r="131" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="41"/>
+    </row>
+    <row r="132" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="41"/>
+    </row>
+    <row r="133" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="41"/>
+    </row>
+    <row r="134" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="41"/>
+    </row>
+    <row r="135" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="41"/>
+    </row>
+    <row r="136" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="41"/>
+    </row>
+    <row r="137" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="41"/>
+    </row>
+    <row r="138" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="41"/>
+    </row>
+    <row r="139" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="41"/>
+    </row>
+    <row r="140" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="41"/>
+    </row>
+    <row r="141" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="41"/>
+    </row>
+    <row r="142" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="41"/>
+    </row>
+    <row r="143" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="41"/>
+    </row>
+    <row r="144" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="41"/>
+    </row>
+    <row r="145" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="41"/>
+    </row>
+    <row r="146" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="41"/>
+    </row>
+    <row r="147" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="41"/>
+    </row>
+    <row r="148" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="41"/>
+    </row>
+    <row r="149" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="41"/>
+    </row>
+    <row r="150" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="41"/>
+    </row>
+    <row r="151" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="41"/>
+    </row>
+    <row r="152" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="41"/>
+    </row>
+    <row r="153" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="41"/>
+    </row>
+    <row r="154" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="41"/>
+    </row>
+    <row r="155" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="41"/>
+    </row>
+    <row r="156" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="41"/>
+    </row>
+    <row r="157" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="41"/>
+    </row>
+    <row r="158" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="41"/>
+    </row>
+    <row r="159" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="41"/>
+    </row>
+    <row r="160" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="41"/>
+    </row>
+    <row r="161" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="41"/>
+    </row>
+    <row r="162" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="41"/>
+    </row>
+    <row r="163" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="41"/>
+    </row>
+    <row r="164" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="41"/>
+    </row>
+    <row r="165" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="41"/>
+    </row>
+    <row r="166" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="41"/>
+    </row>
+    <row r="167" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="41"/>
+    </row>
+    <row r="168" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="41"/>
+    </row>
+    <row r="169" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="41"/>
+    </row>
+    <row r="170" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="41"/>
+    </row>
+    <row r="171" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="41"/>
+    </row>
+    <row r="172" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="41"/>
+    </row>
+    <row r="173" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="41"/>
+    </row>
+    <row r="174" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="41"/>
+    </row>
+    <row r="175" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="41"/>
+    </row>
+    <row r="176" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="41"/>
+    </row>
+    <row r="177" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="41"/>
+    </row>
+    <row r="178" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="41"/>
+    </row>
+    <row r="179" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="41"/>
+    </row>
+    <row r="180" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="41"/>
+    </row>
+    <row r="181" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="41"/>
+    </row>
+    <row r="182" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="41"/>
+    </row>
+    <row r="183" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="41"/>
+    </row>
+    <row r="184" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="41"/>
+    </row>
+    <row r="185" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="41"/>
+    </row>
+    <row r="186" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="41"/>
+    </row>
+    <row r="187" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="41"/>
+    </row>
+    <row r="188" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="41"/>
+    </row>
+    <row r="189" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="41"/>
+    </row>
+    <row r="190" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="41"/>
+    </row>
+    <row r="191" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="41"/>
+    </row>
+    <row r="192" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="41"/>
+    </row>
+    <row r="193" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="41"/>
+    </row>
+    <row r="194" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="41"/>
+    </row>
+    <row r="195" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="41"/>
+    </row>
+    <row r="196" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="41"/>
+    </row>
+    <row r="197" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="41"/>
+    </row>
+    <row r="198" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="41"/>
+    </row>
+    <row r="199" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="41"/>
+    </row>
+    <row r="200" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="41"/>
+    </row>
+    <row r="201" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="41"/>
+    </row>
+    <row r="202" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="41"/>
+    </row>
+    <row r="203" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="41"/>
+    </row>
+    <row r="204" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="41"/>
+    </row>
+    <row r="205" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="41"/>
+    </row>
+    <row r="206" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="41"/>
+    </row>
+    <row r="207" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="41"/>
+    </row>
+    <row r="208" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="41"/>
+    </row>
+    <row r="209" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="41"/>
+    </row>
+    <row r="210" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="41"/>
+    </row>
+    <row r="211" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="41"/>
+    </row>
+    <row r="212" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="41"/>
+    </row>
+    <row r="213" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="41"/>
+    </row>
+    <row r="214" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="41"/>
+    </row>
+    <row r="215" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="41"/>
+    </row>
+    <row r="216" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="41"/>
+    </row>
+    <row r="217" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="41"/>
+    </row>
+    <row r="218" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="41"/>
+    </row>
+    <row r="219" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="41"/>
+    </row>
+    <row r="220" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="41"/>
+    </row>
+    <row r="221" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="41"/>
+    </row>
+    <row r="222" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="41"/>
+    </row>
+    <row r="223" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="41"/>
+    </row>
+    <row r="224" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="41"/>
+    </row>
+    <row r="225" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="41"/>
+    </row>
+    <row r="226" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="41"/>
+    </row>
+    <row r="227" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="41"/>
+    </row>
+    <row r="228" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="41"/>
+    </row>
+    <row r="229" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="41"/>
+    </row>
+    <row r="230" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="41"/>
+    </row>
+    <row r="231" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="41"/>
+    </row>
+    <row r="232" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="41"/>
+    </row>
+    <row r="233" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="41"/>
+    </row>
+    <row r="234" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="41"/>
+    </row>
+    <row r="235" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="41"/>
+    </row>
+    <row r="236" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="41"/>
+    </row>
+    <row r="237" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="41"/>
+    </row>
+    <row r="238" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="41"/>
+    </row>
+    <row r="239" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="41"/>
+    </row>
+    <row r="240" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="41"/>
+    </row>
+    <row r="241" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="41"/>
+    </row>
+    <row r="242" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="41"/>
+    </row>
+    <row r="243" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="41"/>
+    </row>
+    <row r="244" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="41"/>
+    </row>
+    <row r="245" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="41"/>
+    </row>
+    <row r="246" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="41"/>
+    </row>
+    <row r="247" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="41"/>
+    </row>
+    <row r="248" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="41"/>
+    </row>
+    <row r="249" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="41"/>
+    </row>
+    <row r="250" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="41"/>
+    </row>
+    <row r="251" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="41"/>
+    </row>
+    <row r="252" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="41"/>
+    </row>
+    <row r="253" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="41"/>
+    </row>
+    <row r="254" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="41"/>
+    </row>
+    <row r="255" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="41"/>
+    </row>
+    <row r="256" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="41"/>
+    </row>
+    <row r="257" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="41"/>
+    </row>
+    <row r="258" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="41"/>
+    </row>
+    <row r="259" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="41"/>
+    </row>
+    <row r="260" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="41"/>
+    </row>
+    <row r="261" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="41"/>
+    </row>
+    <row r="262" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="41"/>
+    </row>
+    <row r="263" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="41"/>
+    </row>
+    <row r="264" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="41"/>
+    </row>
+    <row r="265" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="41"/>
+    </row>
+    <row r="266" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="41"/>
+    </row>
+    <row r="267" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="41"/>
+    </row>
+    <row r="268" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="41"/>
+    </row>
+    <row r="269" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="41"/>
+    </row>
+    <row r="270" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="41"/>
+    </row>
+    <row r="271" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="41"/>
+    </row>
+    <row r="272" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="41"/>
+    </row>
+    <row r="273" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="41"/>
+    </row>
+    <row r="274" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="41"/>
+    </row>
+    <row r="275" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="41"/>
+    </row>
+    <row r="276" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="41"/>
+    </row>
+    <row r="277" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="41"/>
+    </row>
+    <row r="278" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="41"/>
+    </row>
+    <row r="279" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="41"/>
+    </row>
+    <row r="280" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="41"/>
+    </row>
+    <row r="281" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="41"/>
+    </row>
+    <row r="282" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="41"/>
+    </row>
+    <row r="283" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="41"/>
+    </row>
+    <row r="284" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="41"/>
+    </row>
+    <row r="285" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="41"/>
+    </row>
+    <row r="286" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="41"/>
+    </row>
+    <row r="287" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="41"/>
+    </row>
+    <row r="288" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="41"/>
+    </row>
+    <row r="289" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="41"/>
+    </row>
+    <row r="290" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="41"/>
+    </row>
+    <row r="291" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="41"/>
+    </row>
+    <row r="292" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="41"/>
+    </row>
+    <row r="293" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="41"/>
+    </row>
+    <row r="294" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="41"/>
+    </row>
+    <row r="295" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="41"/>
+    </row>
+    <row r="296" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="41"/>
+    </row>
+    <row r="297" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="41"/>
+    </row>
+    <row r="298" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="41"/>
+    </row>
+    <row r="299" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="41"/>
+    </row>
+    <row r="300" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="41"/>
+    </row>
+    <row r="301" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="41"/>
+    </row>
+    <row r="302" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="41"/>
+    </row>
+    <row r="303" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="41"/>
+    </row>
+    <row r="304" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="41"/>
+    </row>
+    <row r="305" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="41"/>
+    </row>
+    <row r="306" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="41"/>
+    </row>
+    <row r="307" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="41"/>
+    </row>
+    <row r="308" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="41"/>
+    </row>
+    <row r="309" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="41"/>
+    </row>
+    <row r="310" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="41"/>
+    </row>
+    <row r="311" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="41"/>
+    </row>
+    <row r="312" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="41"/>
+    </row>
+    <row r="313" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="41"/>
+    </row>
+    <row r="314" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="41"/>
+    </row>
+    <row r="315" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="41"/>
+    </row>
+    <row r="316" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="41"/>
+    </row>
+    <row r="317" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="41"/>
+    </row>
+    <row r="318" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="41"/>
+    </row>
+    <row r="319" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="41"/>
+    </row>
+    <row r="320" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="41"/>
+    </row>
+    <row r="321" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="41"/>
+    </row>
+    <row r="322" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="41"/>
+    </row>
+    <row r="323" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="41"/>
+    </row>
+    <row r="324" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="41"/>
+    </row>
+    <row r="325" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="41"/>
+    </row>
+    <row r="326" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="41"/>
+    </row>
+    <row r="327" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="41"/>
+    </row>
+    <row r="328" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="41"/>
+    </row>
+    <row r="329" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="41"/>
+    </row>
+    <row r="330" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="41"/>
+    </row>
+    <row r="331" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="41"/>
+    </row>
+    <row r="332" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="41"/>
+    </row>
+    <row r="333" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="41"/>
+    </row>
+    <row r="334" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="41"/>
+    </row>
+    <row r="335" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="41"/>
+    </row>
+    <row r="336" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="41"/>
+    </row>
+    <row r="337" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="41"/>
+    </row>
+    <row r="338" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="41"/>
+    </row>
+    <row r="339" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="41"/>
+    </row>
+    <row r="340" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="41"/>
+    </row>
+    <row r="341" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="41"/>
+    </row>
+    <row r="342" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="41"/>
+    </row>
+    <row r="343" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="41"/>
+    </row>
+    <row r="344" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="41"/>
+    </row>
+    <row r="345" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="41"/>
+    </row>
+    <row r="346" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="41"/>
+    </row>
+    <row r="347" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="41"/>
+    </row>
+    <row r="348" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="41"/>
+    </row>
+    <row r="349" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="41"/>
+    </row>
+    <row r="350" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="41"/>
+    </row>
+    <row r="351" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="41"/>
+    </row>
+    <row r="352" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="41"/>
+    </row>
+    <row r="353" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="41"/>
+    </row>
+    <row r="354" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="41"/>
+    </row>
+    <row r="355" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="41"/>
+    </row>
+    <row r="356" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="41"/>
+    </row>
+    <row r="357" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="41"/>
+    </row>
+    <row r="358" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="41"/>
+    </row>
+    <row r="359" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="41"/>
+    </row>
+    <row r="360" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="41"/>
+    </row>
+    <row r="361" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="41"/>
+    </row>
+    <row r="362" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="41"/>
+    </row>
+    <row r="363" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="41"/>
+    </row>
+    <row r="364" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="41"/>
+    </row>
+    <row r="365" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="41"/>
+    </row>
+    <row r="366" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="41"/>
+    </row>
+    <row r="367" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="41"/>
+    </row>
+    <row r="368" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="41"/>
+    </row>
+    <row r="369" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="41"/>
+    </row>
+    <row r="370" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="41"/>
+    </row>
+    <row r="371" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="41"/>
+    </row>
+    <row r="372" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="41"/>
+    </row>
+    <row r="373" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="41"/>
+    </row>
+    <row r="374" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="41"/>
+    </row>
+    <row r="375" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="41"/>
+    </row>
+    <row r="376" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="41"/>
+    </row>
+    <row r="377" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="41"/>
+    </row>
+    <row r="378" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="41"/>
+    </row>
+    <row r="379" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="41"/>
+    </row>
+    <row r="380" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="41"/>
+    </row>
+    <row r="381" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="41"/>
+    </row>
+    <row r="382" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="41"/>
+    </row>
+    <row r="383" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="41"/>
+    </row>
+    <row r="384" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="41"/>
+    </row>
+    <row r="385" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="41"/>
+    </row>
+    <row r="386" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="41"/>
+    </row>
+    <row r="387" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="41"/>
+    </row>
+    <row r="388" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="41"/>
+    </row>
+    <row r="389" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="41"/>
+    </row>
+    <row r="390" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="41"/>
+    </row>
+    <row r="391" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="41"/>
+    </row>
+    <row r="392" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="41"/>
+    </row>
+    <row r="393" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="41"/>
+    </row>
+    <row r="394" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="41"/>
+    </row>
+    <row r="395" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="41"/>
+    </row>
+    <row r="396" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="41"/>
+    </row>
+    <row r="397" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="41"/>
+    </row>
+    <row r="398" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="41"/>
+    </row>
+    <row r="399" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="41"/>
+    </row>
+    <row r="400" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="41"/>
+    </row>
+    <row r="401" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="41"/>
+    </row>
+    <row r="402" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="41"/>
+    </row>
+    <row r="403" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="41"/>
+    </row>
+    <row r="404" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="41"/>
+    </row>
+    <row r="405" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="41"/>
+    </row>
+    <row r="406" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="41"/>
+    </row>
+    <row r="407" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="41"/>
+    </row>
+    <row r="408" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="41"/>
+    </row>
+    <row r="409" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="41"/>
+    </row>
+    <row r="410" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="41"/>
+    </row>
+    <row r="411" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="41"/>
+    </row>
+    <row r="412" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="41"/>
+    </row>
+    <row r="413" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="41"/>
+    </row>
+    <row r="414" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="41"/>
+    </row>
+    <row r="415" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="41"/>
+    </row>
+    <row r="416" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="41"/>
+    </row>
+    <row r="417" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="41"/>
+    </row>
+    <row r="418" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="41"/>
+    </row>
+    <row r="419" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="41"/>
+    </row>
+    <row r="420" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="41"/>
+    </row>
+    <row r="421" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="41"/>
+    </row>
+    <row r="422" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="41"/>
+    </row>
+    <row r="423" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="41"/>
+    </row>
+    <row r="424" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="41"/>
+    </row>
+    <row r="425" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="41"/>
+    </row>
+    <row r="426" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="41"/>
+    </row>
+    <row r="427" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="41"/>
+    </row>
+    <row r="428" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="41"/>
+    </row>
+    <row r="429" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="41"/>
+    </row>
+    <row r="430" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="41"/>
+    </row>
+    <row r="431" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="41"/>
+    </row>
+    <row r="432" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="41"/>
+    </row>
+    <row r="433" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="41"/>
+    </row>
+    <row r="434" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="41"/>
+    </row>
+    <row r="435" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="41"/>
+    </row>
+    <row r="436" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="41"/>
+    </row>
+    <row r="437" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="41"/>
+    </row>
+    <row r="438" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="41"/>
+    </row>
+    <row r="439" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="41"/>
+    </row>
+    <row r="440" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="41"/>
+    </row>
+    <row r="441" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="41"/>
+    </row>
+    <row r="442" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="41"/>
+    </row>
+    <row r="443" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="41"/>
+    </row>
+    <row r="444" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="41"/>
+    </row>
+    <row r="445" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="41"/>
+    </row>
+    <row r="446" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="41"/>
+    </row>
+    <row r="447" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="41"/>
+    </row>
+    <row r="448" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="41"/>
+    </row>
+    <row r="449" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="41"/>
+    </row>
+    <row r="450" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="41"/>
+    </row>
+    <row r="451" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="41"/>
+    </row>
+    <row r="452" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="41"/>
+    </row>
+    <row r="453" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="41"/>
+    </row>
+    <row r="454" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="41"/>
+    </row>
+    <row r="455" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="41"/>
+    </row>
+    <row r="456" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="41"/>
+    </row>
+    <row r="457" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="41"/>
+    </row>
+    <row r="458" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="41"/>
+    </row>
+    <row r="459" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="41"/>
+    </row>
+    <row r="460" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="41"/>
+    </row>
+    <row r="461" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="41"/>
+    </row>
+    <row r="462" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="41"/>
+    </row>
+    <row r="463" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="41"/>
+    </row>
+    <row r="464" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="41"/>
+    </row>
+    <row r="465" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="41"/>
+    </row>
+    <row r="466" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="41"/>
+    </row>
+    <row r="467" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="41"/>
+    </row>
+    <row r="468" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="41"/>
+    </row>
+    <row r="469" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="41"/>
+    </row>
+    <row r="470" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="41"/>
+    </row>
+    <row r="471" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="41"/>
+    </row>
+    <row r="472" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="41"/>
+    </row>
+    <row r="473" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="41"/>
+    </row>
+    <row r="474" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="41"/>
+    </row>
+    <row r="475" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="41"/>
+    </row>
+    <row r="476" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="41"/>
+    </row>
+    <row r="477" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="41"/>
+    </row>
+    <row r="478" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="41"/>
+    </row>
+    <row r="479" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="41"/>
+    </row>
+    <row r="480" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="41"/>
+    </row>
+    <row r="481" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="41"/>
+    </row>
+    <row r="482" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="41"/>
+    </row>
+    <row r="483" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="41"/>
+    </row>
+    <row r="484" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="41"/>
+    </row>
+    <row r="485" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="41"/>
+    </row>
+    <row r="486" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="41"/>
+    </row>
+    <row r="487" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="41"/>
+    </row>
+    <row r="488" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="41"/>
+    </row>
+    <row r="489" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="41"/>
+    </row>
+    <row r="490" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="41"/>
+    </row>
+    <row r="491" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="41"/>
+    </row>
+    <row r="492" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="41"/>
+    </row>
+    <row r="493" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="41"/>
+    </row>
+    <row r="494" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="41"/>
+    </row>
+    <row r="495" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="41"/>
+    </row>
+    <row r="496" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="41"/>
+    </row>
+    <row r="497" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="41"/>
+    </row>
+    <row r="498" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="41"/>
+    </row>
+    <row r="499" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="41"/>
+    </row>
+    <row r="500" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="41"/>
+    </row>
+    <row r="501" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="41"/>
+    </row>
+    <row r="502" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="41"/>
+    </row>
+    <row r="503" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="41"/>
+    </row>
+    <row r="504" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="41"/>
+    </row>
+    <row r="505" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="41"/>
+    </row>
+    <row r="506" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="41"/>
+    </row>
+    <row r="507" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="41"/>
+    </row>
+    <row r="508" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="41"/>
+    </row>
+    <row r="509" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="41"/>
+    </row>
+    <row r="510" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="41"/>
+    </row>
+    <row r="511" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="41"/>
+    </row>
+    <row r="512" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="41"/>
+    </row>
+    <row r="513" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="41"/>
+    </row>
+    <row r="514" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="41"/>
+    </row>
+    <row r="515" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="41"/>
+    </row>
+    <row r="516" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="41"/>
+    </row>
+    <row r="517" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="41"/>
+    </row>
+    <row r="518" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="41"/>
+    </row>
+    <row r="519" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="41"/>
+    </row>
+    <row r="520" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="41"/>
+    </row>
+    <row r="521" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="41"/>
+    </row>
+    <row r="522" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="41"/>
+    </row>
+    <row r="523" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="41"/>
+    </row>
+    <row r="524" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="41"/>
+    </row>
+    <row r="525" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="41"/>
+    </row>
+    <row r="526" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="41"/>
+    </row>
+    <row r="527" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="41"/>
+    </row>
+    <row r="528" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="41"/>
+    </row>
+    <row r="529" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="41"/>
+    </row>
+    <row r="530" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="41"/>
+    </row>
+    <row r="531" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="41"/>
+    </row>
+    <row r="532" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="41"/>
+    </row>
+    <row r="533" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="41"/>
+    </row>
+    <row r="534" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="41"/>
+    </row>
+    <row r="535" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="41"/>
+    </row>
+    <row r="536" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="41"/>
+    </row>
+    <row r="537" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="41"/>
+    </row>
+    <row r="538" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="41"/>
+    </row>
+    <row r="539" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="41"/>
+    </row>
+    <row r="540" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="41"/>
+    </row>
+    <row r="541" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="41"/>
+    </row>
+    <row r="542" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="41"/>
+    </row>
+    <row r="543" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="41"/>
+    </row>
+    <row r="544" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="41"/>
+    </row>
+    <row r="545" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="41"/>
+    </row>
+    <row r="546" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="41"/>
+    </row>
+    <row r="547" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="41"/>
+    </row>
+    <row r="548" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="41"/>
+    </row>
+    <row r="549" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="41"/>
+    </row>
+    <row r="550" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="41"/>
+    </row>
+    <row r="551" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="41"/>
+    </row>
+    <row r="552" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="41"/>
+    </row>
+    <row r="553" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="41"/>
+    </row>
+    <row r="554" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="41"/>
+    </row>
+    <row r="555" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="41"/>
+    </row>
+    <row r="556" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="41"/>
+    </row>
+    <row r="557" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="41"/>
+    </row>
+    <row r="558" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="41"/>
+    </row>
+    <row r="559" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="41"/>
+    </row>
+    <row r="560" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="41"/>
+    </row>
+    <row r="561" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="41"/>
+    </row>
+    <row r="562" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="41"/>
+    </row>
+    <row r="563" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="41"/>
+    </row>
+    <row r="564" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="41"/>
+    </row>
+    <row r="565" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="41"/>
+    </row>
+    <row r="566" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="41"/>
+    </row>
+    <row r="567" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="41"/>
+    </row>
+    <row r="568" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="41"/>
+    </row>
+    <row r="569" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="41"/>
+    </row>
+    <row r="570" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="41"/>
+    </row>
+    <row r="571" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="41"/>
+    </row>
+    <row r="572" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="41"/>
+    </row>
+    <row r="573" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="41"/>
+    </row>
+    <row r="574" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="41"/>
+    </row>
+    <row r="575" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="41"/>
+    </row>
+    <row r="576" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="41"/>
+    </row>
+    <row r="577" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="41"/>
+    </row>
+    <row r="578" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="41"/>
+    </row>
+    <row r="579" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="41"/>
+    </row>
+    <row r="580" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="41"/>
+    </row>
+    <row r="581" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="41"/>
+    </row>
+    <row r="582" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="41"/>
+    </row>
+    <row r="583" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="41"/>
+    </row>
+    <row r="584" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="41"/>
+    </row>
+    <row r="585" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="41"/>
+    </row>
+    <row r="586" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="41"/>
+    </row>
+    <row r="587" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="41"/>
+    </row>
+    <row r="588" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="41"/>
+    </row>
+    <row r="589" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="41"/>
+    </row>
+    <row r="590" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="41"/>
+    </row>
+    <row r="591" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="41"/>
+    </row>
+    <row r="592" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="41"/>
+    </row>
+    <row r="593" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="41"/>
+    </row>
+    <row r="594" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="41"/>
+    </row>
+    <row r="595" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="41"/>
+    </row>
+    <row r="596" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="41"/>
+    </row>
+    <row r="597" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="41"/>
+    </row>
+    <row r="598" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="41"/>
+    </row>
+    <row r="599" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="41"/>
+    </row>
+    <row r="600" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="41"/>
+    </row>
+    <row r="601" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="41"/>
+    </row>
+    <row r="602" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="41"/>
+    </row>
+    <row r="603" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="41"/>
+    </row>
+    <row r="604" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="41"/>
+    </row>
+    <row r="605" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="41"/>
+    </row>
+    <row r="606" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="41"/>
+    </row>
+    <row r="607" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="41"/>
+    </row>
+    <row r="608" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="41"/>
+    </row>
+    <row r="609" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="41"/>
+    </row>
+    <row r="610" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="41"/>
+    </row>
+    <row r="611" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="41"/>
+    </row>
+    <row r="612" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="41"/>
+    </row>
+    <row r="613" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="41"/>
+    </row>
+    <row r="614" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="41"/>
+    </row>
+    <row r="615" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="41"/>
+    </row>
+    <row r="616" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="41"/>
+    </row>
+    <row r="617" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="41"/>
+    </row>
+    <row r="618" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="41"/>
+    </row>
+    <row r="619" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="41"/>
+    </row>
+    <row r="620" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="41"/>
+    </row>
+    <row r="621" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="41"/>
+    </row>
+    <row r="622" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="41"/>
+    </row>
+    <row r="623" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="41"/>
+    </row>
+    <row r="624" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="41"/>
+    </row>
+    <row r="625" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="41"/>
+    </row>
+    <row r="626" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="41"/>
+    </row>
+    <row r="627" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="41"/>
+    </row>
+    <row r="628" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="41"/>
+    </row>
+    <row r="629" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="41"/>
+    </row>
+    <row r="630" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="41"/>
+    </row>
+    <row r="631" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="41"/>
+    </row>
+    <row r="632" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="41"/>
+    </row>
+    <row r="633" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="41"/>
+    </row>
+    <row r="634" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="41"/>
+    </row>
+    <row r="635" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="41"/>
+    </row>
+    <row r="636" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="41"/>
+    </row>
+    <row r="637" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="41"/>
+    </row>
+    <row r="638" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="41"/>
+    </row>
+    <row r="639" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="41"/>
+    </row>
+    <row r="640" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="41"/>
+    </row>
+    <row r="641" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="41"/>
+    </row>
+    <row r="642" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="41"/>
+    </row>
+    <row r="643" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="41"/>
+    </row>
+    <row r="644" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="41"/>
+    </row>
+    <row r="645" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="41"/>
+    </row>
+    <row r="646" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="41"/>
+    </row>
+    <row r="647" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="41"/>
+    </row>
+    <row r="648" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="41"/>
+    </row>
+    <row r="649" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="41"/>
+    </row>
+    <row r="650" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="41"/>
+    </row>
+    <row r="651" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="41"/>
+    </row>
+    <row r="652" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="41"/>
+    </row>
+    <row r="653" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="41"/>
+    </row>
+    <row r="654" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="41"/>
+    </row>
+    <row r="655" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="41"/>
+    </row>
+    <row r="656" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="41"/>
+    </row>
+    <row r="657" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="41"/>
+    </row>
+    <row r="658" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="41"/>
+    </row>
+    <row r="659" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="41"/>
+    </row>
+    <row r="660" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="41"/>
+    </row>
+    <row r="661" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="41"/>
+    </row>
+    <row r="662" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="41"/>
+    </row>
+    <row r="663" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="41"/>
+    </row>
+    <row r="664" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="41"/>
+    </row>
+    <row r="665" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="41"/>
+    </row>
+    <row r="666" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="41"/>
+    </row>
+    <row r="667" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="41"/>
+    </row>
+    <row r="668" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="41"/>
+    </row>
+    <row r="669" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="41"/>
+    </row>
+    <row r="670" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="41"/>
+    </row>
+    <row r="671" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="41"/>
+    </row>
+    <row r="672" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="41"/>
+    </row>
+    <row r="673" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="41"/>
+    </row>
+    <row r="674" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="41"/>
+    </row>
+    <row r="675" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="41"/>
+    </row>
+    <row r="676" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="41"/>
+    </row>
+    <row r="677" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="41"/>
+    </row>
+    <row r="678" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="41"/>
+    </row>
+    <row r="679" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="41"/>
+    </row>
+    <row r="680" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="41"/>
+    </row>
+    <row r="681" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="41"/>
+    </row>
+    <row r="682" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="41"/>
+    </row>
+    <row r="683" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="41"/>
+    </row>
+    <row r="684" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="41"/>
+    </row>
+    <row r="685" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="41"/>
+    </row>
+    <row r="686" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="41"/>
+    </row>
+    <row r="687" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="41"/>
+    </row>
+    <row r="688" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="41"/>
+    </row>
+    <row r="689" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="41"/>
+    </row>
+    <row r="690" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="41"/>
+    </row>
+    <row r="691" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="41"/>
+    </row>
+    <row r="692" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="41"/>
+    </row>
+    <row r="693" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="41"/>
+    </row>
+    <row r="694" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="41"/>
+    </row>
+    <row r="695" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="41"/>
+    </row>
+    <row r="696" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="41"/>
+    </row>
+    <row r="697" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="41"/>
+    </row>
+    <row r="698" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="41"/>
+    </row>
+    <row r="699" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="41"/>
+    </row>
+    <row r="700" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="41"/>
+    </row>
+    <row r="701" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="41"/>
+    </row>
+    <row r="702" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="41"/>
+    </row>
+    <row r="703" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="41"/>
+    </row>
+    <row r="704" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="41"/>
+    </row>
+    <row r="705" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="41"/>
+    </row>
+    <row r="706" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="41"/>
+    </row>
+    <row r="707" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="41"/>
+    </row>
+    <row r="708" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="41"/>
+    </row>
+    <row r="709" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="41"/>
+    </row>
+    <row r="710" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="41"/>
+    </row>
+    <row r="711" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="41"/>
+    </row>
+    <row r="712" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="41"/>
+    </row>
+    <row r="713" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="41"/>
+    </row>
+    <row r="714" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="41"/>
+    </row>
+    <row r="715" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="41"/>
+    </row>
+    <row r="716" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="41"/>
+    </row>
+    <row r="717" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="41"/>
+    </row>
+    <row r="718" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="41"/>
+    </row>
+    <row r="719" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="41"/>
+    </row>
+    <row r="720" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="41"/>
+    </row>
+    <row r="721" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="41"/>
+    </row>
+    <row r="722" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="41"/>
+    </row>
+    <row r="723" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="41"/>
+    </row>
+    <row r="724" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="41"/>
+    </row>
+    <row r="725" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="41"/>
+    </row>
+    <row r="726" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="41"/>
+    </row>
+    <row r="727" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="41"/>
+    </row>
+    <row r="728" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="41"/>
+    </row>
+    <row r="729" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="41"/>
+    </row>
+    <row r="730" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="41"/>
+    </row>
+    <row r="731" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="41"/>
+    </row>
+    <row r="732" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="41"/>
+    </row>
+    <row r="733" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="41"/>
+    </row>
+    <row r="734" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="41"/>
+    </row>
+    <row r="735" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="41"/>
+    </row>
+    <row r="736" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="41"/>
+    </row>
+    <row r="737" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="41"/>
+    </row>
+    <row r="738" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="41"/>
+    </row>
+    <row r="739" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="41"/>
+    </row>
+    <row r="740" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="41"/>
+    </row>
+    <row r="741" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="41"/>
+    </row>
+    <row r="742" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="41"/>
+    </row>
+    <row r="743" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="41"/>
+    </row>
+    <row r="744" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="41"/>
+    </row>
+    <row r="745" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="41"/>
+    </row>
+    <row r="746" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="41"/>
+    </row>
+    <row r="747" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="41"/>
+    </row>
+    <row r="748" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="41"/>
+    </row>
+    <row r="749" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="41"/>
+    </row>
+    <row r="750" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="41"/>
+    </row>
+    <row r="751" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="41"/>
+    </row>
+    <row r="752" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="41"/>
+    </row>
+    <row r="753" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="41"/>
+    </row>
+    <row r="754" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="41"/>
+    </row>
+    <row r="755" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="41"/>
+    </row>
+    <row r="756" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="41"/>
+    </row>
+    <row r="757" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="41"/>
+    </row>
+    <row r="758" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="41"/>
+    </row>
+    <row r="759" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="41"/>
+    </row>
+    <row r="760" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="41"/>
+    </row>
+    <row r="761" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="41"/>
+    </row>
+    <row r="762" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="41"/>
+    </row>
+    <row r="763" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="41"/>
+    </row>
+    <row r="764" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="41"/>
+    </row>
+    <row r="765" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="41"/>
+    </row>
+    <row r="766" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="41"/>
+    </row>
+    <row r="767" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="41"/>
+    </row>
+    <row r="768" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="41"/>
+    </row>
+    <row r="769" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="41"/>
+    </row>
+    <row r="770" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="41"/>
+    </row>
+    <row r="771" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="41"/>
+    </row>
+    <row r="772" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="41"/>
+    </row>
+    <row r="773" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="41"/>
+    </row>
+    <row r="774" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="41"/>
+    </row>
+    <row r="775" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="41"/>
+    </row>
+    <row r="776" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="41"/>
+    </row>
+    <row r="777" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="41"/>
+    </row>
+    <row r="778" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="41"/>
+    </row>
+    <row r="779" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="41"/>
+    </row>
+    <row r="780" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="41"/>
+    </row>
+    <row r="781" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="41"/>
+    </row>
+    <row r="782" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="41"/>
+    </row>
+    <row r="783" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="41"/>
+    </row>
+    <row r="784" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="41"/>
+    </row>
+    <row r="785" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="41"/>
+    </row>
+    <row r="786" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="41"/>
+    </row>
+    <row r="787" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="41"/>
+    </row>
+    <row r="788" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="41"/>
+    </row>
+    <row r="789" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="41"/>
+    </row>
+    <row r="790" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="41"/>
+    </row>
+    <row r="791" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="41"/>
+    </row>
+    <row r="792" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="41"/>
+    </row>
+    <row r="793" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="41"/>
+    </row>
+    <row r="794" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="41"/>
+    </row>
+    <row r="795" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="41"/>
+    </row>
+    <row r="796" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="41"/>
+    </row>
+    <row r="797" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="41"/>
+    </row>
+    <row r="798" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="41"/>
+    </row>
+    <row r="799" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="41"/>
+    </row>
+    <row r="800" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="41"/>
+    </row>
+    <row r="801" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="41"/>
+    </row>
+    <row r="802" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="41"/>
+    </row>
+    <row r="803" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="41"/>
+    </row>
+    <row r="804" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="41"/>
+    </row>
+    <row r="805" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="41"/>
+    </row>
+    <row r="806" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="41"/>
+    </row>
+    <row r="807" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="41"/>
+    </row>
+    <row r="808" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="41"/>
+    </row>
+    <row r="809" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="41"/>
+    </row>
+    <row r="810" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="41"/>
+    </row>
+    <row r="811" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="41"/>
+    </row>
+    <row r="812" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="41"/>
+    </row>
+    <row r="813" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="41"/>
+    </row>
+    <row r="814" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="41"/>
+    </row>
+    <row r="815" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="41"/>
+    </row>
+    <row r="816" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="41"/>
+    </row>
+    <row r="817" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="41"/>
+    </row>
+    <row r="818" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="41"/>
+    </row>
+    <row r="819" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="41"/>
+    </row>
+    <row r="820" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="41"/>
+    </row>
+    <row r="821" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="41"/>
+    </row>
+    <row r="822" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="41"/>
+    </row>
+    <row r="823" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="41"/>
+    </row>
+    <row r="824" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="41"/>
+    </row>
+    <row r="825" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="41"/>
+    </row>
+    <row r="826" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="41"/>
+    </row>
+    <row r="827" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="41"/>
+    </row>
+    <row r="828" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="41"/>
+    </row>
+    <row r="829" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="41"/>
+    </row>
+    <row r="830" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="41"/>
+    </row>
+    <row r="831" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="41"/>
+    </row>
+    <row r="832" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="41"/>
+    </row>
+    <row r="833" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="41"/>
+    </row>
+    <row r="834" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="41"/>
+    </row>
+    <row r="835" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="41"/>
+    </row>
+    <row r="836" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="41"/>
+    </row>
+    <row r="837" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="41"/>
+    </row>
+    <row r="838" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="41"/>
+    </row>
+    <row r="839" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="41"/>
+    </row>
+    <row r="840" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="41"/>
+    </row>
+    <row r="841" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="41"/>
+    </row>
+    <row r="842" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="41"/>
+    </row>
+    <row r="843" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="41"/>
+    </row>
+    <row r="844" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="41"/>
+    </row>
+    <row r="845" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="41"/>
+    </row>
+    <row r="846" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="41"/>
+    </row>
+    <row r="847" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="41"/>
+    </row>
+    <row r="848" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="41"/>
+    </row>
+    <row r="849" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="41"/>
+    </row>
+    <row r="850" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="41"/>
+    </row>
+    <row r="851" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="41"/>
+    </row>
+    <row r="852" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="41"/>
+    </row>
+    <row r="853" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="41"/>
+    </row>
+    <row r="854" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="41"/>
+    </row>
+    <row r="855" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="41"/>
+    </row>
+    <row r="856" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="41"/>
+    </row>
+    <row r="857" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="41"/>
+    </row>
+    <row r="858" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="41"/>
+    </row>
+    <row r="859" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="41"/>
+    </row>
+    <row r="860" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="41"/>
+    </row>
+    <row r="861" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="41"/>
+    </row>
+    <row r="862" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="41"/>
+    </row>
+    <row r="863" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="41"/>
+    </row>
+    <row r="864" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="41"/>
+    </row>
+    <row r="865" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="41"/>
+    </row>
+    <row r="866" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="41"/>
+    </row>
+    <row r="867" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="41"/>
+    </row>
+    <row r="868" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="41"/>
+    </row>
+    <row r="869" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="41"/>
+    </row>
+    <row r="870" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="41"/>
+    </row>
+    <row r="871" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="41"/>
+    </row>
+    <row r="872" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="41"/>
+    </row>
+    <row r="873" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="41"/>
+    </row>
+    <row r="874" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="41"/>
+    </row>
+    <row r="875" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="41"/>
+    </row>
+    <row r="876" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="41"/>
+    </row>
+    <row r="877" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="41"/>
+    </row>
+    <row r="878" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="41"/>
+    </row>
+    <row r="879" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="41"/>
+    </row>
+    <row r="880" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="41"/>
+    </row>
+    <row r="881" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="41"/>
+    </row>
+    <row r="882" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="41"/>
+    </row>
+    <row r="883" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="41"/>
+    </row>
+    <row r="884" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="41"/>
+    </row>
+    <row r="885" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="41"/>
+    </row>
+    <row r="886" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="41"/>
+    </row>
+    <row r="887" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="41"/>
+    </row>
+    <row r="888" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="41"/>
+    </row>
+    <row r="889" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="41"/>
+    </row>
+    <row r="890" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="41"/>
+    </row>
+    <row r="891" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="41"/>
+    </row>
+    <row r="892" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="41"/>
+    </row>
+    <row r="893" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="41"/>
+    </row>
+    <row r="894" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="41"/>
+    </row>
+    <row r="895" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="41"/>
+    </row>
+    <row r="896" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="41"/>
+    </row>
+    <row r="897" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="41"/>
+    </row>
+    <row r="898" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="41"/>
+    </row>
+    <row r="899" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="41"/>
+    </row>
+    <row r="900" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="41"/>
+    </row>
+    <row r="901" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="41"/>
+    </row>
+    <row r="902" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="41"/>
+    </row>
+    <row r="903" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="41"/>
+    </row>
+    <row r="904" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="41"/>
+    </row>
+    <row r="905" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="41"/>
+    </row>
+    <row r="906" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="41"/>
+    </row>
+    <row r="907" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="41"/>
+    </row>
+    <row r="908" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="41"/>
+    </row>
+    <row r="909" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="41"/>
+    </row>
+    <row r="910" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="41"/>
+    </row>
+    <row r="911" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="41"/>
+    </row>
+    <row r="912" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="41"/>
+    </row>
+    <row r="913" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="41"/>
+    </row>
+    <row r="914" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="41"/>
+    </row>
+    <row r="915" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="41"/>
+    </row>
+    <row r="916" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="41"/>
+    </row>
+    <row r="917" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="41"/>
+    </row>
+    <row r="918" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="41"/>
+    </row>
+    <row r="919" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="41"/>
+    </row>
+    <row r="920" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="41"/>
+    </row>
+    <row r="921" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="41"/>
+    </row>
+    <row r="922" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="41"/>
+    </row>
+    <row r="923" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="41"/>
+    </row>
+    <row r="924" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="41"/>
+    </row>
+    <row r="925" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="41"/>
+    </row>
+    <row r="926" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="41"/>
+    </row>
+    <row r="927" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="41"/>
+    </row>
+    <row r="928" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="41"/>
+    </row>
+    <row r="929" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="41"/>
+    </row>
+    <row r="930" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="41"/>
+    </row>
+    <row r="931" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="41"/>
+    </row>
+    <row r="932" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="41"/>
+    </row>
+    <row r="933" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="41"/>
+    </row>
+    <row r="934" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="41"/>
+    </row>
+    <row r="935" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="41"/>
+    </row>
+    <row r="936" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="41"/>
+    </row>
+    <row r="937" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="41"/>
+    </row>
+    <row r="938" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="41"/>
+    </row>
+    <row r="939" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="41"/>
+    </row>
+    <row r="940" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="41"/>
+    </row>
+    <row r="941" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="41"/>
+    </row>
+    <row r="942" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="41"/>
+    </row>
+    <row r="943" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="41"/>
+    </row>
+    <row r="944" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="41"/>
+    </row>
+    <row r="945" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="41"/>
+    </row>
+    <row r="946" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="41"/>
+    </row>
+    <row r="947" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="41"/>
+    </row>
+    <row r="948" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="41"/>
+    </row>
+    <row r="949" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="41"/>
+    </row>
+    <row r="950" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="41"/>
+    </row>
+    <row r="951" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="41"/>
+    </row>
+    <row r="952" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="41"/>
+    </row>
+    <row r="953" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="41"/>
+    </row>
+    <row r="954" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="41"/>
+    </row>
+    <row r="955" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="41"/>
+    </row>
+    <row r="956" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="41"/>
+    </row>
+    <row r="957" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="41"/>
+    </row>
+    <row r="958" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="41"/>
+    </row>
+    <row r="959" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="41"/>
+    </row>
+    <row r="960" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="41"/>
+    </row>
+    <row r="961" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="41"/>
+    </row>
+    <row r="962" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="41"/>
+    </row>
+    <row r="963" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="41"/>
+    </row>
+    <row r="964" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="41"/>
+    </row>
+    <row r="965" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="41"/>
+    </row>
+    <row r="966" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="41"/>
+    </row>
+    <row r="967" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="41"/>
+    </row>
+    <row r="968" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="41"/>
+    </row>
+    <row r="969" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="41"/>
+    </row>
+    <row r="970" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="41"/>
+    </row>
+    <row r="971" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="41"/>
+    </row>
+    <row r="972" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="41"/>
+    </row>
+    <row r="973" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="41"/>
+    </row>
+    <row r="974" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="41"/>
+    </row>
+    <row r="975" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="41"/>
+    </row>
+    <row r="976" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="41"/>
+    </row>
+    <row r="977" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="41"/>
+    </row>
+    <row r="978" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="41"/>
+    </row>
+    <row r="979" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="41"/>
+    </row>
+    <row r="980" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="41"/>
+    </row>
+    <row r="981" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="41"/>
+    </row>
+    <row r="982" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="41"/>
+    </row>
+    <row r="983" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="41"/>
+    </row>
+    <row r="984" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="41"/>
+    </row>
+    <row r="985" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="41"/>
+    </row>
+    <row r="986" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="41"/>
+    </row>
+    <row r="987" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="41"/>
+    </row>
+    <row r="988" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="41"/>
+    </row>
+    <row r="989" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="41"/>
+    </row>
+    <row r="990" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="41"/>
+    </row>
+    <row r="991" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="41"/>
+    </row>
+    <row r="992" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="41"/>
+    </row>
+    <row r="993" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="41"/>
+    </row>
+    <row r="994" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="41"/>
+    </row>
+    <row r="995" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="41"/>
+    </row>
+    <row r="996" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="41"/>
+    </row>
+    <row r="997" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="41"/>
+    </row>
+    <row r="998" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="41"/>
+    </row>
+    <row r="999" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="41"/>
+    </row>
+    <row r="1000" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="41"/>
+    </row>
+    <row r="1001" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1001" s="41"/>
+    </row>
+    <row r="1002" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1002" s="41"/>
+    </row>
+    <row r="1003" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1003" s="41"/>
+    </row>
+    <row r="1004" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1004" s="41"/>
+    </row>
+    <row r="1005" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1005" s="41"/>
+    </row>
+    <row r="1006" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1006" s="41"/>
+    </row>
+    <row r="1007" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1007" s="41"/>
+    </row>
+    <row r="1008" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1008" s="41"/>
+    </row>
+    <row r="1009" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1009" s="41"/>
+    </row>
+    <row r="1010" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1010" s="41"/>
+    </row>
+    <row r="1011" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1011" s="41"/>
+    </row>
+    <row r="1012" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1012" s="41"/>
+    </row>
+    <row r="1013" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1013" s="41"/>
+    </row>
+    <row r="1014" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1014" s="41"/>
+    </row>
+    <row r="1015" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1015" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/budget.xlsx
+++ b/input/budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juhas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED3F468-DC6D-4F5D-B31B-D07378CD6478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DA23EC-F4C4-44A5-ACA5-36E321FAD209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 BEVÉTEL" sheetId="9" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1279,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1339,6 +1345,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2571,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92008D4C-8AB7-4C05-B927-5FFEF906C208}">
   <dimension ref="A1:BJ178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3235,7 +3242,7 @@
       <c r="A39">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="43" t="s">
         <v>276</v>
       </c>
       <c r="C39" s="3">
@@ -3254,7 +3261,7 @@
         <v>277</v>
       </c>
       <c r="C40" s="3">
-        <v>195992000</v>
+        <v>196525000</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3342,7 +3349,7 @@
       <c r="A48">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="43" t="s">
         <v>284</v>
       </c>
       <c r="C48" s="3">
@@ -4382,7 +4389,7 @@
       <c r="A135">
         <v>99</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C135" s="3">
@@ -4399,8 +4406,9 @@
         <v>221</v>
       </c>
       <c r="C136" s="3">
-        <v>17881000</v>
-      </c>
+        <v>27381000</v>
+      </c>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -4412,6 +4420,7 @@
       <c r="C137" s="3">
         <v>11120000</v>
       </c>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -4423,6 +4432,7 @@
       <c r="C138" s="3">
         <v>6945000</v>
       </c>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -4483,7 +4493,7 @@
       <c r="A144">
         <v>99</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C144" s="3">
@@ -5915,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28EF53E-273D-4E06-9D49-5C13CA21111A}">
   <dimension ref="A1:BJ178"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6571,12 +6581,13 @@
       <c r="A39">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="43" t="s">
         <v>276</v>
       </c>
       <c r="C39" s="3">
         <v>971777000</v>
       </c>
+      <c r="D39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
@@ -6590,6 +6601,7 @@
       <c r="C40" s="3">
         <v>203829000</v>
       </c>
+      <c r="D40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
@@ -6656,7 +6668,7 @@
         <v>151</v>
       </c>
       <c r="C46" s="3">
-        <v>294425000</v>
+        <v>294992000</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6686,7 @@
       <c r="A48">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="43" t="s">
         <v>284</v>
       </c>
       <c r="C48" s="3">
@@ -7646,7 +7658,7 @@
         <v>251370000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>99</v>
       </c>
@@ -7657,7 +7669,7 @@
         <v>778270000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>99</v>
       </c>
@@ -7668,7 +7680,7 @@
         <v>273960000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>99</v>
       </c>
@@ -7679,7 +7691,7 @@
         <v>206070000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>99</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>199407000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>99</v>
       </c>
@@ -7701,7 +7713,7 @@
         <v>269425000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>99</v>
       </c>
@@ -7712,18 +7724,18 @@
         <v>1232539000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>99</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="43" t="s">
         <v>220</v>
       </c>
       <c r="C135" s="3">
         <v>219339000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>99</v>
       </c>
@@ -7733,8 +7745,9 @@
       <c r="C136" s="3">
         <v>8570000</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>99</v>
       </c>
@@ -7744,8 +7757,9 @@
       <c r="C137" s="3">
         <v>36120000</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>99</v>
       </c>
@@ -7756,7 +7770,7 @@
         <v>4620000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>99</v>
       </c>
@@ -7767,7 +7781,7 @@
         <v>8349000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>99</v>
       </c>
@@ -7778,7 +7792,7 @@
         <v>10044000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>99</v>
       </c>
@@ -7789,7 +7803,7 @@
         <v>46743000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>99</v>
       </c>
@@ -7800,7 +7814,7 @@
         <v>31072000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>99</v>
       </c>
@@ -7808,14 +7822,14 @@
         <v>305</v>
       </c>
       <c r="C143" s="3">
-        <v>35877000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73821000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>99</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="43" t="s">
         <v>226</v>
       </c>
       <c r="C144" s="3">
@@ -8047,7 +8061,7 @@
       <c r="A164">
         <v>99</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="43" t="s">
         <v>245</v>
       </c>
       <c r="C164" s="3">
@@ -8062,7 +8076,7 @@
         <v>246</v>
       </c>
       <c r="C165" s="3">
-        <v>437544000</v>
+        <v>437359000</v>
       </c>
     </row>
     <row r="166" spans="1:62" x14ac:dyDescent="0.25">
@@ -9486,7 +9500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B204D8F9-CE92-4F21-86E8-612DCA911A46}">
   <dimension ref="A1:BJ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
